--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeilSmyth\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165104A5-9F5B-4077-B2B1-36BC5E609852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83377465-330F-47D5-AB7F-90958ADE273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{803F6BCA-D7A7-4AC9-BDD8-7DDDBA99C8E3}"/>
+    <workbookView xWindow="4290" yWindow="4240" windowWidth="14220" windowHeight="7200" activeTab="1" xr2:uid="{803F6BCA-D7A7-4AC9-BDD8-7DDDBA99C8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="EPICS_ESTIMATES">[1]!Table2[Estimate - Remaining]</definedName>
-    <definedName name="EPICS_PERIOD">[1]!Table2[Period]</definedName>
+    <definedName name="EPICS_ESTIMATES">Table2[Estimate - Remaining]</definedName>
+    <definedName name="EPICS_PERIOD">Table2[Period]</definedName>
     <definedName name="PERIODS">Parameters!$A$11:$A$14</definedName>
     <definedName name="PLANNING">Parameters!$A$11:$G$14</definedName>
     <definedName name="VSTS_f7c33b33_884a_46bc_8462_5877845cc25c_1" hidden="1">#REF!</definedName>
@@ -392,21 +392,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,13 +400,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,10 +417,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1656,6 +1656,7 @@
       <sheetName val="Capacity + Allocation"/>
       <sheetName val="EPICS_GITHUB"/>
       <sheetName val="VSTS_ValidationWS_1"/>
+      <sheetName val="capacity-planning-template_old"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1712,6 +1713,7 @@
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2051,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C4E8DA-25C2-4D1B-ADAA-0D2EA9E9D227}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2066,164 +2068,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="2">
         <v>44957</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>56</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="7">
         <v>45013</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="8">
         <v>0.5</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="9">
         <f>(WEEKNUM(B11)-WEEKNUM($B$3))/2</f>
         <v>4</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="10">
         <v>200</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="10">
         <f>E11*D11*C11</f>
         <v>400</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="7">
         <v>45107</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="8">
         <v>0.6</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="9">
         <f>(WEEKNUM(B12)-WEEKNUM(B11))/2</f>
         <v>6.5</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="10">
         <v>200</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="10">
         <f t="shared" ref="F12:F14" si="0">E12*D12*C12</f>
         <v>780</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="7">
         <v>45291</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="8">
         <v>0.5</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="9">
         <f>(WEEKNUM(B13)-WEEKNUM(B12))/2</f>
         <v>13.5</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="10">
         <v>200</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
+      <c r="A14" s="6">
         <v>2024</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="7">
         <v>45657</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="8">
         <v>0.5</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="9">
         <f>(WEEKNUM(B14))/2</f>
         <v>26.5</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="10">
         <v>200</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>2650</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2245,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF7D0EA-634C-4549-AD9B-059907E012FB}">
   <dimension ref="A4:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2263,10 +2265,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19" cm="1">
+      <c r="B5" s="12" cm="1">
         <f t="array" ref="B5">SUMIF(EPICS_PERIOD, A5, EPICS_ESTIMATES)</f>
         <v>260</v>
       </c>
@@ -2275,7 +2277,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B6" cm="1">
@@ -2287,7 +2289,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B7" cm="1">
@@ -2299,7 +2301,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="11">
         <v>2024</v>
       </c>
       <c r="B8" cm="1">
@@ -2323,21 +2325,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B334613F-B4E1-4A20-853A-4E00A027C2F3}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="67.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="25.08984375" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" customWidth="1"/>
+    <col min="9" max="9" width="38.08984375" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="E1" s="22" t="s">
         <v>18</v>
       </c>
@@ -2346,8 +2355,8 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2365,10 +2374,10 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
@@ -2397,10 +2406,10 @@
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="13"/>
       <c r="H4">
         <v>260</v>
       </c>
@@ -2424,10 +2433,10 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="13"/>
       <c r="H5">
         <v>500</v>
       </c>
@@ -2451,10 +2460,10 @@
       <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="13">
         <v>2024</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="13"/>
       <c r="H6">
         <v>400</v>
       </c>
@@ -2463,56 +2472,56 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeilSmyth\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83377465-330F-47D5-AB7F-90958ADE273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD01501E-05AD-48D9-AA65-44FC87DC3A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4240" windowWidth="14220" windowHeight="7200" activeTab="1" xr2:uid="{803F6BCA-D7A7-4AC9-BDD8-7DDDBA99C8E3}"/>
+    <workbookView xWindow="410" yWindow="350" windowWidth="9470" windowHeight="4970" activeTab="2" xr2:uid="{803F6BCA-D7A7-4AC9-BDD8-7DDDBA99C8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Capacity" sheetId="2" r:id="rId2"/>
     <sheet name="GITHUB_EPICS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="EPICS_ESTIMATES">Table2[Estimate - Remaining]</definedName>
     <definedName name="EPICS_PERIOD">Table2[Period]</definedName>
@@ -84,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Capacity planning for Alkemio</t>
   </si>
@@ -135,19 +132,6 @@
   </si>
   <si>
     <t>Available</t>
-  </si>
-  <si>
-    <t>Filter criteria: 
-- repo: Alkemio
-- label: Epic
-- pipeline: Not closed</t>
-  </si>
-  <si>
-    <t>TBD
-- Use labels for initiatives?
-- Resource type breakdown per Epic
-- Make use of backlog ranking? + where?
-- Plan per team or in aggregate?</t>
   </si>
   <si>
     <t>ID</t>
@@ -648,45 +632,39 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'[1]Capacity + Allocation'!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023 H2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2023 Q1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2023 Q2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2023 H2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2024</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'[1]Capacity + Allocation'!$B$4:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>260</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>400</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -698,15 +676,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'[1]Capacity + Allocation'!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Available</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Available</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -780,45 +750,39 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'[1]Capacity + Allocation'!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023 H2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2023 Q1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2023 Q2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2023 H2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2024</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'[1]Capacity + Allocation'!$C$4:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>300</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>600</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1643,80 +1607,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Parameters"/>
-      <sheetName val="Capacity + Allocation"/>
-      <sheetName val="EPICS_GITHUB"/>
-      <sheetName val="VSTS_ValidationWS_1"/>
-      <sheetName val="capacity-planning-template_old"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Available</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>2023 Q1</v>
-          </cell>
-          <cell r="B4">
-            <v>260</v>
-          </cell>
-          <cell r="C4">
-            <v>500</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>2023 Q2</v>
-          </cell>
-          <cell r="B5">
-            <v>500</v>
-          </cell>
-          <cell r="C5">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>2023 H2</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>300</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2024</v>
-          </cell>
-          <cell r="B7">
-            <v>400</v>
-          </cell>
-          <cell r="C7">
-            <v>600</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2053,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C4E8DA-25C2-4D1B-ADAA-0D2EA9E9D227}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showFormulas="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2247,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF7D0EA-634C-4549-AD9B-059907E012FB}">
   <dimension ref="A4:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2325,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B334613F-B4E1-4A20-853A-4E00A027C2F3}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2343,13 +2233,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="A1" s="21"/>
       <c r="B1" s="21"/>
-      <c r="E1" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -2360,34 +2246,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2395,16 +2281,16 @@
         <v>2447</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>11</v>
@@ -2414,7 +2300,7 @@
         <v>260</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2422,16 +2308,16 @@
         <v>2332</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>12</v>
@@ -2441,7 +2327,7 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2449,16 +2335,16 @@
         <v>2222</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="13">
         <v>2024</v>
@@ -2468,7 +2354,7 @@
         <v>400</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">

--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeilSmyth\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2398F19-FB30-4D6C-8517-6DFA49E8FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7B16E-34EA-4E00-AAE6-13CEC726C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="GITHUB_EPICS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$48</definedName>
-    <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$G$2:$G$49</definedName>
-    <definedName name="EPICS_PERIOD">GITHUB_EPICS!$F$2:$F$49</definedName>
-    <definedName name="EPICS_STATUS">GITHUB_EPICS!$D$2:$D$49</definedName>
-    <definedName name="EPICS_TYPE">GITHUB_EPICS!$E$2:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$M$88</definedName>
+    <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$F$2:$F$99</definedName>
+    <definedName name="EPICS_PERIOD">GITHUB_EPICS!$H$2:$H$99</definedName>
+    <definedName name="EPICS_STATUS">GITHUB_EPICS!$E$2:$E$99</definedName>
+    <definedName name="EPICS_TYPE">GITHUB_EPICS!$J$2:$J$99</definedName>
     <definedName name="PERIODS">Parameters!$A$11:$A$49</definedName>
     <definedName name="PLANNING">Parameters!$A$11:$G$15</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="170">
   <si>
     <t>Capacity planning for Alkemio</t>
   </si>
@@ -136,18 +136,6 @@
     <t>alkemio</t>
   </si>
   <si>
-    <t>T: User Engagment,Initiative</t>
-  </si>
-  <si>
-    <t>I: Innovation Spaces</t>
-  </si>
-  <si>
-    <t>Initiative</t>
-  </si>
-  <si>
-    <t>Functionality: new</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -187,18 +175,12 @@
     <t>UX Refinements: Round 2</t>
   </si>
   <si>
-    <t>Functionality: enhancements</t>
-  </si>
-  <si>
     <t>2023-01-03</t>
   </si>
   <si>
     <t>Epic,UX</t>
   </si>
   <si>
-    <t>Platform Home page</t>
-  </si>
-  <si>
     <t>Andrew Pazniak</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t>Maintenance</t>
   </si>
   <si>
-    <t>Innovation Spaces v1</t>
-  </si>
-  <si>
     <t>Being defined</t>
   </si>
   <si>
@@ -247,18 +226,12 @@
     <t>Epic,UX,client</t>
   </si>
   <si>
-    <t>Search: Within a Hub</t>
-  </si>
-  <si>
     <t>UWV, VNG</t>
   </si>
   <si>
     <t>Community forum on the platform</t>
   </si>
   <si>
-    <t>Naming alignment</t>
-  </si>
-  <si>
     <t>Valentin Yanakiev</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>Epic,Infrastructure</t>
   </si>
   <si>
-    <t>Demo onto production</t>
-  </si>
-  <si>
     <t>UX Refinements - Round 4</t>
   </si>
   <si>
@@ -280,9 +250,6 @@
     <t xml:space="preserve">Contribute Page </t>
   </si>
   <si>
-    <t>Whiteboard: Usability</t>
-  </si>
-  <si>
     <t>2023 Q3</t>
   </si>
   <si>
@@ -301,9 +268,6 @@
     <t>Epic,server</t>
   </si>
   <si>
-    <t>Server domain model refinements</t>
-  </si>
-  <si>
     <t>Release mgmt: Documentation, process + split</t>
   </si>
   <si>
@@ -313,9 +277,6 @@
     <t>Whiteboard: interactive multi-user editing</t>
   </si>
   <si>
-    <t xml:space="preserve">Community: Terms per Hub </t>
-  </si>
-  <si>
     <t>Icebox</t>
   </si>
   <si>
@@ -325,18 +286,12 @@
     <t>Documents: Storage with privacy</t>
   </si>
   <si>
-    <t>Accessibility + keyboard navigation</t>
-  </si>
-  <si>
     <t>Performance: Dataloaders / field resolvers</t>
   </si>
   <si>
     <t>Comments: Improved interaction</t>
   </si>
   <si>
-    <t>Library: Innovation Pack management + usage</t>
-  </si>
-  <si>
     <t>Parked</t>
   </si>
   <si>
@@ -379,18 +334,12 @@
     <t>Ecosystem Analytics: prototype</t>
   </si>
   <si>
-    <t>Visuals on Journeys: Enhanced selection + search with alternative text</t>
-  </si>
-  <si>
     <t>Carlos Cano</t>
   </si>
   <si>
     <t>Image upload + storage</t>
   </si>
   <si>
-    <t>Differentiation between journeys</t>
-  </si>
-  <si>
     <t>Matrix adapter as a separate service</t>
   </si>
   <si>
@@ -403,13 +352,211 @@
     <t>Functionality: Strategic</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
     <t>Envision</t>
+  </si>
+  <si>
+    <t>Domain model: Naming alignment</t>
+  </si>
+  <si>
+    <t>Domain Model: Profiles</t>
+  </si>
+  <si>
+    <t>Kratos 0.11 Update</t>
+  </si>
+  <si>
+    <t>Callout: single canvas type</t>
+  </si>
+  <si>
+    <t>Data Integrity</t>
+  </si>
+  <si>
+    <t>Callouts in context</t>
+  </si>
+  <si>
+    <t>Custom URL for Demo Hubs on production</t>
+  </si>
+  <si>
+    <t>Innovation Spaces: Specified Communities + visuals</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>Demo environment data migration + retirement</t>
+  </si>
+  <si>
+    <t>Landing page v1</t>
+  </si>
+  <si>
+    <t>Operations: Security</t>
+  </si>
+  <si>
+    <t>Search++: Within a Hub, Contributions, UI</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>Whiteboard: Usability v1</t>
+  </si>
+  <si>
+    <t>Operations: Effectiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Terms + Conditions </t>
+  </si>
+  <si>
+    <t>Visuals on Journeys: Enhanced selection + suggested imageswith alternative text</t>
+  </si>
+  <si>
+    <t>Journey  Pages structure roadmap</t>
+  </si>
+  <si>
+    <t>Choral Explanations</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>Smart search v1</t>
+  </si>
+  <si>
+    <t>Community tab in Hub menu</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>UX,Epic</t>
+  </si>
+  <si>
+    <t>Landing page: refinements + maintainability</t>
+  </si>
+  <si>
+    <t>QA Test suites catchup</t>
+  </si>
+  <si>
+    <t>Notifications dashboard</t>
+  </si>
+  <si>
+    <t>Release mgmt: release notes + changelog</t>
+  </si>
+  <si>
+    <t>Operations: Platform monitoring</t>
+  </si>
+  <si>
+    <t>Reporting: Platform usage insights</t>
+  </si>
+  <si>
+    <t>Data Integrity: v2</t>
+  </si>
+  <si>
+    <t>security,Epic</t>
+  </si>
+  <si>
+    <t>Security: Secret management</t>
+  </si>
+  <si>
+    <t>Operational security analysis</t>
+  </si>
+  <si>
+    <t>Operations: Kratos, Cluster Health</t>
+  </si>
+  <si>
+    <t>Functionality: Tactical</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Keyboard navigation</t>
+  </si>
+  <si>
+    <t>Library: Innovation Pack management</t>
+  </si>
+  <si>
+    <t>Branding at platform level</t>
+  </si>
+  <si>
+    <t>Innovation spaces: readiness for release</t>
+  </si>
+  <si>
+    <t>client-web</t>
+  </si>
+  <si>
+    <t>epic,client,UX</t>
+  </si>
+  <si>
+    <t>Knowledge Management in journeys</t>
+  </si>
+  <si>
+    <t>Epic,A: Community</t>
+  </si>
+  <si>
+    <t>Engagement: user newsletter signup during registration</t>
+  </si>
+  <si>
+    <t>Update of Journey settings tab</t>
+  </si>
+  <si>
+    <t>Search results validated in service</t>
+  </si>
+  <si>
+    <t>Accessibility Gap Analysis</t>
+  </si>
+  <si>
+    <t>Innovation library usage</t>
+  </si>
+  <si>
+    <t>Sharing: social media</t>
+  </si>
+  <si>
+    <t>Follow a Hub / Challenge / Opportunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preference for aggregated of notifications </t>
+  </si>
+  <si>
+    <t>User to user messaging via message box</t>
+  </si>
+  <si>
+    <t>Epic,QA</t>
+  </si>
+  <si>
+    <t>Performance + scalability testing</t>
+  </si>
+  <si>
+    <t>Callouts: Sorting control</t>
+  </si>
+  <si>
+    <t>Valentin Yanakiev,Denise Larsson</t>
+  </si>
+  <si>
+    <t>Callout: Survey / voting</t>
+  </si>
+  <si>
+    <t>Callout templates</t>
+  </si>
+  <si>
+    <t>Callout: Jobs to be done</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>Add Callout title + description to Card/Canvas creation</t>
+  </si>
+  <si>
+    <t>Innovation Flow to include goal/checklist/callouts</t>
+  </si>
+  <si>
+    <t>Server: Performance Optimization</t>
+  </si>
+  <si>
+    <t>Search in Contribute page</t>
   </si>
 </sst>
 </file>
@@ -553,10 +700,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -803,16 +947,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>730</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -914,10 +1058,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>560</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>780</c:v>
+                  <c:v>909.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>650</c:v>
@@ -1138,86 +1282,15 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$D$4</c:f>
+              <c:f>Capacity!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Functionality: enhancements</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Capacity!$A$5:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023 Q3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023 Q4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacity!$D$5:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0DC-4B98-99BD-BFCD2233A6BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capacity!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Functionality: new</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1232,43 +1305,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Capacity!$A$5:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023 Q3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023 Q4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$E$5:$E$8</c:f>
+              <c:f>Capacity!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,14 +1325,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$F$4</c:f>
+              <c:f>Capacity!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Maintenance</c:v>
+                  <c:v>Functionality: Tactical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1303,40 +1347,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Capacity!$A$5:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023 Q3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023 Q4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$F$5:$F$8</c:f>
+              <c:f>Capacity!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1352,14 +1376,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$G$4</c:f>
+              <c:f>Capacity!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Security</c:v>
+                  <c:v>Maintenance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1374,40 +1398,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Capacity!$A$5:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023 Q3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023 Q4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$G$5:$G$8</c:f>
+              <c:f>Capacity!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1423,14 +1427,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$H$4</c:f>
+              <c:f>Capacity!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Performance</c:v>
+                  <c:v>Operations: Security</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1445,40 +1449,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Capacity!$A$5:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023 Q3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023 Q4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$H$5:$H$8</c:f>
+              <c:f>Capacity!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1494,14 +1478,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$I$4</c:f>
+              <c:f>Capacity!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Functionality: Strategic</c:v>
+                  <c:v>Operations: Effectiveness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1516,40 +1500,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Capacity!$A$5:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023 Q3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2023 Q4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$I$5:$I$8</c:f>
+              <c:f>Capacity!$G$5:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1565,14 +1529,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$J$4</c:f>
+              <c:f>Capacity!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not specified</c:v>
+                  <c:v>Usability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1589,26 +1553,110 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Capacity!$A$5:$A$8</c:f>
-              <c:strCache>
+          <c:val>
+            <c:numRef>
+              <c:f>Capacity!$H$5:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2023 Q1</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2023 Q2</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2023 Q3</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2023 Q4</c:v>
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EFF-42D9-B55F-98A0EC659F94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Capacity!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Capacity!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6F09-4AE6-8EF4-2051DD602F08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Capacity!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Functionality: Strategic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$J$5:$J$8</c:f>
@@ -1616,13 +1664,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1632,7 +1680,60 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9EFF-42D9-B55F-98A0EC659F94}"/>
+              <c16:uniqueId val="{00000004-6F09-4AE6-8EF4-2051DD602F08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Capacity!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not specified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Capacity!$K$5:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6F09-4AE6-8EF4-2051DD602F08}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2381,14 +2482,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>151561</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
@@ -2417,13 +2518,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -2455,9 +2556,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A4:J9" totalsRowShown="0">
-  <autoFilter ref="A4:J9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A4:K9" totalsRowShown="0">
+  <autoFilter ref="A4:K9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Delivery"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Planned" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
@@ -2465,26 +2566,29 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Available">
       <calculatedColumnFormula>Parameters!F11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6C748445-1AE4-4B48-9D79-76B2325199D9}" name="Functionality: enhancements" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{420E4733-D818-4697-B4AC-49919F34E6A1}" name="Functionality: Tactical" dataDxfId="4">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{420E4733-D818-4697-B4AC-49919F34E6A1}" name="Functionality: new" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{C298A470-F5E4-4C9D-A835-37621F5C7C5C}" name="Maintenance" dataDxfId="3">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C298A470-F5E4-4C9D-A835-37621F5C7C5C}" name="Maintenance" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{1E9537EA-C654-4C41-869E-4B20D36B1310}" name="Operations: Security" dataDxfId="2">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1E9537EA-C654-4C41-869E-4B20D36B1310}" name="Security" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{AB5BDEA6-3CB3-4A95-AB00-2A8B4589EBDA}" name="Operations: Effectiveness">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{38437634-015A-4968-B70A-73EC423821EB}" name="Performance">
+    <tableColumn id="12" xr3:uid="{43175893-A88C-4A75-A227-8493825C6391}" name="Usability">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{147563EA-0BC5-490E-A60D-F4734C5093BA}" name="Functionality: Strategic" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{38437634-015A-4968-B70A-73EC423821EB}" name="Performance">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DC4CAD30-AA84-40FB-8366-4759F029E489}" name="Not specified" dataDxfId="6">
-      <calculatedColumnFormula>Table3[[#This Row],[Planned]]-SUM(D5:I5)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{147563EA-0BC5-490E-A60D-F4734C5093BA}" name="Functionality: Strategic" dataDxfId="1">
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, J$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DC4CAD30-AA84-40FB-8366-4759F029E489}" name="Not specified" dataDxfId="0">
+      <calculatedColumnFormula>Table3[[#This Row],[Planned]]-SUM(D5:J5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2790,21 +2894,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2916,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -2820,17 +2924,17 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2840,7 +2944,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -2863,7 +2967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2872,7 +2976,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2880,22 +2984,22 @@
         <v>45013</v>
       </c>
       <c r="C11" s="8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D11" s="9">
         <f>(WEEKNUM(B11,1)-WEEKNUM($B$3,1))/2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="10">
         <v>200</v>
       </c>
       <c r="F11" s="10">
         <f>E11*D11*C11</f>
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -2903,7 +3007,7 @@
         <v>45107</v>
       </c>
       <c r="C12" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D12" s="9">
         <f>(WEEKNUM(B12,1)-WEEKNUM(B11,1))/2</f>
@@ -2914,13 +3018,13 @@
       </c>
       <c r="F12" s="10">
         <f>E12*D12*C12</f>
-        <v>780</v>
+        <v>909.99999999999989</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7">
         <v>45199</v>
@@ -2941,9 +3045,9 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7">
         <v>45291</v>
@@ -2964,7 +3068,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" s="6">
         <v>2024</v>
       </c>
@@ -3005,24 +3109,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:J9"/>
+  <dimension ref="A4:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="D7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" customWidth="1"/>
+    <col min="5" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3033,194 +3136,213 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>730</v>
+        <v>390</v>
       </c>
       <c r="C5" s="12">
         <f>Parameters!F11</f>
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="D5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>60</v>
+        <f t="shared" ref="D5:J9" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="F5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+      <c r="K5">
+        <f>Table3[[#This Row],[Planned]]-SUM(D5:J5)</f>
         <v>20</v>
       </c>
-      <c r="H5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>210</v>
-      </c>
-      <c r="J5">
-        <f>Table3[[#This Row],[Planned]]-SUM(D5:I5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="C6" s="12">
         <f>Parameters!F12</f>
-        <v>780</v>
+        <v>909.99999999999989</v>
       </c>
       <c r="D6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>260</v>
-      </c>
       <c r="J6">
-        <f>Table3[[#This Row],[Planned]]-SUM(D6:I6)</f>
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="K6">
+        <f>Table3[[#This Row],[Planned]]-SUM(D6:J6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="11" t="str">
         <f>Parameters!A13</f>
         <v>2023 Q3</v>
       </c>
       <c r="B7">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="C7" s="12">
         <f>Parameters!F13</f>
         <v>650</v>
       </c>
       <c r="D7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="K7">
+        <f>Table3[[#This Row],[Planned]]-SUM(D7:J7)</f>
         <v>0</v>
       </c>
-      <c r="E7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>80</v>
-      </c>
-      <c r="H7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>Table3[[#This Row],[Planned]]-SUM(D7:I7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="11" t="str">
         <f>Parameters!A14</f>
         <v>2023 Q4</v>
       </c>
       <c r="B8">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C8" s="12">
         <f>Parameters!F14</f>
         <v>700</v>
       </c>
       <c r="D8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+      <c r="K8">
+        <f>Table3[[#This Row],[Planned]]-SUM(D8:J8)</f>
         <v>0</v>
       </c>
-      <c r="J8">
-        <f>Table3[[#This Row],[Planned]]-SUM(D8:I8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="11">
         <f>Parameters!A15</f>
         <v>2024</v>
@@ -3234,31 +3356,35 @@
         <v>2650</v>
       </c>
       <c r="D9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>Table3[[#This Row],[Planned]]-SUM(D9:I9)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>Table3[[#This Row],[Planned]]-SUM(D9:J9)</f>
         <v>0</v>
       </c>
     </row>
@@ -3274,1279 +3400,2661 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
-  <dimension ref="A1:L48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L48"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="58.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="48.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
+      <c r="L3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
         <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4">
         <v>80</v>
       </c>
       <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
         <v>40</v>
       </c>
-      <c r="K4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="K7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>140</v>
       </c>
       <c r="K8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="G14">
-        <v>30</v>
-      </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
       </c>
       <c r="G15">
         <v>30</v>
       </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23">
         <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>30</v>
-      </c>
-      <c r="J19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
       </c>
       <c r="G23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
       </c>
       <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <v>80</v>
+      </c>
+      <c r="G26">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="H26" t="s">
         <v>12</v>
       </c>
-      <c r="G25">
-        <v>30</v>
-      </c>
-      <c r="J25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>80</v>
-      </c>
-      <c r="K26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
+      <c r="J26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
       </c>
       <c r="G27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
       </c>
       <c r="G28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
       </c>
       <c r="G29">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
         <v>12</v>
       </c>
-      <c r="G30">
+      <c r="J31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>30</v>
-      </c>
-      <c r="K31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
       <c r="G32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
       </c>
       <c r="G33">
         <v>50</v>
       </c>
+      <c r="H33" t="s">
+        <v>67</v>
+      </c>
       <c r="J33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
       </c>
       <c r="G34">
         <v>50</v>
       </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
       <c r="J34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
       </c>
       <c r="G35">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
+      <c r="H35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
       </c>
       <c r="G37">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
+      <c r="H37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="B38" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>89</v>
       </c>
       <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>116</v>
+      </c>
+      <c r="J40" t="s">
         <v>118</v>
       </c>
-      <c r="F38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38">
-        <v>30</v>
-      </c>
-      <c r="J38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="F42">
+        <v>80</v>
+      </c>
+      <c r="G42">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" t="s">
+        <v>140</v>
+      </c>
+      <c r="K43" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="G39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46">
+        <v>40</v>
+      </c>
+      <c r="L46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47">
+        <v>30</v>
+      </c>
+      <c r="L47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
         <v>105</v>
       </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40">
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48">
         <v>50</v>
-      </c>
-      <c r="J40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="I47" t="s">
-        <v>47</v>
-      </c>
-      <c r="K47">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" t="s">
-        <v>11</v>
       </c>
       <c r="G48">
         <v>50</v>
       </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
-      </c>
-      <c r="K48">
-        <v>30</v>
-      </c>
-    </row>
+        <v>114</v>
+      </c>
+      <c r="L48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54">
+        <v>80</v>
+      </c>
+      <c r="G54">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J59" t="s">
+        <v>118</v>
+      </c>
+      <c r="L59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" t="s">
+        <v>118</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+      <c r="L61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
+        <v>118</v>
+      </c>
+      <c r="L62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" t="s">
+        <v>114</v>
+      </c>
+      <c r="L63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>67</v>
+      </c>
+      <c r="J64" t="s">
+        <v>114</v>
+      </c>
+      <c r="L64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>118</v>
+      </c>
+      <c r="L65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+      <c r="L66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>50</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="G70">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>30</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
+      </c>
+      <c r="G75">
+        <v>50</v>
+      </c>
+      <c r="H75" t="s">
+        <v>68</v>
+      </c>
+      <c r="J75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76">
+        <v>80</v>
+      </c>
+      <c r="G76">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s">
+        <v>68</v>
+      </c>
+      <c r="J76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>50</v>
+      </c>
+      <c r="H77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
+      </c>
+      <c r="H78" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+      <c r="J79" t="s">
+        <v>140</v>
+      </c>
+      <c r="L79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87">
+        <v>20</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+      <c r="L87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.75"/>
   </sheetData>
-  <autoFilter ref="A1:L48" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}"/>
+  <autoFilter ref="A1:M88" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="2023 Q3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeilSmyth\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7B16E-34EA-4E00-AAE6-13CEC726C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F56AC31-3344-442D-9400-B4C17C25DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="GITHUB_EPICS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$M$88</definedName>
-    <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$F$2:$F$99</definedName>
-    <definedName name="EPICS_PERIOD">GITHUB_EPICS!$H$2:$H$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$M$90</definedName>
+    <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$I$2:$I$99</definedName>
+    <definedName name="EPICS_PERIOD">GITHUB_EPICS!$F$2:$F$99</definedName>
     <definedName name="EPICS_STATUS">GITHUB_EPICS!$E$2:$E$99</definedName>
-    <definedName name="EPICS_TYPE">GITHUB_EPICS!$J$2:$J$99</definedName>
+    <definedName name="EPICS_TYPE">GITHUB_EPICS!$K$2:$K$99</definedName>
     <definedName name="PERIODS">Parameters!$A$11:$A$49</definedName>
     <definedName name="PLANNING">Parameters!$A$11:$G$15</definedName>
   </definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="178">
   <si>
     <t>Capacity planning for Alkemio</t>
   </si>
@@ -175,9 +175,6 @@
     <t>UX Refinements: Round 2</t>
   </si>
   <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
     <t>Epic,UX</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>Comments: Improved interaction</t>
   </si>
   <si>
-    <t>Parked</t>
-  </si>
-  <si>
     <t>Security: Kubernetes hardening</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>Carlos Cano</t>
   </si>
   <si>
-    <t>Image upload + storage</t>
-  </si>
-  <si>
     <t>Matrix adapter as a separate service</t>
   </si>
   <si>
@@ -532,31 +523,64 @@
     <t>Callouts: Sorting control</t>
   </si>
   <si>
-    <t>Valentin Yanakiev,Denise Larsson</t>
-  </si>
-  <si>
-    <t>Callout: Survey / voting</t>
-  </si>
-  <si>
-    <t>Callout templates</t>
-  </si>
-  <si>
-    <t>Callout: Jobs to be done</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>Add Callout title + description to Card/Canvas creation</t>
-  </si>
-  <si>
-    <t>Innovation Flow to include goal/checklist/callouts</t>
-  </si>
-  <si>
     <t>Server: Performance Optimization</t>
   </si>
   <si>
     <t>Search in Contribute page</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Core Capabilities</t>
+  </si>
+  <si>
+    <t>Elaborated</t>
+  </si>
+  <si>
+    <t>Epic,UX,Roadmap Candidate</t>
+  </si>
+  <si>
+    <t>Email Templates</t>
+  </si>
+  <si>
+    <t>Epic,Roadmap Candidate</t>
+  </si>
+  <si>
+    <t>Improved content editing</t>
+  </si>
+  <si>
+    <t>Hide / turn functionalities off</t>
+  </si>
+  <si>
+    <t>Integration of other online tools</t>
+  </si>
+  <si>
+    <t>Image upload in content editor</t>
+  </si>
+  <si>
+    <t>UX Refinements Round 5</t>
+  </si>
+  <si>
+    <t>Current / next quarter</t>
+  </si>
+  <si>
+    <t>Epic,Security</t>
+  </si>
+  <si>
+    <t>Security headers hardening</t>
+  </si>
+  <si>
+    <t>Community Application Questions</t>
+  </si>
+  <si>
+    <t>epic,client,Roadmap Candidate</t>
+  </si>
+  <si>
+    <t>Client: Developer documentation, roadmap</t>
+  </si>
+  <si>
+    <t>Search: Additional contiribution types</t>
   </si>
 </sst>
 </file>
@@ -947,16 +971,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>390</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>910</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>980</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1282,50 +1306,8 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capacity!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacity!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0DC-4B98-99BD-BFCD2233A6BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Capacity!$D$4</c:f>
@@ -1347,6 +1329,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Capacity!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$D$5:$D$8</c:f>
@@ -1360,7 +1362,7 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1376,7 +1378,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Capacity!$E$4</c:f>
@@ -1398,6 +1400,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Capacity!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$E$5:$E$8</c:f>
@@ -1408,10 +1430,10 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1427,7 +1449,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Capacity!$F$4</c:f>
@@ -1449,6 +1471,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Capacity!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$F$5:$F$8</c:f>
@@ -1478,7 +1520,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Capacity!$G$4</c:f>
@@ -1500,6 +1542,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Capacity!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$G$5:$G$8</c:f>
@@ -1510,10 +1572,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1529,7 +1591,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Capacity!$H$4</c:f>
@@ -1553,6 +1615,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Capacity!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$H$5:$H$8</c:f>
@@ -1563,13 +1645,13 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,7 +1664,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Capacity!$I$4</c:f>
@@ -1604,6 +1686,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Capacity!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$I$5:$I$8</c:f>
@@ -1617,10 +1719,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,7 +1735,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Capacity!$J$4</c:f>
@@ -1657,6 +1759,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Capacity!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$J$5:$J$8</c:f>
@@ -1686,7 +1808,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Capacity!$K$4</c:f>
@@ -1710,6 +1832,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Capacity!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Capacity!$K$5:$K$8</c:f>
@@ -1717,10 +1859,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3024,7 +3166,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="7">
         <v>45199</v>
@@ -3047,7 +3189,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7">
         <v>45291</v>
@@ -3111,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -3136,28 +3278,28 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.75">
@@ -3166,7 +3308,7 @@
       </c>
       <c r="B5">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C5" s="12">
         <f>Parameters!F11</f>
@@ -3202,7 +3344,7 @@
       </c>
       <c r="K5">
         <f>Table3[[#This Row],[Planned]]-SUM(D5:J5)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.75">
@@ -3211,7 +3353,7 @@
       </c>
       <c r="B6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="C6" s="12">
         <f>Parameters!F12</f>
@@ -3223,7 +3365,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -3231,11 +3373,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -3247,7 +3389,7 @@
       </c>
       <c r="K6">
         <f>Table3[[#This Row],[Planned]]-SUM(D6:J6)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.75">
@@ -3257,7 +3399,7 @@
       </c>
       <c r="B7">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>980</v>
+        <v>1080</v>
       </c>
       <c r="C7" s="12">
         <f>Parameters!F13</f>
@@ -3265,11 +3407,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -3277,15 +3419,15 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -3303,7 +3445,7 @@
       </c>
       <c r="B8">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C8" s="12">
         <f>Parameters!F14</f>
@@ -3327,11 +3469,11 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -3401,21 +3543,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="49.453125" customWidth="1"/>
-    <col min="3" max="3" width="3.90625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="48.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="86.1796875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="10" width="10.90625" customWidth="1"/>
+    <col min="11" max="11" width="27.26953125" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.75">
@@ -3435,25 +3580,25 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
         <v>27</v>
@@ -3461,75 +3606,75 @@
     </row>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
+      <c r="K2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="F3">
-        <v>80</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>139</v>
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -3537,34 +3682,34 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4">
         <v>80</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>139</v>
+      <c r="J4">
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -3572,72 +3717,60 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5">
+        <v>52</v>
+      </c>
+      <c r="I5">
         <v>30</v>
       </c>
-      <c r="L5" t="s">
-        <v>39</v>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>136</v>
       </c>
       <c r="M5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>30</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
@@ -3648,37 +3781,31 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>136</v>
       </c>
       <c r="M7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -3686,544 +3813,433 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="J12">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
-      <c r="L10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
         <v>50</v>
       </c>
-      <c r="F12">
-        <v>80</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>30</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s">
-        <v>139</v>
-      </c>
       <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15">
+        <v>80</v>
+      </c>
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>61</v>
+      <c r="K15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="I17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19">
-        <v>30</v>
-      </c>
-      <c r="G19">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20">
-        <v>30</v>
-      </c>
-      <c r="G20">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21">
-        <v>30</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22">
-        <v>30</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -4234,60 +4250,48 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>80</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25">
         <v>30</v>
       </c>
-      <c r="G24">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25">
-        <v>80</v>
-      </c>
-      <c r="G25">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25">
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="K25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -4295,25 +4299,28 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26">
         <v>80</v>
       </c>
-      <c r="G26">
-        <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -4321,25 +4328,25 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -4347,25 +4354,22 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -4373,25 +4377,22 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29">
-        <v>50</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="H29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -4399,185 +4400,119 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30">
-        <v>50</v>
-      </c>
-      <c r="G30">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30">
+      <c r="K33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35">
         <v>30</v>
       </c>
-      <c r="L30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-      <c r="G31">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="G32">
-        <v>50</v>
-      </c>
-      <c r="H32" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" t="s">
-        <v>100</v>
-      </c>
-      <c r="K32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33">
-        <v>50</v>
-      </c>
-      <c r="G33">
-        <v>50</v>
-      </c>
-      <c r="H33" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="G34">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-      <c r="J34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" t="s">
-        <v>118</v>
-      </c>
-      <c r="L35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -4585,127 +4520,91 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36">
+        <v>80</v>
+      </c>
+      <c r="K36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37">
+        <v>50</v>
+      </c>
+      <c r="K37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38">
         <v>30</v>
       </c>
-      <c r="G36">
+      <c r="K38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39">
         <v>30</v>
       </c>
-      <c r="H36" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37">
-        <v>30</v>
-      </c>
-      <c r="G37">
-        <v>30</v>
-      </c>
-      <c r="H37" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38">
-        <v>20</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" t="s">
-        <v>100</v>
-      </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39">
-        <v>50</v>
-      </c>
-      <c r="G39">
-        <v>50</v>
-      </c>
-      <c r="H39" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" t="s">
-        <v>139</v>
-      </c>
       <c r="K39" t="s">
-        <v>91</v>
-      </c>
-      <c r="L39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B40" t="s">
         <v>28</v>
       </c>
@@ -4713,118 +4612,94 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41">
         <v>20</v>
       </c>
-      <c r="G40">
+      <c r="K41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42">
         <v>20</v>
       </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" t="s">
-        <v>116</v>
-      </c>
-      <c r="J40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="K42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="K43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
         <v>93</v>
       </c>
-      <c r="E41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41">
-        <v>30</v>
-      </c>
-      <c r="G41">
-        <v>30</v>
-      </c>
-      <c r="H41" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42">
-        <v>80</v>
-      </c>
-      <c r="G42">
-        <v>80</v>
-      </c>
-      <c r="H42" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43">
-        <v>30</v>
-      </c>
-      <c r="G43">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" t="s">
-        <v>102</v>
-      </c>
-      <c r="L43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B44" t="s">
         <v>28</v>
       </c>
@@ -4832,162 +4707,123 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44">
+        <v>75</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44">
         <v>30</v>
       </c>
-      <c r="G44">
+      <c r="K44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45">
+        <v>80</v>
+      </c>
+      <c r="K45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46">
         <v>30</v>
       </c>
-      <c r="H44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="K46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45">
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47">
         <v>50</v>
       </c>
-      <c r="G45">
+      <c r="K47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48">
         <v>50</v>
       </c>
-      <c r="H45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46">
-        <v>50</v>
-      </c>
-      <c r="G46">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K46">
-        <v>40</v>
-      </c>
-      <c r="L46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47">
-        <v>50</v>
-      </c>
-      <c r="G47">
-        <v>30</v>
-      </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" t="s">
-        <v>42</v>
-      </c>
-      <c r="K47">
-        <v>30</v>
-      </c>
-      <c r="L47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48">
-        <v>50</v>
-      </c>
-      <c r="G48">
-        <v>50</v>
-      </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" t="s">
-        <v>114</v>
-      </c>
-      <c r="L48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
+      <c r="K48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -4995,31 +4831,22 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49">
-        <v>30</v>
-      </c>
-      <c r="G49">
-        <v>30</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>33</v>
-      </c>
-      <c r="J49" t="s">
-        <v>33</v>
-      </c>
-      <c r="L49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+        <v>75</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49">
+        <v>50</v>
+      </c>
+      <c r="K49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B50" t="s">
         <v>28</v>
       </c>
@@ -5027,83 +4854,68 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50">
         <v>50</v>
       </c>
-      <c r="G50">
-        <v>50</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="J50">
+        <v>30</v>
+      </c>
+      <c r="K50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B51" t="s">
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52">
         <v>30</v>
       </c>
-      <c r="G51">
-        <v>30</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52">
-        <v>10</v>
-      </c>
-      <c r="G52">
-        <v>20</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="K52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
       <c r="B53" t="s">
         <v>28</v>
       </c>
@@ -5111,31 +4923,22 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" t="s">
-        <v>123</v>
-      </c>
-      <c r="I53" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53" t="s">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
       </c>
       <c r="K53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -5143,152 +4946,125 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54">
-        <v>80</v>
-      </c>
-      <c r="G54">
-        <v>80</v>
-      </c>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="K54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="K55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56">
+        <v>30</v>
+      </c>
+      <c r="K56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57">
+        <v>30</v>
+      </c>
+      <c r="K57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
         <v>32</v>
       </c>
-      <c r="J54" t="s">
-        <v>100</v>
-      </c>
-      <c r="K54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55">
-        <v>20</v>
-      </c>
-      <c r="G55">
-        <v>20</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56">
+      <c r="I58">
         <v>30</v>
       </c>
-      <c r="G56">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>111</v>
-      </c>
-      <c r="J56" t="s">
-        <v>100</v>
-      </c>
-      <c r="L56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57">
-        <v>50</v>
-      </c>
-      <c r="G57">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" t="s">
-        <v>49</v>
-      </c>
-      <c r="K57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58">
-        <v>30</v>
-      </c>
-      <c r="G58">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -5300,65 +5076,44 @@
         <v>131</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59">
         <v>30</v>
       </c>
-      <c r="G59">
+      <c r="K59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60">
         <v>30</v>
       </c>
-      <c r="H59" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" t="s">
-        <v>118</v>
-      </c>
-      <c r="L59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60">
-        <v>30</v>
-      </c>
-      <c r="G60">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" t="s">
-        <v>118</v>
-      </c>
-      <c r="K60">
-        <v>20</v>
-      </c>
-      <c r="L60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="K60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
@@ -5367,36 +5122,24 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61">
-        <v>20</v>
-      </c>
-      <c r="G61">
-        <v>20</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>53</v>
-      </c>
-      <c r="J61" t="s">
-        <v>118</v>
-      </c>
-      <c r="K61">
-        <v>10</v>
-      </c>
-      <c r="L61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61">
+        <v>30</v>
+      </c>
+      <c r="K61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A62" t="s">
-        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>28</v>
@@ -5405,95 +5148,74 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62">
+        <v>30</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63">
+        <v>30</v>
+      </c>
+      <c r="K63" t="s">
         <v>48</v>
       </c>
-      <c r="F62">
-        <v>30</v>
-      </c>
-      <c r="G62">
-        <v>30</v>
-      </c>
-      <c r="H62" t="s">
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" t="s">
         <v>12</v>
       </c>
-      <c r="J62" t="s">
-        <v>118</v>
-      </c>
-      <c r="L62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63">
+      <c r="I64">
         <v>20</v>
       </c>
-      <c r="G63">
-        <v>20</v>
-      </c>
-      <c r="H63" t="s">
-        <v>67</v>
-      </c>
-      <c r="J63" t="s">
-        <v>114</v>
-      </c>
-      <c r="L63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="K64" t="s">
         <v>137</v>
       </c>
-      <c r="E64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64">
-        <v>20</v>
-      </c>
-      <c r="G64">
-        <v>20</v>
-      </c>
-      <c r="H64" t="s">
-        <v>67</v>
-      </c>
-      <c r="J64" t="s">
-        <v>114</v>
-      </c>
-      <c r="L64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A65" t="s">
-        <v>61</v>
-      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B65" t="s">
         <v>28</v>
       </c>
@@ -5501,60 +5223,45 @@
         <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65">
-        <v>20</v>
-      </c>
-      <c r="G65">
-        <v>20</v>
-      </c>
-      <c r="H65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" t="s">
         <v>12</v>
       </c>
-      <c r="J65" t="s">
-        <v>118</v>
-      </c>
-      <c r="L65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A66" t="s">
-        <v>39</v>
-      </c>
+      <c r="I65">
+        <v>50</v>
+      </c>
+      <c r="K65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B66" t="s">
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66">
-        <v>30</v>
-      </c>
-      <c r="G66">
-        <v>30</v>
-      </c>
-      <c r="H66" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" t="s">
         <v>12</v>
       </c>
-      <c r="J66" t="s">
-        <v>100</v>
-      </c>
-      <c r="L66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="I66">
+        <v>50</v>
+      </c>
+      <c r="K66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B67" t="s">
         <v>28</v>
       </c>
@@ -5562,103 +5269,88 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67">
+        <v>171</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="K67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69">
         <v>50</v>
       </c>
-      <c r="G67">
+      <c r="K69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70">
         <v>50</v>
       </c>
-      <c r="H67" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68">
-        <v>30</v>
-      </c>
-      <c r="G68">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s">
-        <v>67</v>
-      </c>
-      <c r="J68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" t="s">
-        <v>149</v>
-      </c>
-      <c r="E69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69">
-        <v>20</v>
-      </c>
-      <c r="G69">
-        <v>20</v>
-      </c>
-      <c r="H69" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70">
-        <v>20</v>
-      </c>
-      <c r="G70">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="K70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B71" t="s">
         <v>28</v>
       </c>
@@ -5666,51 +5358,48 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71">
+        <v>171</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72">
         <v>30</v>
       </c>
-      <c r="G71">
-        <v>30</v>
-      </c>
-      <c r="H71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72">
-        <v>30</v>
-      </c>
-      <c r="G72">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B73" t="s">
         <v>28</v>
       </c>
@@ -5718,51 +5407,48 @@
         <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73">
+        <v>171</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73">
         <v>30</v>
       </c>
-      <c r="G73">
-        <v>30</v>
-      </c>
-      <c r="H73" t="s">
-        <v>67</v>
-      </c>
-      <c r="J73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="K73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B74" t="s">
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74">
+        <v>171</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74">
         <v>20</v>
       </c>
-      <c r="G74">
-        <v>20</v>
-      </c>
-      <c r="H74" t="s">
-        <v>67</v>
-      </c>
-      <c r="J74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+      <c r="K74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
       <c r="B75" t="s">
         <v>28</v>
       </c>
@@ -5770,25 +5456,22 @@
         <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75">
-        <v>50</v>
-      </c>
-      <c r="G75">
-        <v>50</v>
-      </c>
-      <c r="H75" t="s">
-        <v>68</v>
-      </c>
-      <c r="J75" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+        <v>171</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B76" t="s">
         <v>28</v>
       </c>
@@ -5796,25 +5479,31 @@
         <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="E76" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76">
+        <v>50</v>
+      </c>
+      <c r="J76">
+        <v>40</v>
+      </c>
+      <c r="K76" t="s">
         <v>48</v>
       </c>
-      <c r="F76">
-        <v>80</v>
-      </c>
-      <c r="G76">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s">
-        <v>68</v>
-      </c>
-      <c r="J76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
       <c r="B77" t="s">
         <v>28</v>
       </c>
@@ -5822,106 +5511,106 @@
         <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77">
+        <v>50</v>
+      </c>
+      <c r="J77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="K78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80">
+        <v>50</v>
+      </c>
+      <c r="K80" t="s">
         <v>48</v>
       </c>
-      <c r="F77">
-        <v>50</v>
-      </c>
-      <c r="G77">
-        <v>50</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" t="s">
-        <v>159</v>
-      </c>
-      <c r="E78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78">
-        <v>30</v>
-      </c>
-      <c r="G78">
-        <v>30</v>
-      </c>
-      <c r="H78" t="s">
-        <v>67</v>
-      </c>
-      <c r="J78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B79" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" t="s">
-        <v>160</v>
-      </c>
-      <c r="E79" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79">
-        <v>20</v>
-      </c>
-      <c r="G79">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s">
-        <v>67</v>
-      </c>
-      <c r="J79" t="s">
-        <v>140</v>
-      </c>
-      <c r="L79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80">
-        <v>30</v>
-      </c>
-      <c r="G80">
-        <v>30</v>
-      </c>
-      <c r="H80" t="s">
-        <v>67</v>
-      </c>
-      <c r="J80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B81" t="s">
         <v>28</v>
       </c>
@@ -5929,25 +5618,28 @@
         <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
         <v>52</v>
       </c>
-      <c r="F81">
+      <c r="I81">
+        <v>50</v>
+      </c>
+      <c r="J81">
         <v>20</v>
       </c>
-      <c r="H81" t="s">
-        <v>11</v>
-      </c>
       <c r="K81" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="B82" t="s">
         <v>28</v>
       </c>
@@ -5955,103 +5647,207 @@
         <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
+        <v>47</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82">
+        <v>30</v>
+      </c>
+      <c r="K82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A83" t="s">
+        <v>60</v>
+      </c>
       <c r="B83" t="s">
         <v>28</v>
       </c>
       <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83">
+        <v>30</v>
+      </c>
+      <c r="K83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
         <v>29</v>
       </c>
-      <c r="D83" t="s">
-        <v>163</v>
-      </c>
-      <c r="E83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B84" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>113</v>
+      </c>
+      <c r="I85">
+        <v>20</v>
+      </c>
+      <c r="K85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>113</v>
+      </c>
+      <c r="I86">
+        <v>20</v>
+      </c>
+      <c r="K86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>108</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>108</v>
+      </c>
+      <c r="I88">
+        <v>30</v>
+      </c>
+      <c r="K88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
         <v>165</v>
       </c>
-      <c r="D85" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" t="s">
-        <v>167</v>
-      </c>
-      <c r="E86" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87">
-        <v>20</v>
-      </c>
-      <c r="H87">
-        <v>20</v>
-      </c>
-      <c r="J87" t="s">
-        <v>118</v>
-      </c>
-      <c r="L87" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.75"/>
+      <c r="D90" t="s">
+        <v>177</v>
+      </c>
+      <c r="E90" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M88" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
-    <filterColumn colId="7">
+  <autoFilter ref="A1:M90" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
+    <filterColumn colId="8">
       <filters>
-        <filter val="2023 Q3"/>
+        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeilSmyth\Documents\dev-alkemio\github-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F56AC31-3344-442D-9400-B4C17C25DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6FE1D-6540-4BF0-884E-5251F2A845CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="GITHUB_EPICS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$M$90</definedName>
-    <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$I$2:$I$99</definedName>
-    <definedName name="EPICS_PERIOD">GITHUB_EPICS!$F$2:$F$99</definedName>
-    <definedName name="EPICS_STATUS">GITHUB_EPICS!$E$2:$E$99</definedName>
-    <definedName name="EPICS_TYPE">GITHUB_EPICS!$K$2:$K$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$138</definedName>
+    <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$F$2:$F$199</definedName>
+    <definedName name="EPICS_PERIOD">GITHUB_EPICS!$G$2:$G$199</definedName>
+    <definedName name="EPICS_STATUS">GITHUB_EPICS!$D$2:$D$199</definedName>
+    <definedName name="EPICS_TYPE">GITHUB_EPICS!$E$2:$E$199</definedName>
     <definedName name="PERIODS">Parameters!$A$11:$A$49</definedName>
-    <definedName name="PLANNING">Parameters!$A$11:$G$15</definedName>
+    <definedName name="PLANNING">Parameters!$A$11:$J$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="245">
   <si>
     <t>Capacity planning for Alkemio</t>
   </si>
@@ -130,9 +130,6 @@
     <t>SprintPoints</t>
   </si>
   <si>
-    <t>Release</t>
-  </si>
-  <si>
     <t>alkemio</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>UWV</t>
   </si>
   <si>
-    <t>2023-01-17</t>
-  </si>
-  <si>
     <t>User to user communication via notifications</t>
   </si>
   <si>
@@ -163,15 +157,9 @@
     <t>Reporting: Northstar Metric</t>
   </si>
   <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
     <t>Svetoslav Petkov</t>
   </si>
   <si>
-    <t>Release 230208</t>
-  </si>
-  <si>
     <t>UX Refinements: Round 2</t>
   </si>
   <si>
@@ -190,397 +178,610 @@
     <t xml:space="preserve">Capacity Planning </t>
   </si>
   <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Being defined</t>
+  </si>
+  <si>
+    <t>Calendar Events V2</t>
+  </si>
+  <si>
+    <t>Being elaborated</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>infrastructure-operations</t>
+  </si>
+  <si>
+    <t>operations,Epic,Infrastructure</t>
+  </si>
+  <si>
+    <t>Security: Authentication via Microsoft identities - basic</t>
+  </si>
+  <si>
+    <t>Rene Honig,Valentin Yanakiev</t>
+  </si>
+  <si>
+    <t>UWV, VNG</t>
+  </si>
+  <si>
+    <t>Community forum on the platform</t>
+  </si>
+  <si>
+    <t>Valentin Yanakiev</t>
+  </si>
+  <si>
+    <t>Handling of Time</t>
+  </si>
+  <si>
+    <t>UX Refinements - Round 4</t>
+  </si>
+  <si>
+    <t>Contributor visibility</t>
+  </si>
+  <si>
+    <t>2023 Q3</t>
+  </si>
+  <si>
+    <t>2023 Q4</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hub visibility for unauthorized users </t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>Epic,server</t>
+  </si>
+  <si>
+    <t>Release mgmt: Documentation, process + split</t>
+  </si>
+  <si>
+    <t>Error Handling: Presentation improvements</t>
+  </si>
+  <si>
+    <t>Whiteboard: interactive multi-user editing</t>
+  </si>
+  <si>
+    <t>Icebox</t>
+  </si>
+  <si>
+    <t>Performance: Dataloaders / field resolvers</t>
+  </si>
+  <si>
+    <t>Security: Kubernetes hardening</t>
+  </si>
+  <si>
+    <t>Security: Control of provider per organization</t>
+  </si>
+  <si>
+    <t>Infrastructure: Maintainability</t>
+  </si>
+  <si>
+    <t>Login Refinements / Kratos</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>Epic,operations</t>
+  </si>
+  <si>
+    <t>Security: Client code execution / injection</t>
+  </si>
+  <si>
+    <t>Grouping of Hubs by theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invitations to Hub </t>
+  </si>
+  <si>
+    <t>Denise Larsson</t>
+  </si>
+  <si>
+    <t>Hub Visualization component</t>
+  </si>
+  <si>
+    <t>Ecosystem Analytics: prototype</t>
+  </si>
+  <si>
+    <t>Carlos Cano</t>
+  </si>
+  <si>
+    <t>Matrix adapter as a separate service</t>
+  </si>
+  <si>
+    <t>Private challenges</t>
+  </si>
+  <si>
+    <t>Neil Smyth</t>
+  </si>
+  <si>
+    <t>Functionality: Strategic</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Envision</t>
+  </si>
+  <si>
+    <t>Domain model: Naming alignment</t>
+  </si>
+  <si>
+    <t>Domain Model: Profiles</t>
+  </si>
+  <si>
+    <t>Kratos 0.11 Update</t>
+  </si>
+  <si>
+    <t>Callout: single canvas type</t>
+  </si>
+  <si>
+    <t>Data Integrity</t>
+  </si>
+  <si>
+    <t>Custom URL for Demo Hubs on production</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>Demo environment data migration + retirement</t>
+  </si>
+  <si>
+    <t>Landing page v1</t>
+  </si>
+  <si>
+    <t>Operations: Security</t>
+  </si>
+  <si>
+    <t>Search++: Within a Hub, Contributions, UI</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>Whiteboard: Usability v1</t>
+  </si>
+  <si>
+    <t>Operations: Effectiveness</t>
+  </si>
+  <si>
+    <t>Choral Explanations</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>Smart search v1</t>
+  </si>
+  <si>
+    <t>Landing page: refinements + maintainability</t>
+  </si>
+  <si>
+    <t>QA Test suites catchup</t>
+  </si>
+  <si>
+    <t>Notifications dashboard</t>
+  </si>
+  <si>
+    <t>Release mgmt: release notes + changelog</t>
+  </si>
+  <si>
+    <t>Operations: Platform monitoring</t>
+  </si>
+  <si>
+    <t>Reporting: Platform usage insights</t>
+  </si>
+  <si>
+    <t>Data Integrity: v2</t>
+  </si>
+  <si>
+    <t>security,Epic</t>
+  </si>
+  <si>
+    <t>Security: Secret management</t>
+  </si>
+  <si>
+    <t>Operational security analysis</t>
+  </si>
+  <si>
+    <t>Operations: Kratos, Cluster Health</t>
+  </si>
+  <si>
+    <t>Functionality: Tactical</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Library: Innovation Pack management</t>
+  </si>
+  <si>
+    <t>Branding at platform level</t>
+  </si>
+  <si>
+    <t>Innovation spaces: readiness for release</t>
+  </si>
+  <si>
+    <t>client-web</t>
+  </si>
+  <si>
+    <t>Epic,A: Community</t>
+  </si>
+  <si>
+    <t>Engagement: user newsletter signup during registration</t>
+  </si>
+  <si>
+    <t>Update of Journey settings tab</t>
+  </si>
+  <si>
+    <t>Search results validated in service</t>
+  </si>
+  <si>
+    <t>Sharing: social media</t>
+  </si>
+  <si>
+    <t>Follow a Hub / Challenge / Opportunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preference for aggregated of notifications </t>
+  </si>
+  <si>
+    <t>User to user messaging via message box</t>
+  </si>
+  <si>
+    <t>Epic,QA</t>
+  </si>
+  <si>
+    <t>Performance + scalability testing</t>
+  </si>
+  <si>
+    <t>Callouts: Sorting control</t>
+  </si>
+  <si>
+    <t>Server: Performance Optimization</t>
+  </si>
+  <si>
+    <t>Search in Contribute page</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Core Capabilities</t>
+  </si>
+  <si>
+    <t>Epic,Roadmap Candidate</t>
+  </si>
+  <si>
+    <t>Improved content editing</t>
+  </si>
+  <si>
+    <t>Hide / turn functionalities off</t>
+  </si>
+  <si>
+    <t>Integration of other online tools</t>
+  </si>
+  <si>
+    <t>UX Refinements Round 5</t>
+  </si>
+  <si>
+    <t>Current / next quarter</t>
+  </si>
+  <si>
+    <t>Epic,Security</t>
+  </si>
+  <si>
+    <t>Security headers hardening</t>
+  </si>
+  <si>
+    <t>Community Application Questions</t>
+  </si>
+  <si>
+    <t>Client: Developer documentation, roadmap</t>
+  </si>
+  <si>
+    <t>Search: Additional contiribution types</t>
+  </si>
+  <si>
+    <t>Epic,client</t>
+  </si>
+  <si>
+    <t>TNO</t>
+  </si>
+  <si>
+    <t>Email Templates: Refresh, multi-language</t>
+  </si>
+  <si>
+    <t>UWV, Envision, Gebruiker Centraal</t>
+  </si>
+  <si>
+    <t>epic,client</t>
+  </si>
+  <si>
+    <t>Multiple Lead Organizations on Hub</t>
+  </si>
+  <si>
+    <t>Shipping Retrofits, TIP</t>
+  </si>
+  <si>
+    <t>Landing page V1.2</t>
+  </si>
+  <si>
+    <t>Epic,Roadmap Discussion</t>
+  </si>
+  <si>
+    <t>Calendar events V3</t>
+  </si>
+  <si>
+    <t>Innovation Flow to include goal/checklist/callouts</t>
+  </si>
+  <si>
+    <t>UWV, Digicampus</t>
+  </si>
+  <si>
+    <t>Digicampus, Den Haag</t>
+  </si>
+  <si>
+    <t>Comments: Threads + replies</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
+  </si>
+  <si>
+    <t>2023-04-11</t>
+  </si>
+  <si>
+    <t>Innovation library management by admins</t>
+  </si>
+  <si>
+    <t>Documents: Secure storage with management</t>
+  </si>
+  <si>
+    <t>New hub structure with callouts in context</t>
+  </si>
+  <si>
+    <t>landingpage</t>
+  </si>
+  <si>
+    <t>Smart Analytics to understand community needs/interests</t>
+  </si>
+  <si>
     <t>New</t>
   </si>
   <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Being defined</t>
-  </si>
-  <si>
-    <t>Calendar Events V2</t>
-  </si>
-  <si>
-    <t>Being elaborated</t>
-  </si>
-  <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>infrastructure-operations</t>
-  </si>
-  <si>
-    <t>operations,Epic,Infrastructure</t>
-  </si>
-  <si>
-    <t>Security: Authentication via Microsoft identities - basic</t>
-  </si>
-  <si>
-    <t>Rene Honig,Valentin Yanakiev</t>
-  </si>
-  <si>
-    <t>Epic,UX,client</t>
-  </si>
-  <si>
-    <t>UWV, VNG</t>
-  </si>
-  <si>
-    <t>Community forum on the platform</t>
-  </si>
-  <si>
-    <t>Valentin Yanakiev</t>
-  </si>
-  <si>
-    <t>Handling of Time</t>
-  </si>
-  <si>
-    <t>Epic,Infrastructure</t>
-  </si>
-  <si>
-    <t>UX Refinements - Round 4</t>
-  </si>
-  <si>
-    <t>Contributor visibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribute Page </t>
-  </si>
-  <si>
-    <t>2023 Q3</t>
-  </si>
-  <si>
-    <t>2023 Q4</t>
-  </si>
-  <si>
-    <t>Not specified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hub visibility for unauthorized users </t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>Epic,server</t>
-  </si>
-  <si>
-    <t>Release mgmt: Documentation, process + split</t>
-  </si>
-  <si>
-    <t>Error Handling: Presentation improvements</t>
-  </si>
-  <si>
-    <t>Whiteboard: interactive multi-user editing</t>
-  </si>
-  <si>
-    <t>Icebox</t>
-  </si>
-  <si>
-    <t>Documents: Wider usage, Management and limits</t>
-  </si>
-  <si>
-    <t>Documents: Storage with privacy</t>
-  </si>
-  <si>
-    <t>Performance: Dataloaders / field resolvers</t>
-  </si>
-  <si>
-    <t>Comments: Improved interaction</t>
-  </si>
-  <si>
-    <t>Security: Kubernetes hardening</t>
-  </si>
-  <si>
-    <t>Security: Control of provider per organization</t>
-  </si>
-  <si>
-    <t>Infrastructure: Maintainability</t>
-  </si>
-  <si>
-    <t>Login Refinements / Kratos</t>
-  </si>
-  <si>
-    <t>hub</t>
-  </si>
-  <si>
-    <t>Epic,operations</t>
-  </si>
-  <si>
-    <t>Security: Client code execution / injection</t>
-  </si>
-  <si>
-    <t>Grouping of Hubs by theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invitations to Hub </t>
-  </si>
-  <si>
-    <t>Denise Larsson</t>
-  </si>
-  <si>
-    <t>Reporting: Sharing of analysis</t>
-  </si>
-  <si>
-    <t>Hub Visualization component</t>
-  </si>
-  <si>
-    <t>Ecosystem Analytics: prototype</t>
-  </si>
-  <si>
-    <t>Carlos Cano</t>
-  </si>
-  <si>
-    <t>Matrix adapter as a separate service</t>
-  </si>
-  <si>
-    <t>Private challenges</t>
-  </si>
-  <si>
-    <t>Neil Smyth</t>
-  </si>
-  <si>
-    <t>Functionality: Strategic</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Envision</t>
-  </si>
-  <si>
-    <t>Domain model: Naming alignment</t>
-  </si>
-  <si>
-    <t>Domain Model: Profiles</t>
-  </si>
-  <si>
-    <t>Kratos 0.11 Update</t>
-  </si>
-  <si>
-    <t>Callout: single canvas type</t>
-  </si>
-  <si>
-    <t>Data Integrity</t>
-  </si>
-  <si>
-    <t>Callouts in context</t>
-  </si>
-  <si>
-    <t>Custom URL for Demo Hubs on production</t>
-  </si>
-  <si>
-    <t>Innovation Spaces: Specified Communities + visuals</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>Demo environment data migration + retirement</t>
-  </si>
-  <si>
-    <t>Landing page v1</t>
-  </si>
-  <si>
-    <t>Operations: Security</t>
-  </si>
-  <si>
-    <t>Search++: Within a Hub, Contributions, UI</t>
-  </si>
-  <si>
-    <t>2023-03-14</t>
-  </si>
-  <si>
-    <t>Whiteboard: Usability v1</t>
-  </si>
-  <si>
-    <t>Operations: Effectiveness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Terms + Conditions </t>
-  </si>
-  <si>
-    <t>Visuals on Journeys: Enhanced selection + suggested imageswith alternative text</t>
-  </si>
-  <si>
-    <t>Journey  Pages structure roadmap</t>
-  </si>
-  <si>
-    <t>Choral Explanations</t>
-  </si>
-  <si>
-    <t>TIP</t>
-  </si>
-  <si>
-    <t>Smart search v1</t>
-  </si>
-  <si>
-    <t>Community tab in Hub menu</t>
-  </si>
-  <si>
-    <t>homepage</t>
-  </si>
-  <si>
-    <t>UX,Epic</t>
-  </si>
-  <si>
-    <t>Landing page: refinements + maintainability</t>
-  </si>
-  <si>
-    <t>QA Test suites catchup</t>
-  </si>
-  <si>
-    <t>Notifications dashboard</t>
-  </si>
-  <si>
-    <t>Release mgmt: release notes + changelog</t>
-  </si>
-  <si>
-    <t>Operations: Platform monitoring</t>
-  </si>
-  <si>
-    <t>Reporting: Platform usage insights</t>
-  </si>
-  <si>
-    <t>Data Integrity: v2</t>
-  </si>
-  <si>
-    <t>security,Epic</t>
-  </si>
-  <si>
-    <t>Security: Secret management</t>
-  </si>
-  <si>
-    <t>Operational security analysis</t>
-  </si>
-  <si>
-    <t>Operations: Kratos, Cluster Health</t>
-  </si>
-  <si>
-    <t>Functionality: Tactical</t>
-  </si>
-  <si>
-    <t>Usability</t>
-  </si>
-  <si>
-    <t>Keyboard navigation</t>
-  </si>
-  <si>
-    <t>Library: Innovation Pack management</t>
-  </si>
-  <si>
-    <t>Branding at platform level</t>
-  </si>
-  <si>
-    <t>Innovation spaces: readiness for release</t>
-  </si>
-  <si>
-    <t>client-web</t>
-  </si>
-  <si>
-    <t>epic,client,UX</t>
-  </si>
-  <si>
-    <t>Knowledge Management in journeys</t>
-  </si>
-  <si>
-    <t>Epic,A: Community</t>
-  </si>
-  <si>
-    <t>Engagement: user newsletter signup during registration</t>
-  </si>
-  <si>
-    <t>Update of Journey settings tab</t>
-  </si>
-  <si>
-    <t>Search results validated in service</t>
-  </si>
-  <si>
-    <t>Accessibility Gap Analysis</t>
-  </si>
-  <si>
-    <t>Innovation library usage</t>
-  </si>
-  <si>
-    <t>Sharing: social media</t>
-  </si>
-  <si>
-    <t>Follow a Hub / Challenge / Opportunity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preference for aggregated of notifications </t>
-  </si>
-  <si>
-    <t>User to user messaging via message box</t>
-  </si>
-  <si>
-    <t>Epic,QA</t>
-  </si>
-  <si>
-    <t>Performance + scalability testing</t>
-  </si>
-  <si>
-    <t>Callouts: Sorting control</t>
-  </si>
-  <si>
-    <t>Server: Performance Optimization</t>
-  </si>
-  <si>
-    <t>Search in Contribute page</t>
-  </si>
-  <si>
-    <t>Milestone</t>
-  </si>
-  <si>
-    <t>Core Capabilities</t>
+    <t>Sharing metrics of Hub activity with Hub leads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitions for URLs </t>
+  </si>
+  <si>
+    <t>Client errors tracability</t>
+  </si>
+  <si>
+    <t>Multiple email support</t>
+  </si>
+  <si>
+    <t>Innovation Flow Visual Refresh</t>
+  </si>
+  <si>
+    <t>Simple Challenge version</t>
+  </si>
+  <si>
+    <t>uwv</t>
+  </si>
+  <si>
+    <t>Structure refresh Challenge + Opportunity level</t>
   </si>
   <si>
     <t>Elaborated</t>
   </si>
   <si>
-    <t>Epic,UX,Roadmap Candidate</t>
-  </si>
-  <si>
-    <t>Email Templates</t>
-  </si>
-  <si>
-    <t>Epic,Roadmap Candidate</t>
-  </si>
-  <si>
-    <t>Improved content editing</t>
-  </si>
-  <si>
-    <t>Hide / turn functionalities off</t>
-  </si>
-  <si>
-    <t>Integration of other online tools</t>
-  </si>
-  <si>
-    <t>Image upload in content editor</t>
-  </si>
-  <si>
-    <t>UX Refinements Round 5</t>
-  </si>
-  <si>
-    <t>Current / next quarter</t>
-  </si>
-  <si>
-    <t>Epic,Security</t>
-  </si>
-  <si>
-    <t>Security headers hardening</t>
-  </si>
-  <si>
-    <t>Community Application Questions</t>
-  </si>
-  <si>
-    <t>epic,client,Roadmap Candidate</t>
-  </si>
-  <si>
-    <t>Client: Developer documentation, roadmap</t>
-  </si>
-  <si>
-    <t>Search: Additional contiribution types</t>
+    <t>Epic,UX,A: Platform</t>
+  </si>
+  <si>
+    <t>Epic,A: Platform,Infrastructure</t>
+  </si>
+  <si>
+    <t>Epic,A: Platform</t>
+  </si>
+  <si>
+    <t>Epic,A: Context</t>
+  </si>
+  <si>
+    <t>2023-04-25</t>
+  </si>
+  <si>
+    <t>Epic,UX,client,A: Context</t>
+  </si>
+  <si>
+    <t>Community Terms: phase 1 - library support, simple templates</t>
+  </si>
+  <si>
+    <t>Epic,UX,A: Context</t>
+  </si>
+  <si>
+    <t>Community Terms: phase 2</t>
+  </si>
+  <si>
+    <t>Digicampus, Humanity Hub, The Hague</t>
+  </si>
+  <si>
+    <t>Forum: notifications, sharing</t>
+  </si>
+  <si>
+    <t>Visuals on Journeys: Enhanced selection + suggested images</t>
+  </si>
+  <si>
+    <t>Accessibility: Keyboard navigation</t>
+  </si>
+  <si>
+    <t>Accessibility: Visuals alternative text</t>
+  </si>
+  <si>
+    <t>Images in markdown</t>
+  </si>
+  <si>
+    <t>User controls on data visibility</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>I: Analytics via connectivity graph v1</t>
+  </si>
+  <si>
+    <t>Reporting: Operational monitoring, usage of northstar metrics</t>
+  </si>
+  <si>
+    <t>Journey refresh: Hub level additional functionality</t>
+  </si>
+  <si>
+    <t>Platform navigation</t>
+  </si>
+  <si>
+    <t>I: Journey structure refresh</t>
+  </si>
+  <si>
+    <t>I: Maintainability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I: Innovation library - Agreements </t>
+  </si>
+  <si>
+    <t>I: Onboarding the community</t>
+  </si>
+  <si>
+    <t>I: Whiteboard Usage</t>
+  </si>
+  <si>
+    <t>I: Innovation Spaces</t>
+  </si>
+  <si>
+    <t>I: Guidance for users</t>
+  </si>
+  <si>
+    <t>I: Platform responsiveness</t>
+  </si>
+  <si>
+    <t>I: Platform Management</t>
+  </si>
+  <si>
+    <t>I: Content + Knowledge Management</t>
+  </si>
+  <si>
+    <t>UX,Initiative</t>
+  </si>
+  <si>
+    <t>I: Accessibility</t>
+  </si>
+  <si>
+    <t>I: Reporting on Usage</t>
+  </si>
+  <si>
+    <t>I: Notifications</t>
+  </si>
+  <si>
+    <t>I: Library population, usage + feedback</t>
+  </si>
+  <si>
+    <t>I: Content on the platform</t>
+  </si>
+  <si>
+    <t>I: Innovation Library</t>
+  </si>
+  <si>
+    <t>I: Enriched User Profiles</t>
+  </si>
+  <si>
+    <t>I: Smart search</t>
+  </si>
+  <si>
+    <t>I: Whiteboards to generate content</t>
+  </si>
+  <si>
+    <t>I: My Activity Feed</t>
+  </si>
+  <si>
+    <t>I: Community Inclusion Tools</t>
+  </si>
+  <si>
+    <t>I: Connecting on Platform</t>
+  </si>
+  <si>
+    <t>I: Usability/User experience refinement?</t>
+  </si>
+  <si>
+    <t>I: Landing page</t>
+  </si>
+  <si>
+    <t>I: Engaging the community</t>
+  </si>
+  <si>
+    <t>Usage of Alkemio platform identities for Matrix</t>
+  </si>
+  <si>
+    <t>Innovation Library for users</t>
+  </si>
+  <si>
+    <t>Analytics + monitoring: Dedicated elastic cluster</t>
+  </si>
+  <si>
+    <t>Note: update to have each period start / end adjustable</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>Valentin Yanakiev,Denise Larsson</t>
+  </si>
+  <si>
+    <t>License / Subscription management v1: (quotas)</t>
+  </si>
+  <si>
+    <t>My home page with activity</t>
+  </si>
+  <si>
+    <t>Innovation Hubs: Specified Hubs, Hub visibility</t>
+  </si>
+  <si>
+    <t>New Space language preferences</t>
+  </si>
+  <si>
+    <t>Activity tracking: deletion, additional entry types</t>
+  </si>
+  <si>
+    <t>Refresh preferences for notifications</t>
+  </si>
+  <si>
+    <t>Insights on platform usage</t>
+  </si>
+  <si>
+    <t>Generative AI first use case</t>
+  </si>
+  <si>
+    <t>Time Period Start</t>
+  </si>
+  <si>
+    <t>Available Sprints</t>
+  </si>
+  <si>
+    <t>Vacations / Done (sprints)</t>
   </si>
 </sst>
 </file>
@@ -591,7 +792,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -621,6 +822,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -683,7 +891,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -709,6 +917,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,13 +927,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in 20% - Accent6" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -923,7 +1138,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-NL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -971,16 +1186,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>930</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1080</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1034,7 +1249,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-NL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1082,19 +1297,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>320</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>909.99999999999989</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>650</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2650</c:v>
+                  <c:v>2607.1428571428573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,7 +1363,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="21869291"/>
@@ -1294,7 +1509,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1310,7 +1525,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$D$4</c:f>
+              <c:f>Capacity!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1351,7 +1566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$D$5:$D$8</c:f>
+              <c:f>Capacity!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1359,13 +1574,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,7 +1596,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$E$4</c:f>
+              <c:f>Capacity!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1422,21 +1637,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$E$5:$E$8</c:f>
+              <c:f>Capacity!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,7 +1667,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$F$4</c:f>
+              <c:f>Capacity!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1493,21 +1708,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$F$5:$F$8</c:f>
+              <c:f>Capacity!$G$5:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1738,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$G$4</c:f>
+              <c:f>Capacity!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1564,21 +1779,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$G$5:$G$8</c:f>
+              <c:f>Capacity!$H$5:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,7 +1809,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$H$4</c:f>
+              <c:f>Capacity!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1637,21 +1852,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$H$5:$H$8</c:f>
+              <c:f>Capacity!$I$5:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>310</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1882,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$I$4</c:f>
+              <c:f>Capacity!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1708,21 +1923,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$I$5:$I$8</c:f>
+              <c:f>Capacity!$J$5:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,7 +1953,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$J$4</c:f>
+              <c:f>Capacity!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1781,21 +1996,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$J$5:$J$8</c:f>
+              <c:f>Capacity!$K$5:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>390</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,7 +2026,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$K$4</c:f>
+              <c:f>Capacity!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1854,21 +2069,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$K$5:$K$8</c:f>
+              <c:f>Capacity!$L$5:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,7 +2148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1538454160"/>
@@ -1992,7 +2207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1538456240"/>
@@ -2034,7 +2249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2064,7 +2279,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2624,14 +2839,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>151561</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151562</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
@@ -2660,13 +2875,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -2698,39 +2913,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A4:K9" totalsRowShown="0">
-  <autoFilter ref="A4:K9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A4:L9" totalsRowShown="0">
+  <autoFilter ref="A4:L9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Delivery"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Planned" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Planned" dataDxfId="6">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Available">
-      <calculatedColumnFormula>Parameters!F11</calculatedColumnFormula>
+      <calculatedColumnFormula>Parameters!I11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A0B7810D-02AD-4563-84FC-C5AB45C9F69A}" name="Done" dataDxfId="5">
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{420E4733-D818-4697-B4AC-49919F34E6A1}" name="Functionality: Tactical" dataDxfId="4">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{C298A470-F5E4-4C9D-A835-37621F5C7C5C}" name="Maintenance" dataDxfId="3">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{1E9537EA-C654-4C41-869E-4B20D36B1310}" name="Operations: Security" dataDxfId="2">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{AB5BDEA6-3CB3-4A95-AB00-2A8B4589EBDA}" name="Operations: Effectiveness">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{43175893-A88C-4A75-A227-8493825C6391}" name="Usability">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{38437634-015A-4968-B70A-73EC423821EB}" name="Performance">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, J$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{147563EA-0BC5-490E-A60D-F4734C5093BA}" name="Functionality: Strategic" dataDxfId="1">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, J$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, K$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{DC4CAD30-AA84-40FB-8366-4759F029E489}" name="Not specified" dataDxfId="0">
-      <calculatedColumnFormula>Table3[[#This Row],[Planned]]-SUM(D5:J5)</calculatedColumnFormula>
+      <calculatedColumnFormula>Table3[[#This Row],[Planned]]-SUM(E5:K5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3034,49 +3252,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="5" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="10" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>44985</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3086,188 +3303,256 @@
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7">
-        <v>45013</v>
-      </c>
-      <c r="C11" s="8">
+        <v>44928</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45012</v>
+      </c>
+      <c r="D11" s="8">
         <v>0.8</v>
       </c>
-      <c r="D11" s="9">
-        <f>(WEEKNUM(B11,1)-WEEKNUM($B$3,1))/2</f>
-        <v>2</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
+        <f>(C11-B11)/7/2</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <f>E11-F11</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="10">
         <v>200</v>
       </c>
-      <c r="F11" s="10">
-        <f>E11*D11*C11</f>
-        <v>320</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="I11" s="10">
+        <f>H11*G11*D11</f>
+        <v>960</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
-        <v>45107</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="D12" s="9">
-        <f>(WEEKNUM(B12,1)-WEEKNUM(B11,1))/2</f>
+      <c r="B12" s="17">
+        <f>C11</f>
+        <v>45012</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45110</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12:E15" si="0">(C12-B12)/7/2</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" ref="G12:G15" si="1">E12-F12</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="10">
+        <v>200</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" ref="I12:I15" si="2">H12*G12*D12</f>
+        <v>480</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="M12" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7">
+        <f>C12</f>
+        <v>45110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45194</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>200</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" ref="B14:B15" si="3">C13</f>
+        <v>45194</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45292</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="E12" s="10">
+      <c r="H14" s="10">
         <v>200</v>
       </c>
-      <c r="F12" s="10">
-        <f>E12*D12*C12</f>
-        <v>909.99999999999989</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="7">
-        <v>45199</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="9">
-        <f>(WEEKNUM(B13,1)-WEEKNUM(B12,1))/2</f>
-        <v>6.5</v>
-      </c>
-      <c r="E13" s="10">
-        <v>200</v>
-      </c>
-      <c r="F13" s="10">
-        <f>E13*D13*C13</f>
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="7">
-        <v>45291</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="9">
-        <f>(WEEKNUM(B14,1)-WEEKNUM(B13,1))/2</f>
-        <v>7</v>
-      </c>
-      <c r="E14" s="10">
-        <v>200</v>
-      </c>
-      <c r="F14" s="10">
-        <f>E14*D14*C14</f>
-        <v>700</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2024</v>
       </c>
       <c r="B15" s="7">
+        <f t="shared" si="3"/>
+        <v>45292</v>
+      </c>
+      <c r="C15" s="7">
         <v>45657</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D15" s="8">
         <v>0.5</v>
       </c>
-      <c r="D15" s="9">
-        <f>(WEEKNUM(B15,1))/2</f>
-        <v>26.5</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>26.071428571428573</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>26.071428571428573</v>
+      </c>
+      <c r="H15" s="10">
         <v>200</v>
       </c>
-      <c r="F15" s="10">
-        <f>E15*D15*C15</f>
-        <v>2650</v>
-      </c>
-      <c r="G15" s="4"/>
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>2607.1428571428573</v>
+      </c>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
+  <mergeCells count="11">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:K9"/>
+  <dimension ref="A4:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.81640625" customWidth="1"/>
     <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" customWidth="1"/>
-    <col min="5" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="26.1796875" customWidth="1"/>
+    <col min="3" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" customWidth="1"/>
+    <col min="6" max="11" width="15.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3278,213 +3563,232 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" s="12">
-        <f>Parameters!F11</f>
-        <v>320</v>
+        <f>Parameters!I11</f>
+        <v>960</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:J9" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, D$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "Done")</f>
+        <v>890</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:K9" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</f>
         <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>30</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f>Table3[[#This Row],[Planned]]-SUM(D5:J5)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>Table3[[#This Row],[Planned]]-SUM(E5:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>930</v>
+        <v>580</v>
       </c>
       <c r="C6" s="12">
-        <f>Parameters!F12</f>
-        <v>909.99999999999989</v>
+        <f>Parameters!I12</f>
+        <v>480</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "Done")</f>
+        <v>380</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f>Table3[[#This Row],[Planned]]-SUM(D6:J6)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="L6">
+        <f>Table3[[#This Row],[Planned]]-SUM(E6:K6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="str">
         <f>Parameters!A13</f>
         <v>2023 Q3</v>
       </c>
       <c r="B7">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="C7" s="12">
-        <f>Parameters!F13</f>
-        <v>650</v>
+        <f>Parameters!I13</f>
+        <v>500</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "Done")</f>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f>Table3[[#This Row],[Planned]]-SUM(D7:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="L7">
+        <f>Table3[[#This Row],[Planned]]-SUM(E7:K7)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="str">
         <f>Parameters!A14</f>
         <v>2023 Q4</v>
       </c>
       <c r="B8">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="C8" s="12">
-        <f>Parameters!F14</f>
-        <v>700</v>
+        <f>Parameters!I14</f>
+        <v>650</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K8">
-        <f>Table3[[#This Row],[Planned]]-SUM(D8:J8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="L8">
+        <f>Table3[[#This Row],[Planned]]-SUM(E8:K8)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <f>Parameters!A15</f>
         <v>2024</v>
@@ -3494,11 +3798,11 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f>Parameters!F15</f>
-        <v>2650</v>
+        <f>Parameters!I15</f>
+        <v>2607.1428571428573</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
       <c r="E9">
@@ -3526,7 +3830,11 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f>Table3[[#This Row],[Planned]]-SUM(D9:J9)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>Table3[[#This Row],[Planned]]-SUM(E9:K9)</f>
         <v>0</v>
       </c>
     </row>
@@ -3543,2314 +3851,3260 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1"/>
-    <col min="4" max="4" width="86.1796875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="10" width="10.90625" customWidth="1"/>
-    <col min="11" max="11" width="27.26953125" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="69.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="9" width="11.453125" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
       </c>
       <c r="H1" t="s">
         <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
         <v>52</v>
       </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4">
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5">
         <v>80</v>
       </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10">
-        <v>30</v>
-      </c>
-      <c r="J10">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>20</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
       <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13">
+        <v>116</v>
+      </c>
+      <c r="F13">
         <v>50</v>
       </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
       <c r="K13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
       <c r="I14">
-        <v>80</v>
-      </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>113</v>
-      </c>
       <c r="I15">
-        <v>80</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
-        <v>108</v>
-      </c>
       <c r="I16">
-        <v>20</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="I17">
         <v>30</v>
       </c>
-      <c r="J17">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="I18">
-        <v>30</v>
-      </c>
-      <c r="K18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="K20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="H20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21">
-        <v>50</v>
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>117</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24">
-        <v>80</v>
-      </c>
-      <c r="J24">
-        <v>20</v>
-      </c>
-      <c r="K24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
+        <v>117</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
       </c>
       <c r="I26">
-        <v>80</v>
-      </c>
-      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27">
-        <v>30</v>
-      </c>
-      <c r="K27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>117</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
       </c>
       <c r="I30">
         <v>20</v>
       </c>
-      <c r="K30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>101</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>101</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33">
+        <v>101</v>
+      </c>
+      <c r="F33">
         <v>30</v>
       </c>
-      <c r="K33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34">
-        <v>20</v>
-      </c>
-      <c r="K34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>117</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35">
+        <v>117</v>
+      </c>
+      <c r="F35">
         <v>30</v>
       </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
       <c r="K35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36">
-        <v>80</v>
-      </c>
-      <c r="K36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>116</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="F37">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
       </c>
       <c r="I37">
-        <v>50</v>
-      </c>
-      <c r="K37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
       <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
         <v>142</v>
       </c>
-      <c r="C38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
       <c r="E38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38">
+        <v>101</v>
+      </c>
+      <c r="F38">
         <v>30</v>
       </c>
-      <c r="K38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
       <c r="B39" t="s">
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39">
+        <v>97</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40">
         <v>30</v>
       </c>
-      <c r="K39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B40" t="s">
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40">
-        <v>30</v>
-      </c>
-      <c r="K40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41">
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42">
         <v>20</v>
       </c>
-      <c r="K41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" t="s">
-        <v>66</v>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>232</v>
       </c>
       <c r="I42">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
       <c r="B43" t="s">
         <v>28</v>
       </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>117</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
       </c>
       <c r="I43">
-        <v>30</v>
-      </c>
-      <c r="K43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s">
-        <v>66</v>
+        <v>101</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44">
-        <v>30</v>
-      </c>
-      <c r="K44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>232</v>
+      </c>
+      <c r="J44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
       <c r="B45" t="s">
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45">
+        <v>101</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48">
         <v>80</v>
       </c>
-      <c r="K45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="I46">
-        <v>30</v>
-      </c>
-      <c r="K46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47">
+      <c r="G48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49">
         <v>50</v>
       </c>
-      <c r="K47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48">
-        <v>50</v>
-      </c>
-      <c r="K48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49">
-        <v>50</v>
-      </c>
-      <c r="K49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
       <c r="B50" t="s">
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50">
+        <v>116</v>
+      </c>
+      <c r="F50">
         <v>50</v>
       </c>
-      <c r="J50">
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52">
         <v>30</v>
       </c>
-      <c r="K50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>12</v>
       </c>
-      <c r="I52">
-        <v>30</v>
-      </c>
-      <c r="K52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I53">
-        <v>50</v>
-      </c>
-      <c r="K53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>101</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="I54">
-        <v>50</v>
+        <v>117</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
       </c>
       <c r="K54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" t="s">
-        <v>66</v>
-      </c>
-      <c r="I55">
+        <v>85</v>
+      </c>
+      <c r="F55">
         <v>50</v>
       </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>232</v>
+      </c>
       <c r="K55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
       <c r="B56" t="s">
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56">
+        <v>101</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57">
         <v>30</v>
       </c>
-      <c r="K56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" t="s">
-        <v>66</v>
-      </c>
-      <c r="I57">
-        <v>30</v>
+      <c r="G57" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
       </c>
       <c r="K57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
       <c r="B58" t="s">
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="F58">
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59">
-        <v>30</v>
-      </c>
-      <c r="K59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>85</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
       <c r="B60" t="s">
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
-      </c>
-      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
         <v>12</v>
       </c>
-      <c r="I60">
-        <v>30</v>
-      </c>
-      <c r="K60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
       </c>
       <c r="I61">
-        <v>30</v>
-      </c>
-      <c r="K61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
       </c>
       <c r="I62">
         <v>30</v>
       </c>
-      <c r="J62">
-        <v>10</v>
-      </c>
-      <c r="K62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="J62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
-      </c>
-      <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63">
-        <v>30</v>
-      </c>
-      <c r="K63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>97</v>
+      </c>
+      <c r="F63">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
       <c r="B64" t="s">
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64">
-        <v>20</v>
-      </c>
-      <c r="K64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>117</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
       <c r="B65" t="s">
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
-      </c>
-      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s">
         <v>12</v>
       </c>
-      <c r="I65">
-        <v>50</v>
-      </c>
-      <c r="K65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" t="s">
-        <v>171</v>
-      </c>
-      <c r="F66" t="s">
-        <v>12</v>
+      <c r="H66" t="s">
+        <v>183</v>
       </c>
       <c r="I66">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
       <c r="B67" t="s">
         <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
-      </c>
-      <c r="F67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
         <v>12</v>
       </c>
-      <c r="I67">
-        <v>10</v>
-      </c>
-      <c r="K67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
       <c r="B68" t="s">
         <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
         <v>12</v>
       </c>
-      <c r="I68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="H68" t="s">
+        <v>163</v>
+      </c>
+      <c r="K68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
       <c r="B69" t="s">
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s">
+        <v>59</v>
+      </c>
+      <c r="H69" t="s">
+        <v>99</v>
       </c>
       <c r="I69">
-        <v>50</v>
-      </c>
-      <c r="K69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
       <c r="B70" t="s">
         <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
-      </c>
-      <c r="F70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
         <v>12</v>
       </c>
-      <c r="I70">
-        <v>50</v>
-      </c>
-      <c r="K70" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="H70" t="s">
+        <v>231</v>
+      </c>
+      <c r="J70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
       <c r="B71" t="s">
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
-      </c>
-      <c r="F71" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>59</v>
+      </c>
+      <c r="K72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
         <v>12</v>
       </c>
-      <c r="I71">
-        <v>80</v>
-      </c>
-      <c r="K71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" t="s">
-        <v>171</v>
-      </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72">
-        <v>30</v>
-      </c>
-      <c r="K72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" t="s">
-        <v>171</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
+      <c r="H73" t="s">
+        <v>163</v>
       </c>
       <c r="I73">
-        <v>30</v>
-      </c>
-      <c r="K73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>167</v>
+      </c>
       <c r="B74" t="s">
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
-      </c>
-      <c r="F74" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
         <v>12</v>
       </c>
-      <c r="I74">
-        <v>20</v>
-      </c>
-      <c r="K74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75">
-        <v>20</v>
-      </c>
-      <c r="K75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
       <c r="B76" t="s">
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
+        <v>116</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>59</v>
+      </c>
+      <c r="K76" t="s">
         <v>31</v>
       </c>
-      <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" t="s">
-        <v>33</v>
-      </c>
-      <c r="I76">
-        <v>50</v>
-      </c>
-      <c r="J76">
-        <v>40</v>
-      </c>
-      <c r="K76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>58</v>
+      </c>
+      <c r="K77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
         <v>28</v>
       </c>
-      <c r="C77" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" t="s">
-        <v>95</v>
-      </c>
-      <c r="E77" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" t="s">
-        <v>38</v>
-      </c>
-      <c r="I77">
-        <v>50</v>
-      </c>
-      <c r="J77">
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78">
-        <v>50</v>
-      </c>
-      <c r="K78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+      <c r="G78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
         <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="D79" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>169</v>
+      </c>
+      <c r="G79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
       <c r="B80" t="s">
         <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E80" t="s">
+        <v>116</v>
+      </c>
+      <c r="G80" t="s">
+        <v>59</v>
+      </c>
+      <c r="K80" t="s">
         <v>31</v>
       </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80">
-        <v>50</v>
-      </c>
-      <c r="K80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
       <c r="B81" t="s">
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
         <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>52</v>
-      </c>
-      <c r="I81">
-        <v>50</v>
-      </c>
-      <c r="J81">
-        <v>20</v>
-      </c>
-      <c r="K81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
       <c r="B82" t="s">
         <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82">
-        <v>30</v>
+        <v>169</v>
+      </c>
+      <c r="G82" t="s">
+        <v>58</v>
       </c>
       <c r="K82" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" t="s">
-        <v>66</v>
-      </c>
-      <c r="I83">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="K83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
       <c r="B84" t="s">
         <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" t="s">
-        <v>51</v>
-      </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
-      </c>
-      <c r="H84" t="s">
-        <v>113</v>
-      </c>
-      <c r="I84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
       <c r="B85" t="s">
         <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" t="s">
-        <v>51</v>
-      </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" t="s">
-        <v>113</v>
-      </c>
-      <c r="I85">
-        <v>20</v>
-      </c>
-      <c r="K85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
       <c r="B86" t="s">
         <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>51</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="s">
-        <v>113</v>
-      </c>
-      <c r="I86">
-        <v>20</v>
-      </c>
-      <c r="K86" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+        <v>117</v>
+      </c>
+      <c r="F86">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
       <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
         <v>28</v>
       </c>
-      <c r="C87" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" t="s">
-        <v>174</v>
-      </c>
-      <c r="E87" t="s">
-        <v>51</v>
-      </c>
-      <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" t="s">
-        <v>108</v>
-      </c>
-      <c r="I87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
-      <c r="B88" t="s">
-        <v>123</v>
-      </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
-      </c>
-      <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" t="s">
-        <v>108</v>
-      </c>
-      <c r="I88">
-        <v>30</v>
-      </c>
-      <c r="K88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>101</v>
+      </c>
+      <c r="F88">
+        <v>50</v>
+      </c>
+      <c r="G88" t="s">
+        <v>59</v>
+      </c>
+      <c r="J88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
       <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" t="s">
         <v>142</v>
       </c>
-      <c r="C89" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" t="s">
-        <v>176</v>
-      </c>
       <c r="E89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
+        <v>117</v>
+      </c>
+      <c r="F89">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
       <c r="B90" t="s">
         <v>28</v>
       </c>
       <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" t="s">
+        <v>86</v>
+      </c>
+      <c r="F90">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" t="s">
+        <v>142</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>59</v>
+      </c>
+      <c r="J92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>59</v>
+      </c>
+      <c r="J93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" t="s">
+        <v>169</v>
+      </c>
+      <c r="K98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" t="s">
+        <v>169</v>
+      </c>
+      <c r="H101" t="s">
+        <v>99</v>
+      </c>
+      <c r="J101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" t="s">
+        <v>207</v>
+      </c>
+      <c r="D107" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s">
+        <v>196</v>
+      </c>
+      <c r="C115" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" t="s">
+        <v>217</v>
+      </c>
+      <c r="D116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119" t="s">
+        <v>169</v>
+      </c>
+      <c r="G119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" t="s">
+        <v>169</v>
+      </c>
+      <c r="G120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" t="s">
+        <v>169</v>
+      </c>
+      <c r="G121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" t="s">
+        <v>169</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>196</v>
+      </c>
+      <c r="C123" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" t="s">
+        <v>169</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" t="s">
+        <v>169</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" t="s">
+        <v>226</v>
+      </c>
+      <c r="D125" t="s">
+        <v>169</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>73</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" t="s">
+        <v>234</v>
+      </c>
+      <c r="D126" t="s">
+        <v>142</v>
+      </c>
+      <c r="F126">
+        <v>80</v>
+      </c>
+      <c r="G126" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s">
+        <v>59</v>
+      </c>
+      <c r="K127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128">
+        <v>80</v>
+      </c>
+      <c r="G128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D129" t="s">
+        <v>142</v>
+      </c>
+      <c r="F129">
+        <v>80</v>
+      </c>
+      <c r="G129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" t="s">
+        <v>85</v>
+      </c>
+      <c r="F130">
+        <v>50</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>195</v>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+      <c r="K130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
         <v>165</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" t="s">
+        <v>116</v>
+      </c>
+      <c r="F131">
+        <v>50</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>195</v>
+      </c>
+      <c r="K131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" t="s">
+        <v>228</v>
+      </c>
+      <c r="D132" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s">
+        <v>186</v>
+      </c>
+      <c r="C133" t="s">
         <v>177</v>
       </c>
-      <c r="E90" t="s">
-        <v>47</v>
+      <c r="D133" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" t="s">
+        <v>85</v>
+      </c>
+      <c r="F133">
+        <v>50</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" t="s">
+        <v>169</v>
+      </c>
+      <c r="G135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>156</v>
+      </c>
+      <c r="C136" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" t="s">
+        <v>58</v>
+      </c>
+      <c r="J136" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>240</v>
+      </c>
+      <c r="D137" t="s">
+        <v>169</v>
+      </c>
+      <c r="G137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>241</v>
+      </c>
+      <c r="D138" t="s">
+        <v>169</v>
+      </c>
+      <c r="G138" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M90" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
-    <filterColumn colId="8">
+  <autoFilter ref="A1:L138" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="10"/>
+        <filter val="Being defined"/>
+        <filter val="Being elaborated"/>
+        <filter val="Current / next quarter"/>
+        <filter val="Defined"/>
+        <filter val="Elaborated"/>
+        <filter val="In progress"/>
+        <filter val="New"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="2023 Q2"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:L133">
+      <sortCondition ref="D1:D138"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6FE1D-6540-4BF0-884E-5251F2A845CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8E8CB-6BC2-4DE2-8B6C-FB1CAB177B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
     <sheet name="GITHUB_EPICS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$146</definedName>
     <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$F$2:$F$199</definedName>
     <definedName name="EPICS_PERIOD">GITHUB_EPICS!$G$2:$G$199</definedName>
     <definedName name="EPICS_STATUS">GITHUB_EPICS!$D$2:$D$199</definedName>
     <definedName name="EPICS_TYPE">GITHUB_EPICS!$E$2:$E$199</definedName>
-    <definedName name="PERIODS">Parameters!$A$11:$A$49</definedName>
-    <definedName name="PLANNING">Parameters!$A$11:$J$15</definedName>
+    <definedName name="PERIODS">Parameters!$A$6:$A$44</definedName>
+    <definedName name="PLANNING">Parameters!$A$6:$J$10</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="260">
   <si>
     <t>Capacity planning for Alkemio</t>
   </si>
@@ -55,12 +55,6 @@
     <t>This tab provides teams' velocity and overall releases capacity overview based on the current version of 2015 release calendar.</t>
   </si>
   <si>
-    <t>Sprint Start Date:</t>
-  </si>
-  <si>
-    <t>Current Sprint:</t>
-  </si>
-  <si>
     <t>Time Period</t>
   </si>
   <si>
@@ -280,15 +274,9 @@
     <t>Grouping of Hubs by theme</t>
   </si>
   <si>
-    <t xml:space="preserve">Invitations to Hub </t>
-  </si>
-  <si>
     <t>Denise Larsson</t>
   </si>
   <si>
-    <t>Hub Visualization component</t>
-  </si>
-  <si>
     <t>Ecosystem Analytics: prototype</t>
   </si>
   <si>
@@ -409,9 +397,6 @@
     <t>Branding at platform level</t>
   </si>
   <si>
-    <t>Innovation spaces: readiness for release</t>
-  </si>
-  <si>
     <t>client-web</t>
   </si>
   <si>
@@ -421,18 +406,12 @@
     <t>Engagement: user newsletter signup during registration</t>
   </si>
   <si>
-    <t>Update of Journey settings tab</t>
-  </si>
-  <si>
     <t>Search results validated in service</t>
   </si>
   <si>
     <t>Sharing: social media</t>
   </si>
   <si>
-    <t>Follow a Hub / Challenge / Opportunity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preference for aggregated of notifications </t>
   </si>
   <si>
@@ -472,9 +451,6 @@
     <t>Integration of other online tools</t>
   </si>
   <si>
-    <t>UX Refinements Round 5</t>
-  </si>
-  <si>
     <t>Current / next quarter</t>
   </si>
   <si>
@@ -499,21 +475,12 @@
     <t>TNO</t>
   </si>
   <si>
-    <t>Email Templates: Refresh, multi-language</t>
-  </si>
-  <si>
     <t>UWV, Envision, Gebruiker Centraal</t>
   </si>
   <si>
     <t>epic,client</t>
   </si>
   <si>
-    <t>Multiple Lead Organizations on Hub</t>
-  </si>
-  <si>
-    <t>Shipping Retrofits, TIP</t>
-  </si>
-  <si>
     <t>Landing page V1.2</t>
   </si>
   <si>
@@ -523,9 +490,6 @@
     <t>Calendar events V3</t>
   </si>
   <si>
-    <t>Innovation Flow to include goal/checklist/callouts</t>
-  </si>
-  <si>
     <t>UWV, Digicampus</t>
   </si>
   <si>
@@ -559,9 +523,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>Sharing metrics of Hub activity with Hub leads</t>
-  </si>
-  <si>
     <t xml:space="preserve">Definitions for URLs </t>
   </si>
   <si>
@@ -580,9 +541,6 @@
     <t>uwv</t>
   </si>
   <si>
-    <t>Structure refresh Challenge + Opportunity level</t>
-  </si>
-  <si>
     <t>Elaborated</t>
   </si>
   <si>
@@ -592,18 +550,12 @@
     <t>Epic,A: Platform,Infrastructure</t>
   </si>
   <si>
-    <t>Epic,A: Platform</t>
-  </si>
-  <si>
     <t>Epic,A: Context</t>
   </si>
   <si>
     <t>2023-04-25</t>
   </si>
   <si>
-    <t>Epic,UX,client,A: Context</t>
-  </si>
-  <si>
     <t>Community Terms: phase 1 - library support, simple templates</t>
   </si>
   <si>
@@ -634,9 +586,6 @@
     <t>User controls on data visibility</t>
   </si>
   <si>
-    <t>2023-05-09</t>
-  </si>
-  <si>
     <t>Initiative</t>
   </si>
   <si>
@@ -646,9 +595,6 @@
     <t>Reporting: Operational monitoring, usage of northstar metrics</t>
   </si>
   <si>
-    <t>Journey refresh: Hub level additional functionality</t>
-  </si>
-  <si>
     <t>Platform navigation</t>
   </si>
   <si>
@@ -667,9 +613,6 @@
     <t>I: Whiteboard Usage</t>
   </si>
   <si>
-    <t>I: Innovation Spaces</t>
-  </si>
-  <si>
     <t>I: Guidance for users</t>
   </si>
   <si>
@@ -751,9 +694,6 @@
     <t>Valentin Yanakiev,Denise Larsson</t>
   </si>
   <si>
-    <t>License / Subscription management v1: (quotas)</t>
-  </si>
-  <si>
     <t>My home page with activity</t>
   </si>
   <si>
@@ -782,6 +722,111 @@
   </si>
   <si>
     <t>Vacations / Done (sprints)</t>
+  </si>
+  <si>
+    <t>Epic,UX,Product Discussion</t>
+  </si>
+  <si>
+    <t>Journey refresh: Space level additional functionality</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>UWV, VNG, Digicampus, DSIH</t>
+  </si>
+  <si>
+    <t>TNO, UWV</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>DSIH</t>
+  </si>
+  <si>
+    <t>Sharing metrics of Space activity with leads</t>
+  </si>
+  <si>
+    <t>Space Visualization component</t>
+  </si>
+  <si>
+    <t>Follow a Space / Challenge / Opportunity</t>
+  </si>
+  <si>
+    <t>I: Innovation Hubs</t>
+  </si>
+  <si>
+    <t>Possibility to hide opportunity level</t>
+  </si>
+  <si>
+    <t>Client: Direct entity access</t>
+  </si>
+  <si>
+    <t>Update of Journey settings tab: v1</t>
+  </si>
+  <si>
+    <t>UWV, GovTechNL, DSIH</t>
+  </si>
+  <si>
+    <t>Epic,A: Platform,Roadmap Discussion</t>
+  </si>
+  <si>
+    <t>Innovation Hubs: Rounding out Functionality</t>
+  </si>
+  <si>
+    <t>Invite existing Users to Space</t>
+  </si>
+  <si>
+    <t>Shipping Retrofits, TIP, GovTechNL</t>
+  </si>
+  <si>
+    <t>InnovationHubs without networking updates</t>
+  </si>
+  <si>
+    <t>Dev env optimisation, incl InnovationHubs locally</t>
+  </si>
+  <si>
+    <t>VNG, UWV, DSIH, GovTechNL, Digicampus</t>
+  </si>
+  <si>
+    <t>Epic,Product Discussion</t>
+  </si>
+  <si>
+    <t>Administering Journeys: simplification</t>
+  </si>
+  <si>
+    <t>Innovation Library: Management, InnovationPack extensions</t>
+  </si>
+  <si>
+    <t>Quota / resource management: Documents</t>
+  </si>
+  <si>
+    <t>UX Refinements - Round 5</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>2024 Q1</t>
+  </si>
+  <si>
+    <t>Email Templates: Refresh</t>
+  </si>
+  <si>
+    <t>Innovation Flow: Definition to include goal/checklist/callouts</t>
+  </si>
+  <si>
+    <t>Community: Multiple Lead Organizations on Space</t>
+  </si>
+  <si>
+    <t>Innovation Flow: Lifecycles v2</t>
+  </si>
+  <si>
+    <t>Innovation Flow usage in Challenges</t>
+  </si>
+  <si>
+    <t>Community: Invite non-platform users to join a Space</t>
   </si>
 </sst>
 </file>
@@ -792,7 +837,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -827,6 +872,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -891,19 +943,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -927,16 +972,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in 20% - Accent6" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1189,13 +1238,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>580</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>720</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1020</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1297,13 +1346,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>960</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>480</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>650</c:v>
@@ -1525,7 +1574,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$E$4</c:f>
+              <c:f>Capacity!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1566,21 +1615,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$E$5:$E$8</c:f>
+              <c:f>Capacity!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,7 +1645,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$F$4</c:f>
+              <c:f>Capacity!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1637,21 +1686,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$F$5:$F$8</c:f>
+              <c:f>Capacity!$G$5:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1716,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$G$4</c:f>
+              <c:f>Capacity!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1708,21 +1757,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$G$5:$G$8</c:f>
+              <c:f>Capacity!$H$5:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,7 +1787,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$H$4</c:f>
+              <c:f>Capacity!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1779,21 +1828,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$H$5:$H$8</c:f>
+              <c:f>Capacity!$I$5:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,7 +1858,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$I$4</c:f>
+              <c:f>Capacity!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1852,21 +1901,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$I$5:$I$8</c:f>
+              <c:f>Capacity!$J$5:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1931,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$J$4</c:f>
+              <c:f>Capacity!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1923,12 +1972,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$J$5:$J$8</c:f>
+              <c:f>Capacity!$K$5:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1937,7 +1986,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,7 +2002,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$K$4</c:f>
+              <c:f>Capacity!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1996,21 +2045,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$K$5:$K$8</c:f>
+              <c:f>Capacity!$L$5:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>290</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,7 +2075,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Capacity!$L$4</c:f>
+              <c:f>Capacity!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2069,7 +2118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$L$5:$L$8</c:f>
+              <c:f>Capacity!$M$5:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2080,10 +2129,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,13 +2888,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>151562</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>33120</xdr:rowOff>
@@ -2875,13 +2924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -2913,42 +2962,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A4:L9" totalsRowShown="0">
-  <autoFilter ref="A4:L9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A4:M9" totalsRowShown="0">
+  <autoFilter ref="A4:M9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Delivery"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Planned" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Planned" dataDxfId="7">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Available">
-      <calculatedColumnFormula>Parameters!I11</calculatedColumnFormula>
+      <calculatedColumnFormula>Parameters!I6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A0B7810D-02AD-4563-84FC-C5AB45C9F69A}" name="Done" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{A0B7810D-02AD-4563-84FC-C5AB45C9F69A}" name="Done" dataDxfId="2">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{420E4733-D818-4697-B4AC-49919F34E6A1}" name="Functionality: Tactical" dataDxfId="4">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{4396325F-6B3B-4FA3-9252-BDB13D7DB267}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C298A470-F5E4-4C9D-A835-37621F5C7C5C}" name="Maintenance" dataDxfId="3">
-      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{420E4733-D818-4697-B4AC-49919F34E6A1}" name="Functionality: Tactical" dataDxfId="1">
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1E9537EA-C654-4C41-869E-4B20D36B1310}" name="Operations: Security" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{C298A470-F5E4-4C9D-A835-37621F5C7C5C}" name="Maintenance" dataDxfId="6">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AB5BDEA6-3CB3-4A95-AB00-2A8B4589EBDA}" name="Operations: Effectiveness">
+    <tableColumn id="8" xr3:uid="{1E9537EA-C654-4C41-869E-4B20D36B1310}" name="Operations: Security" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{43175893-A88C-4A75-A227-8493825C6391}" name="Usability">
+    <tableColumn id="11" xr3:uid="{AB5BDEA6-3CB3-4A95-AB00-2A8B4589EBDA}" name="Operations: Effectiveness">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{38437634-015A-4968-B70A-73EC423821EB}" name="Performance">
+    <tableColumn id="12" xr3:uid="{43175893-A88C-4A75-A227-8493825C6391}" name="Usability">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, J$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{147563EA-0BC5-490E-A60D-F4734C5093BA}" name="Functionality: Strategic" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{38437634-015A-4968-B70A-73EC423821EB}" name="Performance">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, K$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DC4CAD30-AA84-40FB-8366-4759F029E489}" name="Not specified" dataDxfId="0">
-      <calculatedColumnFormula>Table3[[#This Row],[Planned]]-SUM(E5:K5)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{147563EA-0BC5-490E-A60D-F4734C5093BA}" name="Functionality: Strategic" dataDxfId="4">
+      <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, L$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DC4CAD30-AA84-40FB-8366-4759F029E489}" name="Not specified" dataDxfId="3">
+      <calculatedColumnFormula>Table3[[#This Row],[Total]]-SUM(F5:L5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3252,282 +3304,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
-    <col min="10" max="10" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44928</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45012</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="6">
+        <f>(C6-B6)/7/2</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <f>E6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>200</v>
+      </c>
+      <c r="I6" s="7">
+        <f>H6*G6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <f>C6</f>
+        <v>45012</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45096</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ref="E7:E10" si="0">(C7-B7)/7/2</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:G10" si="1">E7-F7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>200</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:I10" si="2">H7*G7*D7</f>
+        <v>160</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="M7" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44928</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45012</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="9">
-        <f>(C11-B11)/7/2</f>
-        <v>6</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
-        <f>E11-F11</f>
-        <v>6</v>
-      </c>
-      <c r="H11" s="10">
-        <v>200</v>
-      </c>
-      <c r="I11" s="10">
-        <f>H11*G11*D11</f>
-        <v>960</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="17">
-        <f>C11</f>
-        <v>45012</v>
-      </c>
-      <c r="C12" s="7">
-        <v>45110</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" ref="E12:E15" si="0">(C12-B12)/7/2</f>
-        <v>7</v>
-      </c>
-      <c r="F12" s="9">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" ref="G12:G15" si="1">E12-F12</f>
-        <v>3</v>
-      </c>
-      <c r="H12" s="10">
-        <v>200</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" ref="I12:I15" si="2">H12*G12*D12</f>
-        <v>480</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="M12" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="7">
-        <f>C12</f>
-        <v>45110</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B8" s="4">
+        <f>C7</f>
+        <v>45096</v>
+      </c>
+      <c r="C8" s="4">
         <v>45194</v>
       </c>
-      <c r="D13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H13" s="10">
-        <v>200</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" ref="B14:B15" si="3">C13</f>
-        <v>45194</v>
-      </c>
-      <c r="C14" s="7">
-        <v>45292</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D8" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="7">
+        <v>200</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" ref="B9:B10" si="3">C8</f>
+        <v>45194</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45292</v>
+      </c>
+      <c r="D9" s="5">
         <v>0.5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H9" s="7">
         <v>200</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I9" s="7">
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2024</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B10" s="4">
         <f t="shared" si="3"/>
         <v>45292</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C10" s="4">
         <v>45657</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D10" s="5">
         <v>0.5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>26.071428571428573</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>26.071428571428573</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H10" s="7">
         <v>200</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I10" s="7">
         <f t="shared" si="2"/>
         <v>2607.1428571428573</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3536,261 +3572,280 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:L9"/>
+  <dimension ref="A4:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="32.54296875" customWidth="1"/>
-    <col min="6" max="11" width="15.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
         <v>97</v>
       </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" t="s">
-        <v>117</v>
-      </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="12">
-        <f>Parameters!I11</f>
-        <v>960</v>
+      <c r="C5" s="9">
+        <f>Parameters!I6</f>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "Done")</f>
         <v>890</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:K9" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, E$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+      <c r="E5" s="14">
+        <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
+        <v>890</v>
+      </c>
+      <c r="F5">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4)</f>
+        <v>230</v>
+      </c>
+      <c r="G5">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, G$4)</f>
+        <v>190</v>
+      </c>
+      <c r="H5">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, H$4)</f>
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, I$4)</f>
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, J$4)</f>
+        <v>140</v>
+      </c>
+      <c r="K5">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, K$4)</f>
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, L$4)</f>
+        <v>220</v>
+      </c>
+      <c r="M5">
+        <f>Table3[[#This Row],[Total]]-SUM(F5:L5)</f>
         <v>0</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f>Table3[[#This Row],[Planned]]-SUM(E5:K5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>12</v>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>580</v>
-      </c>
-      <c r="C6" s="12">
-        <f>Parameters!I12</f>
-        <v>480</v>
+        <v>220</v>
+      </c>
+      <c r="C6" s="9">
+        <f>Parameters!I7</f>
+        <v>160</v>
       </c>
       <c r="D6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "Done")</f>
-        <v>380</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <v>460</v>
+      </c>
+      <c r="E6" s="14">
+        <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
+        <v>680</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, F$4)</f>
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, G$4)</f>
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, H$4)</f>
         <v>20</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="I6">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, I$4)</f>
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, J$4)</f>
+        <v>220</v>
+      </c>
+      <c r="K6">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, K$4)</f>
         <v>0</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
+      <c r="L6">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, L$4)</f>
+        <v>230</v>
+      </c>
+      <c r="M6">
+        <f>Table3[[#This Row],[Total]]-SUM(F6:L6)</f>
         <v>0</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="L6">
-        <f>Table3[[#This Row],[Planned]]-SUM(E6:K6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="str">
-        <f>Parameters!A13</f>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="str">
+        <f>Parameters!A8</f>
         <v>2023 Q3</v>
       </c>
       <c r="B7">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>800</v>
+      </c>
+      <c r="C7" s="9">
+        <f>Parameters!I8</f>
         <v>720</v>
-      </c>
-      <c r="C7" s="12">
-        <f>Parameters!I13</f>
-        <v>500</v>
       </c>
       <c r="D7">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="E7" s="14">
+        <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
+        <v>800</v>
+      </c>
+      <c r="F7">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, F$4)</f>
         <v>50</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
+      <c r="G7">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, G$4)</f>
         <v>0</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="H7">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, H$4)</f>
         <v>0</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, I$4)</f>
+        <v>150</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, J$4)</f>
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, K$4)</f>
         <v>0</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
       <c r="L7">
-        <f>Table3[[#This Row],[Planned]]-SUM(E7:K7)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="str">
-        <f>Parameters!A14</f>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, L$4)</f>
+        <v>460</v>
+      </c>
+      <c r="M7">
+        <f>Table3[[#This Row],[Total]]-SUM(F7:L7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="str">
+        <f>Parameters!A9</f>
         <v>2023 Q4</v>
       </c>
       <c r="B8">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>1020</v>
-      </c>
-      <c r="C8" s="12">
-        <f>Parameters!I14</f>
+        <v>610</v>
+      </c>
+      <c r="C8" s="9">
+        <f>Parameters!I9</f>
         <v>650</v>
       </c>
       <c r="D8">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>170</v>
+      <c r="E8" s="14">
+        <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
+        <v>610</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, F$4)</f>
         <v>50</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, G$4)</f>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, H$4)</f>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, I$4)</f>
+        <v>200</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, J$4)</f>
+        <v>250</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, K$4)</f>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f>Table3[[#This Row],[Planned]]-SUM(E8:K8)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <f>Parameters!A15</f>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, L$4)</f>
+        <v>110</v>
+      </c>
+      <c r="M8">
+        <f>Table3[[#This Row],[Total]]-SUM(F8:L8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>Parameters!A10</f>
         <v>2024</v>
       </c>
       <c r="B9">
@@ -3798,23 +3853,23 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f>Parameters!I15</f>
+        <f>Parameters!I10</f>
         <v>2607.1428571428573</v>
       </c>
       <c r="D9">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="E9" s="14">
+        <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, F$4)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G9:L9" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
         <v>0</v>
       </c>
       <c r="H9">
@@ -3834,3276 +3889,3524 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f>Table3[[#This Row],[Planned]]-SUM(E9:K9)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>Table3[[#This Row],[Total]]-SUM(F9:L9)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="69.7265625" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="19.453125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F9">
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>20</v>
       </c>
       <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>81</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
       </c>
       <c r="F12">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F17">
         <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="I17">
         <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>227</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23">
         <v>20</v>
       </c>
-      <c r="G23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F30">
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F32">
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
         <v>156</v>
       </c>
-      <c r="C35" t="s">
-        <v>191</v>
-      </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F36">
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
         <v>97</v>
       </c>
-      <c r="F39">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" t="s">
-        <v>86</v>
-      </c>
       <c r="F40">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="H40" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F41">
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>232</v>
-      </c>
-      <c r="I42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F43">
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43">
-        <v>10</v>
-      </c>
-      <c r="J43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>253</v>
+      </c>
+      <c r="H45" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
+        <v>253</v>
+      </c>
+      <c r="K49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>232</v>
-      </c>
-      <c r="J44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
         <v>97</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
-      <c r="K47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
-      <c r="K48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>116</v>
       </c>
       <c r="F51">
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="J51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>253</v>
+      </c>
+      <c r="J52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52">
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54">
         <v>30</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53">
+      <c r="G54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55">
         <v>30</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55">
-        <v>50</v>
-      </c>
       <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" t="s">
-        <v>232</v>
-      </c>
-      <c r="K55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+      <c r="J55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F56">
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>59</v>
-      </c>
-      <c r="J57" t="s">
-        <v>36</v>
-      </c>
-      <c r="K57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F58">
         <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="K58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+      <c r="K59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F60">
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+      <c r="J60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>253</v>
+      </c>
+      <c r="J62" t="s">
+        <v>34</v>
+      </c>
+      <c r="K62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>253</v>
+      </c>
+      <c r="K63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s">
+        <v>253</v>
+      </c>
+      <c r="J64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>253</v>
+      </c>
+      <c r="J65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>253</v>
+      </c>
+      <c r="J66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" t="s">
         <v>82</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F67">
         <v>30</v>
       </c>
-      <c r="E61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61">
-        <v>50</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62">
-        <v>50</v>
-      </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62">
-        <v>30</v>
-      </c>
-      <c r="J62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63">
-        <v>50</v>
-      </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" t="s">
-        <v>117</v>
-      </c>
-      <c r="F64">
-        <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65">
-        <v>50</v>
-      </c>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" t="s">
-        <v>183</v>
-      </c>
-      <c r="I66">
-        <v>80</v>
-      </c>
-      <c r="K66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" t="s">
-        <v>116</v>
-      </c>
-      <c r="F67">
-        <v>20</v>
-      </c>
       <c r="G67" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F68">
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" t="s">
-        <v>163</v>
-      </c>
-      <c r="K68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F69">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
-      </c>
-      <c r="H69" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="I69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="J69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F70">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="K70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F71">
         <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s">
         <v>134</v>
       </c>
-      <c r="D72" t="s">
-        <v>67</v>
-      </c>
       <c r="E72" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>253</v>
+      </c>
+      <c r="J72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
         <v>117</v>
       </c>
-      <c r="F72">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>59</v>
-      </c>
-      <c r="K72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" t="s">
-        <v>49</v>
-      </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F73">
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" t="s">
-        <v>163</v>
-      </c>
-      <c r="I73">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F74">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" t="s">
-        <v>162</v>
-      </c>
-      <c r="I74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="F75">
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+      <c r="K75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
-      </c>
-      <c r="F76">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="G76" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="K76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>58</v>
-      </c>
-      <c r="K77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="J77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F78">
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="K78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>213</v>
+      </c>
+      <c r="K80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" t="s">
         <v>28</v>
       </c>
-      <c r="C79" t="s">
-        <v>194</v>
-      </c>
-      <c r="D79" t="s">
-        <v>169</v>
-      </c>
-      <c r="G79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="E81" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>56</v>
+      </c>
+      <c r="K82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" t="s">
         <v>28</v>
       </c>
-      <c r="C80" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80" t="s">
-        <v>59</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="E84" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>213</v>
+      </c>
+      <c r="I85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>27</v>
-      </c>
-      <c r="B81" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" t="s">
-        <v>198</v>
-      </c>
-      <c r="D81" t="s">
-        <v>178</v>
-      </c>
-      <c r="E81" t="s">
-        <v>101</v>
-      </c>
-      <c r="F81">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" t="s">
-        <v>169</v>
-      </c>
-      <c r="G82" t="s">
-        <v>58</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="E86" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>213</v>
+      </c>
+      <c r="I86">
+        <v>60</v>
+      </c>
+      <c r="J86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" t="s">
-        <v>169</v>
-      </c>
-      <c r="K83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" t="s">
-        <v>117</v>
-      </c>
-      <c r="F86">
-        <v>80</v>
-      </c>
-      <c r="G86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" t="s">
-        <v>38</v>
-      </c>
-      <c r="C87" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" t="s">
-        <v>142</v>
-      </c>
       <c r="E87" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="F87">
         <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>213</v>
+      </c>
+      <c r="I87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" t="s">
         <v>28</v>
       </c>
-      <c r="C88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" t="s">
-        <v>142</v>
-      </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F88">
         <v>50</v>
       </c>
       <c r="G88" t="s">
-        <v>59</v>
-      </c>
-      <c r="J88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>213</v>
+      </c>
+      <c r="I88">
+        <v>30</v>
+      </c>
+      <c r="K88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" t="s">
         <v>28</v>
       </c>
-      <c r="C89" t="s">
-        <v>127</v>
-      </c>
-      <c r="D89" t="s">
-        <v>142</v>
-      </c>
       <c r="E89" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F89">
         <v>50</v>
       </c>
       <c r="G89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>213</v>
+      </c>
+      <c r="I89">
+        <v>15</v>
+      </c>
+      <c r="K89" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F90">
         <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>227</v>
+      </c>
+      <c r="J90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92">
+        <v>30</v>
+      </c>
+      <c r="J92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" t="s">
         <v>86</v>
       </c>
-      <c r="F91">
-        <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" t="s">
-        <v>75</v>
-      </c>
-      <c r="D92" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" t="s">
-        <v>97</v>
-      </c>
-      <c r="F92">
-        <v>30</v>
-      </c>
-      <c r="G92" t="s">
-        <v>59</v>
-      </c>
-      <c r="J92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
         <v>113</v>
-      </c>
-      <c r="D93" t="s">
-        <v>142</v>
-      </c>
-      <c r="E93" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>59</v>
-      </c>
-      <c r="J93" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" t="s">
-        <v>142</v>
-      </c>
-      <c r="E94" t="s">
-        <v>97</v>
       </c>
       <c r="F94">
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" t="s">
         <v>28</v>
       </c>
-      <c r="C95" t="s">
-        <v>70</v>
-      </c>
-      <c r="D95" t="s">
-        <v>142</v>
-      </c>
       <c r="E95" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="F95">
         <v>50</v>
       </c>
       <c r="G95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>168</v>
+      </c>
+      <c r="I96">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" t="s">
+        <v>112</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>151</v>
+      </c>
+      <c r="K98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" t="s">
+        <v>93</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>151</v>
+      </c>
+      <c r="I99">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>81</v>
+      </c>
+      <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>150</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>113</v>
+      </c>
+      <c r="F101">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>81</v>
+      </c>
+      <c r="F102">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>56</v>
+      </c>
+      <c r="K102" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" t="s">
+        <v>81</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>212</v>
+      </c>
+      <c r="K103" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" t="s">
+        <v>157</v>
+      </c>
+      <c r="K104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H109" t="s">
+        <v>95</v>
+      </c>
+      <c r="J109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" t="s">
+        <v>184</v>
+      </c>
+      <c r="D110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" t="s">
+        <v>179</v>
+      </c>
+      <c r="C111" t="s">
+        <v>185</v>
+      </c>
+      <c r="D111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" t="s">
+        <v>187</v>
+      </c>
+      <c r="D113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" t="s">
+        <v>188</v>
+      </c>
+      <c r="D115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" t="s">
+        <v>190</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" t="s">
         <v>193</v>
       </c>
-      <c r="D96" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" t="s">
-        <v>117</v>
-      </c>
-      <c r="F96">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" t="s">
-        <v>174</v>
-      </c>
-      <c r="D97" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>27</v>
-      </c>
-      <c r="B98" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" t="s">
-        <v>175</v>
-      </c>
-      <c r="D98" t="s">
-        <v>169</v>
-      </c>
-      <c r="K98" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>27</v>
-      </c>
-      <c r="B99" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" t="s">
+        <v>195</v>
+      </c>
+      <c r="D121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" t="s">
+        <v>197</v>
+      </c>
+      <c r="D123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" t="s">
+        <v>198</v>
+      </c>
+      <c r="D124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>179</v>
+      </c>
+      <c r="C125" t="s">
         <v>199</v>
       </c>
-      <c r="D99" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99">
-        <v>50</v>
-      </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>179</v>
+      </c>
+      <c r="C126" t="s">
         <v>200</v>
       </c>
-      <c r="D100" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" t="s">
-        <v>196</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" t="s">
         <v>201</v>
       </c>
-      <c r="D101" t="s">
-        <v>169</v>
-      </c>
-      <c r="H101" t="s">
-        <v>99</v>
-      </c>
-      <c r="J101" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D127" t="s">
+        <v>157</v>
+      </c>
+      <c r="G127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>179</v>
+      </c>
+      <c r="C128" t="s">
         <v>202</v>
       </c>
-      <c r="D102" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>27</v>
-      </c>
-      <c r="B103" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D128" t="s">
+        <v>157</v>
+      </c>
+      <c r="G128" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>179</v>
+      </c>
+      <c r="C129" t="s">
         <v>203</v>
       </c>
-      <c r="D103" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>27</v>
-      </c>
-      <c r="B105" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>27</v>
-      </c>
-      <c r="B106" t="s">
-        <v>196</v>
-      </c>
-      <c r="C106" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" t="s">
-        <v>196</v>
-      </c>
-      <c r="C107" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" t="s">
-        <v>196</v>
-      </c>
-      <c r="C108" t="s">
-        <v>208</v>
-      </c>
-      <c r="D108" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" t="s">
-        <v>196</v>
-      </c>
-      <c r="C109" t="s">
-        <v>209</v>
-      </c>
-      <c r="D109" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>27</v>
-      </c>
-      <c r="B110" t="s">
-        <v>196</v>
-      </c>
-      <c r="C110" t="s">
-        <v>210</v>
-      </c>
-      <c r="D110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>27</v>
-      </c>
-      <c r="B111" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C112" t="s">
-        <v>213</v>
-      </c>
-      <c r="D112" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" t="s">
-        <v>196</v>
-      </c>
-      <c r="C113" t="s">
-        <v>214</v>
-      </c>
-      <c r="D113" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>27</v>
-      </c>
-      <c r="B114" t="s">
-        <v>196</v>
-      </c>
-      <c r="C114" t="s">
-        <v>215</v>
-      </c>
-      <c r="D114" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" t="s">
-        <v>216</v>
-      </c>
-      <c r="D115" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>27</v>
-      </c>
-      <c r="B116" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" t="s">
-        <v>217</v>
-      </c>
-      <c r="D116" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>27</v>
-      </c>
-      <c r="B117" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" t="s">
-        <v>218</v>
-      </c>
-      <c r="D117" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>27</v>
-      </c>
-      <c r="B118" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" t="s">
-        <v>219</v>
-      </c>
-      <c r="D118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>27</v>
-      </c>
-      <c r="B119" t="s">
-        <v>196</v>
-      </c>
-      <c r="C119" t="s">
-        <v>220</v>
-      </c>
-      <c r="D119" t="s">
-        <v>169</v>
-      </c>
-      <c r="G119" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" t="s">
-        <v>196</v>
-      </c>
-      <c r="C120" t="s">
-        <v>221</v>
-      </c>
-      <c r="D120" t="s">
-        <v>169</v>
-      </c>
-      <c r="G120" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" t="s">
-        <v>196</v>
-      </c>
-      <c r="C121" t="s">
-        <v>222</v>
-      </c>
-      <c r="D121" t="s">
-        <v>169</v>
-      </c>
-      <c r="G121" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" t="s">
-        <v>196</v>
-      </c>
-      <c r="C122" t="s">
-        <v>223</v>
-      </c>
-      <c r="D122" t="s">
-        <v>169</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>27</v>
-      </c>
-      <c r="B123" t="s">
-        <v>196</v>
-      </c>
-      <c r="C123" t="s">
-        <v>224</v>
-      </c>
-      <c r="D123" t="s">
-        <v>169</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>27</v>
-      </c>
-      <c r="B124" t="s">
-        <v>196</v>
-      </c>
-      <c r="C124" t="s">
-        <v>225</v>
-      </c>
-      <c r="D124" t="s">
-        <v>169</v>
-      </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>27</v>
-      </c>
-      <c r="B125" t="s">
-        <v>196</v>
-      </c>
-      <c r="C125" t="s">
-        <v>226</v>
-      </c>
-      <c r="D125" t="s">
-        <v>169</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" t="s">
-        <v>28</v>
-      </c>
-      <c r="C126" t="s">
-        <v>234</v>
-      </c>
-      <c r="D126" t="s">
-        <v>142</v>
-      </c>
-      <c r="F126">
-        <v>80</v>
-      </c>
-      <c r="G126" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127" t="s">
-        <v>28</v>
-      </c>
-      <c r="C127" t="s">
-        <v>187</v>
-      </c>
-      <c r="D127" t="s">
-        <v>169</v>
-      </c>
-      <c r="F127">
-        <v>30</v>
-      </c>
-      <c r="G127" t="s">
-        <v>59</v>
-      </c>
-      <c r="K127" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>27</v>
-      </c>
-      <c r="B128" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" t="s">
-        <v>227</v>
-      </c>
-      <c r="D128" t="s">
-        <v>178</v>
-      </c>
-      <c r="E128" t="s">
-        <v>85</v>
-      </c>
-      <c r="F128">
-        <v>80</v>
-      </c>
-      <c r="G128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>27</v>
-      </c>
-      <c r="B129" t="s">
-        <v>156</v>
-      </c>
-      <c r="C129" t="s">
-        <v>235</v>
-      </c>
       <c r="D129" t="s">
-        <v>142</v>
-      </c>
-      <c r="F129">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="G129" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B130" t="s">
         <v>179</v>
       </c>
       <c r="C130" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D130" t="s">
+        <v>157</v>
+      </c>
+      <c r="G130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>179</v>
+      </c>
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131" t="s">
+        <v>157</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>179</v>
+      </c>
+      <c r="C132" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" t="s">
+        <v>157</v>
+      </c>
+      <c r="G132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" t="s">
+        <v>157</v>
+      </c>
+      <c r="G133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" t="s">
+        <v>134</v>
+      </c>
+      <c r="E134" t="s">
+        <v>81</v>
+      </c>
+      <c r="F134">
+        <v>80</v>
+      </c>
+      <c r="G134" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" t="s">
+        <v>218</v>
+      </c>
+      <c r="D135" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" t="s">
+        <v>112</v>
+      </c>
+      <c r="F135">
         <v>30</v>
       </c>
-      <c r="E130" t="s">
-        <v>85</v>
-      </c>
-      <c r="F130">
+      <c r="G135" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" t="s">
+        <v>219</v>
+      </c>
+      <c r="D136" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s">
+        <v>56</v>
+      </c>
+      <c r="J136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" t="s">
+        <v>134</v>
+      </c>
+      <c r="E137" t="s">
+        <v>113</v>
+      </c>
+      <c r="F137">
+        <v>30</v>
+      </c>
+      <c r="G137" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" t="s">
+        <v>221</v>
+      </c>
+      <c r="D138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" t="s">
+        <v>81</v>
+      </c>
+      <c r="F138">
         <v>50</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" t="s">
-        <v>195</v>
-      </c>
-      <c r="I130">
+      <c r="G138" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" t="s">
+        <v>257</v>
+      </c>
+      <c r="D139" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" t="s">
+        <v>97</v>
+      </c>
+      <c r="F139">
+        <v>30</v>
+      </c>
+      <c r="G139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" t="s">
+        <v>225</v>
+      </c>
+      <c r="C140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D140" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" t="s">
+        <v>113</v>
+      </c>
+      <c r="F140">
+        <v>30</v>
+      </c>
+      <c r="G140" t="s">
+        <v>56</v>
+      </c>
+      <c r="K140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" t="s">
+        <v>258</v>
+      </c>
+      <c r="D141" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>81</v>
+      </c>
+      <c r="F141">
+        <v>50</v>
+      </c>
+      <c r="G141" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>244</v>
+      </c>
+      <c r="D142" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" t="s">
+        <v>97</v>
+      </c>
+      <c r="F142">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" t="s">
+        <v>42</v>
+      </c>
+      <c r="E143" t="s">
+        <v>81</v>
+      </c>
+      <c r="F143">
+        <v>80</v>
+      </c>
+      <c r="G143" t="s">
+        <v>56</v>
+      </c>
+      <c r="H143" t="s">
+        <v>227</v>
+      </c>
+      <c r="I143">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" t="s">
+        <v>159</v>
+      </c>
+      <c r="D144" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" t="s">
+        <v>97</v>
+      </c>
+      <c r="F144">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" t="s">
+        <v>230</v>
+      </c>
+      <c r="I144">
         <v>10</v>
       </c>
-      <c r="K130" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>27</v>
-      </c>
-      <c r="B131" t="s">
-        <v>28</v>
-      </c>
-      <c r="C131" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" t="s">
-        <v>30</v>
-      </c>
-      <c r="E131" t="s">
-        <v>116</v>
-      </c>
-      <c r="F131">
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" t="s">
+        <v>62</v>
+      </c>
+      <c r="D145" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" t="s">
+        <v>97</v>
+      </c>
+      <c r="F145">
         <v>50</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>195</v>
-      </c>
-      <c r="K131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" t="s">
-        <v>28</v>
-      </c>
-      <c r="C132" t="s">
-        <v>228</v>
-      </c>
-      <c r="D132" t="s">
-        <v>30</v>
-      </c>
-      <c r="F132">
-        <v>30</v>
-      </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" t="s">
-        <v>186</v>
-      </c>
-      <c r="C133" t="s">
-        <v>177</v>
-      </c>
-      <c r="D133" t="s">
-        <v>169</v>
-      </c>
-      <c r="E133" t="s">
-        <v>85</v>
-      </c>
-      <c r="F133">
-        <v>50</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>27</v>
-      </c>
-      <c r="B134" t="s">
-        <v>156</v>
-      </c>
-      <c r="C134" t="s">
-        <v>237</v>
-      </c>
-      <c r="D134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135" t="s">
-        <v>156</v>
-      </c>
-      <c r="C135" t="s">
-        <v>238</v>
-      </c>
-      <c r="D135" t="s">
-        <v>169</v>
-      </c>
-      <c r="G135" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>27</v>
-      </c>
-      <c r="B136" t="s">
-        <v>156</v>
-      </c>
-      <c r="C136" t="s">
-        <v>239</v>
-      </c>
-      <c r="D136" t="s">
-        <v>169</v>
-      </c>
-      <c r="G136" t="s">
-        <v>58</v>
-      </c>
-      <c r="J136" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>27</v>
-      </c>
-      <c r="B137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" t="s">
-        <v>240</v>
-      </c>
-      <c r="D137" t="s">
-        <v>169</v>
-      </c>
-      <c r="G137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" t="s">
-        <v>28</v>
-      </c>
-      <c r="C138" t="s">
-        <v>241</v>
-      </c>
-      <c r="D138" t="s">
-        <v>169</v>
-      </c>
-      <c r="G138" t="s">
-        <v>58</v>
+      <c r="G145" t="s">
+        <v>56</v>
+      </c>
+      <c r="H145" t="s">
+        <v>230</v>
+      </c>
+      <c r="J145" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" t="s">
+        <v>259</v>
+      </c>
+      <c r="D146" t="s">
+        <v>157</v>
+      </c>
+      <c r="E146" t="s">
+        <v>112</v>
+      </c>
+      <c r="F146">
+        <v>20</v>
+      </c>
+      <c r="G146" t="s">
+        <v>56</v>
+      </c>
+      <c r="K146" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L138" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Being defined"/>
-        <filter val="Being elaborated"/>
-        <filter val="Current / next quarter"/>
-        <filter val="Defined"/>
-        <filter val="Elaborated"/>
-        <filter val="In progress"/>
-        <filter val="New"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="2023 Q2"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:L133">
-      <sortCondition ref="D1:D138"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:L146" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8E8CB-6BC2-4DE2-8B6C-FB1CAB177B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28702AA0-D97D-4C93-9901-A119C6D871B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3909,10 +3909,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F138" sqref="F138:F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3968,7 +3969,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -4487,31 +4488,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="H19" t="s">
-        <v>227</v>
-      </c>
       <c r="K19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4540,7 +4538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4554,7 +4552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4574,7 +4572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4603,7 +4601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4626,7 +4624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -4652,7 +4650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4678,7 +4676,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4701,7 +4699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4724,7 +4722,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -4747,7 +4745,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -4770,7 +4768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -4813,7 +4811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -4836,7 +4834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -4859,7 +4857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -4882,7 +4880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -4905,7 +4903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -4925,7 +4923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -4948,7 +4946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -4974,7 +4972,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -5003,7 +5001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -5026,7 +5024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -5052,7 +5050,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -5075,7 +5073,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -5098,7 +5096,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -5167,7 +5165,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -5190,7 +5188,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -5216,7 +5214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -5236,7 +5234,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -5288,7 +5286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -5308,7 +5306,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -5331,7 +5329,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -5357,7 +5355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -5380,7 +5378,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -5403,7 +5401,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -5429,7 +5427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -5452,7 +5450,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -5478,7 +5476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -5501,7 +5499,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -5530,7 +5528,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -5556,7 +5554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -5634,7 +5632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -5657,7 +5655,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -5680,7 +5678,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -5709,7 +5707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -5738,7 +5736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -5813,7 +5811,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -5836,7 +5834,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -5859,7 +5857,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -5887,51 +5885,51 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F77">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>56</v>
       </c>
-      <c r="J77" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F78">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
         <v>56</v>
       </c>
-      <c r="K78" t="s">
-        <v>83</v>
+      <c r="H78" t="s">
+        <v>230</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5939,25 +5937,31 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F79">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>227</v>
+      </c>
+      <c r="K79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -6017,25 +6021,25 @@
         <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D82" t="s">
         <v>157</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F82">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
         <v>56</v>
       </c>
       <c r="K82" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -6043,28 +6047,28 @@
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="E83" t="s">
         <v>81</v>
       </c>
       <c r="F83">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G83" t="s">
         <v>56</v>
       </c>
       <c r="K83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -6119,7 +6123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -6212,7 +6216,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -6244,7 +6248,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -6328,7 +6332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -6403,7 +6407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -6522,7 +6526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>155</v>
       </c>
@@ -6551,7 +6555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -6582,25 +6586,25 @@
         <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D102" t="s">
         <v>44</v>
       </c>
       <c r="E102" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F102">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>56</v>
       </c>
       <c r="K102" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -6722,7 +6726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -6862,7 +6866,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -6876,7 +6880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -6932,7 +6936,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -7028,7 +7032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -7045,7 +7049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -7062,7 +7066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>25</v>
       </c>
@@ -7084,19 +7088,19 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D134" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E134" t="s">
         <v>81</v>
       </c>
       <c r="F134">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G134" t="s">
         <v>56</v>
@@ -7107,19 +7111,19 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C135" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="D135" t="s">
         <v>44</v>
       </c>
       <c r="E135" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F135">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s">
         <v>56</v>
@@ -7130,25 +7134,25 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D136" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="E136" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F136">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G136" t="s">
         <v>56</v>
       </c>
-      <c r="J136" t="s">
-        <v>75</v>
+      <c r="K136" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -7156,16 +7160,16 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E137" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F137">
         <v>30</v>
@@ -7179,10 +7183,10 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="C138" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D138" t="s">
         <v>157</v>
@@ -7196,16 +7200,19 @@
       <c r="G138" t="s">
         <v>56</v>
       </c>
+      <c r="K138" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="C139" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D139" t="s">
         <v>157</v>
@@ -7225,45 +7232,42 @@
         <v>25</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F140">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G140" t="s">
         <v>56</v>
       </c>
-      <c r="K140" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>25</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="D141" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="E141" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F141">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>56</v>
@@ -7274,19 +7278,19 @@
         <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D142" t="s">
         <v>157</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F142">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G142" t="s">
         <v>56</v>
@@ -7297,28 +7301,25 @@
         <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E143" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F143">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
         <v>56</v>
       </c>
-      <c r="H143" t="s">
-        <v>227</v>
-      </c>
-      <c r="I143">
-        <v>20</v>
+      <c r="J143" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -7329,7 +7330,7 @@
         <v>26</v>
       </c>
       <c r="C144" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="D144" t="s">
         <v>44</v>
@@ -7338,7 +7339,7 @@
         <v>97</v>
       </c>
       <c r="F144">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G144" t="s">
         <v>56</v>
@@ -7346,11 +7347,11 @@
       <c r="H144" t="s">
         <v>230</v>
       </c>
-      <c r="I144">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>25</v>
       </c>
@@ -7358,28 +7359,25 @@
         <v>26</v>
       </c>
       <c r="C145" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D145" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="E145" t="s">
         <v>97</v>
       </c>
       <c r="F145">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G145" t="s">
         <v>56</v>
       </c>
-      <c r="H145" t="s">
-        <v>230</v>
-      </c>
       <c r="J145" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>25</v>
       </c>
@@ -7387,26 +7385,38 @@
         <v>26</v>
       </c>
       <c r="C146" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="D146" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="E146" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F146">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G146" t="s">
         <v>56</v>
       </c>
-      <c r="K146" t="s">
-        <v>246</v>
+      <c r="H146" t="s">
+        <v>227</v>
+      </c>
+      <c r="I146">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L146" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}"/>
+  <autoFilter ref="A1:L146" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="2023 Q3"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:L146">
+      <sortCondition ref="C1:C146"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28702AA0-D97D-4C93-9901-A119C6D871B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9D5ED0-E70D-40C6-A1C4-4D96031E3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="GITHUB_EPICS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$145</definedName>
     <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$F$2:$F$199</definedName>
     <definedName name="EPICS_PERIOD">GITHUB_EPICS!$G$2:$G$199</definedName>
     <definedName name="EPICS_STATUS">GITHUB_EPICS!$D$2:$D$199</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="259">
   <si>
     <t>Capacity planning for Alkemio</t>
   </si>
@@ -166,9 +166,6 @@
     <t>UX Refinements - Round 3</t>
   </si>
   <si>
-    <t>Defined</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capacity Planning </t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>Core Capabilities</t>
   </si>
   <si>
-    <t>Epic,Roadmap Candidate</t>
-  </si>
-  <si>
     <t>Improved content editing</t>
   </si>
   <si>
@@ -535,12 +529,6 @@
     <t>Innovation Flow Visual Refresh</t>
   </si>
   <si>
-    <t>Simple Challenge version</t>
-  </si>
-  <si>
-    <t>uwv</t>
-  </si>
-  <si>
     <t>Elaborated</t>
   </si>
   <si>
@@ -592,9 +580,6 @@
     <t>I: Analytics via connectivity graph v1</t>
   </si>
   <si>
-    <t>Reporting: Operational monitoring, usage of northstar metrics</t>
-  </si>
-  <si>
     <t>Platform navigation</t>
   </si>
   <si>
@@ -709,9 +694,6 @@
     <t>Refresh preferences for notifications</t>
   </si>
   <si>
-    <t>Insights on platform usage</t>
-  </si>
-  <si>
     <t>Generative AI first use case</t>
   </si>
   <si>
@@ -757,9 +739,6 @@
     <t>I: Innovation Hubs</t>
   </si>
   <si>
-    <t>Possibility to hide opportunity level</t>
-  </si>
-  <si>
     <t>Client: Direct entity access</t>
   </si>
   <si>
@@ -775,9 +754,6 @@
     <t>Innovation Hubs: Rounding out Functionality</t>
   </si>
   <si>
-    <t>Invite existing Users to Space</t>
-  </si>
-  <si>
     <t>Shipping Retrofits, TIP, GovTechNL</t>
   </si>
   <si>
@@ -787,9 +763,6 @@
     <t>Dev env optimisation, incl InnovationHubs locally</t>
   </si>
   <si>
-    <t>VNG, UWV, DSIH, GovTechNL, Digicampus</t>
-  </si>
-  <si>
     <t>Epic,Product Discussion</t>
   </si>
   <si>
@@ -808,25 +781,49 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2024 Q1</t>
-  </si>
-  <si>
     <t>Email Templates: Refresh</t>
   </si>
   <si>
+    <t>Innovation Flow: Lifecycles v2</t>
+  </si>
+  <si>
+    <t>Innovation Flow usage in Challenges</t>
+  </si>
+  <si>
+    <t>2024 Q1 or later</t>
+  </si>
+  <si>
+    <t>Invite Users to Space</t>
+  </si>
+  <si>
+    <t>Epic,A: Platform</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>Reporting: Additional reports, data extensions, operations</t>
+  </si>
+  <si>
+    <t>Epic,Refinement</t>
+  </si>
+  <si>
+    <t>Challenge/Opportunity refresh</t>
+  </si>
+  <si>
+    <t>TIP, UWV</t>
+  </si>
+  <si>
+    <t>Reporting: sharing of reports, additional reports</t>
+  </si>
+  <si>
     <t>Innovation Flow: Definition to include goal/checklist/callouts</t>
   </si>
   <si>
-    <t>Community: Multiple Lead Organizations on Space</t>
-  </si>
-  <si>
-    <t>Innovation Flow: Lifecycles v2</t>
-  </si>
-  <si>
-    <t>Innovation Flow usage in Challenges</t>
-  </si>
-  <si>
-    <t>Community: Invite non-platform users to join a Space</t>
+    <t>Community: Multiple Lead Organizations on Space, Admin as Role</t>
+  </si>
+  <si>
+    <t>Client: Reduce client load times</t>
   </si>
 </sst>
 </file>
@@ -963,6 +960,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,7 +970,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in 20% - Accent6" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -981,9 +978,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <font>
-        <b/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -999,6 +993,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1238,13 +1235,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>610</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1349,7 +1346,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>720</c:v>
@@ -1623,10 +1620,10 @@
                   <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50</c:v>
@@ -1694,7 +1691,7 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1836,13 +1833,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,13 +1906,13 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,7 +1980,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2056,7 +2053,7 @@
                   <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>110</c:v>
@@ -2972,19 +2969,19 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Available">
       <calculatedColumnFormula>Parameters!I6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A0B7810D-02AD-4563-84FC-C5AB45C9F69A}" name="Done" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{A0B7810D-02AD-4563-84FC-C5AB45C9F69A}" name="Done" dataDxfId="6">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4396325F-6B3B-4FA3-9252-BDB13D7DB267}" name="Total" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{4396325F-6B3B-4FA3-9252-BDB13D7DB267}" name="Total" dataDxfId="5">
       <calculatedColumnFormula>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{420E4733-D818-4697-B4AC-49919F34E6A1}" name="Functionality: Tactical" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{420E4733-D818-4697-B4AC-49919F34E6A1}" name="Functionality: Tactical" dataDxfId="4">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C298A470-F5E4-4C9D-A835-37621F5C7C5C}" name="Maintenance" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{C298A470-F5E4-4C9D-A835-37621F5C7C5C}" name="Maintenance" dataDxfId="3">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1E9537EA-C654-4C41-869E-4B20D36B1310}" name="Operations: Security" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{1E9537EA-C654-4C41-869E-4B20D36B1310}" name="Operations: Security" dataDxfId="2">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{AB5BDEA6-3CB3-4A95-AB00-2A8B4589EBDA}" name="Operations: Effectiveness">
@@ -2996,10 +2993,10 @@
     <tableColumn id="10" xr3:uid="{38437634-015A-4968-B70A-73EC423821EB}" name="Performance">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, K$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{147563EA-0BC5-490E-A60D-F4734C5093BA}" name="Functionality: Strategic" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{147563EA-0BC5-490E-A60D-F4734C5093BA}" name="Functionality: Strategic" dataDxfId="1">
       <calculatedColumnFormula>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, L$4, EPICS_STATUS, "&lt;&gt;Done")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DC4CAD30-AA84-40FB-8366-4759F029E489}" name="Not specified" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{DC4CAD30-AA84-40FB-8366-4759F029E489}" name="Not specified" dataDxfId="0">
       <calculatedColumnFormula>Table3[[#This Row],[Total]]-SUM(F5:L5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3307,81 +3304,81 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="10" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3414,7 +3411,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3433,27 +3430,27 @@
         <v>6</v>
       </c>
       <c r="F7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" ref="G7:G10" si="1">E7-F7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>200</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" ref="I7:I10" si="2">H7*G7*D7</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2"/>
       <c r="M7" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4">
         <f>C7</f>
@@ -3485,9 +3482,9 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" ref="B9:B10" si="3">C8</f>
@@ -3519,7 +3516,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2024</v>
       </c>
@@ -3574,21 +3571,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:M9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="7" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3602,34 +3599,34 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" t="s">
         <v>112</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" t="s">
-        <v>113</v>
-      </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3645,36 +3642,36 @@
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "Done")</f>
         <v>890</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
         <v>890</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4)</f>
+        <f t="shared" ref="F5:L8" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4)</f>
         <v>230</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, G$4)</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, H$4)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, I$4)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, J$4)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, K$4)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, L$4)</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="M5">
@@ -3682,52 +3679,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="C6" s="9">
         <f>Parameters!I7</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "Done")</f>
         <v>460</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, F$4)</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, G$4)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, H$4)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, I$4)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, J$4)</f>
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, K$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_TYPE, L$4)</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="M6">
@@ -3735,14 +3732,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="str">
         <f>Parameters!A8</f>
         <v>2023 Q3</v>
       </c>
       <c r="B7">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="C7" s="9">
         <f>Parameters!I8</f>
@@ -3752,51 +3749,51 @@
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, F$4)</f>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, G$4)</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, H$4)</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, I$4)</f>
-        <v>150</v>
-      </c>
-      <c r="J7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, J$4)</f>
-        <v>140</v>
-      </c>
-      <c r="K7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, K$4)</f>
-        <v>0</v>
-      </c>
       <c r="L7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_TYPE, L$4)</f>
-        <v>460</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="M7">
         <f>Table3[[#This Row],[Total]]-SUM(F7:L7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="str">
         <f>Parameters!A9</f>
         <v>2023 Q4</v>
       </c>
       <c r="B8">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="C8" s="9">
         <f>Parameters!I9</f>
@@ -3806,36 +3803,36 @@
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, F$4)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, G$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, H$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, I$4)</f>
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="J8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, J$4)</f>
-        <v>250</v>
-      </c>
       <c r="K8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, K$4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_TYPE, L$4)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="M8">
@@ -3843,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <f>Parameters!A10</f>
         <v>2024</v>
@@ -3860,7 +3857,7 @@
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
         <v>0</v>
       </c>
@@ -3869,27 +3866,27 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:L9" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" ref="G9:L9" si="1">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9">
@@ -3910,28 +3907,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138:F139"/>
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="3" max="3" width="67.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="8" max="9" width="10.90625" customWidth="1"/>
+    <col min="10" max="10" width="34.90625" customWidth="1"/>
+    <col min="11" max="11" width="38.1796875" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3966,10 +3963,10 @@
         <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3977,13 +3974,13 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -3992,13 +3989,13 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4012,7 +4009,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -4021,27 +4018,27 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -4050,33 +4047,33 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>80</v>
@@ -4085,16 +4082,16 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5">
         <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4102,13 +4099,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -4117,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -4126,7 +4123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4134,13 +4131,13 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -4149,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>20</v>
@@ -4158,7 +4155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4166,13 +4163,13 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -4181,13 +4178,13 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4201,7 +4198,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -4210,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -4222,7 +4219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4230,13 +4227,13 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -4245,10 +4242,10 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4256,13 +4253,13 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -4271,19 +4268,19 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4291,13 +4288,13 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -4306,13 +4303,13 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4326,7 +4323,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -4338,7 +4335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4346,13 +4343,13 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -4364,7 +4361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4378,7 +4375,7 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -4393,10 +4390,10 @@
         <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -4422,21 +4419,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -4445,16 +4442,16 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I17">
         <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -4462,13 +4459,13 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -4477,82 +4474,76 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>175</v>
       </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19">
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4560,19 +4551,28 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4580,28 +4580,22 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4609,22 +4603,25 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -4632,25 +4629,25 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4658,25 +4655,22 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4684,180 +4678,177 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
         <v>80</v>
       </c>
-      <c r="G27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30">
-        <v>50</v>
-      </c>
-      <c r="G30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
         <v>143</v>
       </c>
-      <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -4865,76 +4856,82 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
         <v>220</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="G36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" t="s">
-        <v>97</v>
-      </c>
       <c r="G37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
         <v>81</v>
@@ -4943,10 +4940,10 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -4954,25 +4951,28 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="H39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4980,28 +4980,22 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" t="s">
-        <v>227</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -5009,94 +5003,85 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41">
+        <v>155</v>
+      </c>
+      <c r="G41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42">
         <v>30</v>
       </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42">
-        <v>50</v>
-      </c>
       <c r="G42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F43">
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="G44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -5104,51 +5089,54 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="I45">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="J46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -5156,39 +5144,42 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F48">
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -5196,45 +5187,48 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F49">
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>253</v>
-      </c>
-      <c r="K49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="J49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -5242,51 +5236,48 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F51">
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>253</v>
-      </c>
-      <c r="J51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
-      </c>
-      <c r="J52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -5294,19 +5285,22 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="K53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -5314,22 +5308,25 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="J54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -5337,71 +5334,77 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F55">
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>253</v>
-      </c>
-      <c r="J55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="J56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
         <v>112</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="K57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -5409,25 +5412,25 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F58">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>253</v>
-      </c>
-      <c r="K58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -5435,126 +5438,126 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>247</v>
+      </c>
+      <c r="J59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>247</v>
+      </c>
+      <c r="J60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
         <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>253</v>
-      </c>
-      <c r="K59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>253</v>
-      </c>
-      <c r="J60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" t="s">
-        <v>93</v>
       </c>
       <c r="F61">
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F62">
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>253</v>
-      </c>
-      <c r="J62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>247</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63" t="s">
         <v>34</v>
       </c>
-      <c r="K62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>253</v>
-      </c>
-      <c r="K63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -5562,25 +5565,28 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -5588,97 +5594,97 @@
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F65">
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>247</v>
+      </c>
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67">
         <v>20</v>
       </c>
-      <c r="G66" t="s">
-        <v>253</v>
-      </c>
-      <c r="J66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="G67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
         <v>134</v>
       </c>
-      <c r="E67" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s">
-        <v>96</v>
-      </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F68">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -5686,28 +5692,22 @@
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="F69">
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
-      </c>
-      <c r="I69">
-        <v>10</v>
-      </c>
-      <c r="J69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="K69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -5715,28 +5715,22 @@
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
-      </c>
-      <c r="J70" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="K70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -5744,166 +5738,181 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F71">
-        <v>30</v>
-      </c>
-      <c r="G71" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F72">
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>253</v>
-      </c>
-      <c r="J72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" t="s">
+        <v>224</v>
+      </c>
+      <c r="I74">
         <v>10</v>
       </c>
-      <c r="G74" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>25</v>
       </c>
       <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75">
+        <v>80</v>
+      </c>
+      <c r="K75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
         <v>26</v>
       </c>
-      <c r="C75" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>253</v>
-      </c>
-      <c r="K75" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" t="s">
-        <v>112</v>
-      </c>
-      <c r="G76" t="s">
-        <v>253</v>
-      </c>
-      <c r="K76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" t="s">
-        <v>145</v>
-      </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F77">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>208</v>
+      </c>
+      <c r="I77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -5911,86 +5920,89 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F79">
         <v>50</v>
       </c>
       <c r="G79" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>227</v>
-      </c>
-      <c r="K79" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I79">
+        <v>30</v>
+      </c>
+      <c r="J79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="F80">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" t="s">
-        <v>213</v>
-      </c>
-      <c r="K80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -5998,103 +6010,103 @@
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
       </c>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>30</v>
+      </c>
+      <c r="J81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
         <v>26</v>
       </c>
-      <c r="C82" t="s">
-        <v>259</v>
-      </c>
-      <c r="D82" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" t="s">
         <v>112</v>
       </c>
-      <c r="F82">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F83">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s">
         <v>56</v>
       </c>
-      <c r="K82" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
-        <v>225</v>
-      </c>
-      <c r="C83" t="s">
-        <v>256</v>
-      </c>
-      <c r="D83" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>56</v>
-      </c>
-      <c r="K83" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" t="s">
-        <v>28</v>
-      </c>
-      <c r="E84" t="s">
-        <v>81</v>
-      </c>
-      <c r="F84">
-        <v>50</v>
-      </c>
-      <c r="G84" t="s">
-        <v>10</v>
-      </c>
-      <c r="J84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -6102,208 +6114,193 @@
         <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F85">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" t="s">
-        <v>213</v>
-      </c>
-      <c r="I85">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s">
         <v>112</v>
       </c>
       <c r="F86">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s">
         <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="I86">
-        <v>60</v>
-      </c>
-      <c r="J86" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="K86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F87">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>213</v>
-      </c>
-      <c r="I87">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
         <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F88">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>213</v>
-      </c>
-      <c r="I88">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="K88" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="D89" t="s">
         <v>28</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F89">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
       </c>
       <c r="H89" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="I89">
-        <v>15</v>
-      </c>
-      <c r="K89" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F90">
         <v>30</v>
       </c>
       <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>148</v>
+      </c>
+      <c r="I90">
         <v>10</v>
       </c>
-      <c r="H90" t="s">
-        <v>227</v>
-      </c>
-      <c r="J90" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F91">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -6311,54 +6308,63 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>221</v>
       </c>
       <c r="I92">
-        <v>30</v>
-      </c>
-      <c r="J92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" t="s">
-        <v>28</v>
-      </c>
-      <c r="E93" t="s">
-        <v>93</v>
       </c>
       <c r="F93">
         <v>50</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
-      </c>
-      <c r="J93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>221</v>
+      </c>
+      <c r="I93">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -6366,25 +6372,28 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F94">
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
-      </c>
-      <c r="J94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>207</v>
+      </c>
+      <c r="K94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -6392,54 +6401,30 @@
         <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" t="s">
-        <v>41</v>
-      </c>
-      <c r="F95">
-        <v>50</v>
-      </c>
-      <c r="G95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="K95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" t="s">
-        <v>113</v>
-      </c>
-      <c r="F96">
-        <v>80</v>
-      </c>
-      <c r="G96" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" t="s">
-        <v>168</v>
-      </c>
-      <c r="I96">
-        <v>80</v>
-      </c>
-      <c r="K96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -6447,643 +6432,673 @@
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" t="s">
+        <v>155</v>
+      </c>
+      <c r="H100" t="s">
+        <v>94</v>
+      </c>
+      <c r="J100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" t="s">
+        <v>229</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" t="s">
+        <v>185</v>
+      </c>
+      <c r="D108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>175</v>
+      </c>
+      <c r="C114" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" t="s">
+        <v>197</v>
+      </c>
+      <c r="D119" t="s">
+        <v>155</v>
+      </c>
+      <c r="G119" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" t="s">
+        <v>155</v>
+      </c>
+      <c r="G120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>175</v>
+      </c>
+      <c r="C121" t="s">
+        <v>199</v>
+      </c>
+      <c r="D121" t="s">
+        <v>155</v>
+      </c>
+      <c r="G121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" t="s">
+        <v>200</v>
+      </c>
+      <c r="D122" t="s">
+        <v>155</v>
+      </c>
+      <c r="G122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>201</v>
+      </c>
+      <c r="D123" t="s">
+        <v>155</v>
+      </c>
+      <c r="G123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" t="s">
+        <v>202</v>
+      </c>
+      <c r="D124" t="s">
+        <v>155</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" t="s">
         <v>112</v>
       </c>
-      <c r="F97">
+      <c r="F125">
+        <v>50</v>
+      </c>
+      <c r="G125" t="s">
+        <v>55</v>
+      </c>
+      <c r="H125" t="s">
+        <v>221</v>
+      </c>
+      <c r="I125">
         <v>20</v>
       </c>
-      <c r="G97" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="K125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" t="s">
+        <v>80</v>
+      </c>
+      <c r="F126">
+        <v>50</v>
+      </c>
+      <c r="G126" t="s">
+        <v>55</v>
+      </c>
+      <c r="H126" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" t="s">
+        <v>80</v>
+      </c>
+      <c r="F127">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s">
+        <v>55</v>
+      </c>
+      <c r="H127" t="s">
+        <v>224</v>
+      </c>
+      <c r="K127" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" t="s">
+        <v>80</v>
+      </c>
+      <c r="F128">
+        <v>50</v>
+      </c>
+      <c r="G128" t="s">
+        <v>55</v>
+      </c>
+      <c r="H128" t="s">
+        <v>224</v>
+      </c>
+      <c r="K128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" t="s">
+        <v>111</v>
+      </c>
+      <c r="F129">
+        <v>30</v>
+      </c>
+      <c r="G129" t="s">
+        <v>55</v>
+      </c>
+      <c r="H129" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130" t="s">
+        <v>111</v>
+      </c>
+      <c r="F130">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s">
+        <v>55</v>
+      </c>
+      <c r="H130" t="s">
+        <v>224</v>
+      </c>
+      <c r="K130" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
         <v>26</v>
       </c>
-      <c r="C98" t="s">
-        <v>176</v>
-      </c>
-      <c r="D98" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" t="s">
-        <v>113</v>
-      </c>
-      <c r="F98">
+      <c r="C131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" t="s">
+        <v>96</v>
+      </c>
+      <c r="F131">
+        <v>50</v>
+      </c>
+      <c r="G131" t="s">
+        <v>55</v>
+      </c>
+      <c r="H131" t="s">
+        <v>250</v>
+      </c>
+      <c r="J131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" t="s">
+        <v>112</v>
+      </c>
+      <c r="F132">
         <v>30</v>
       </c>
-      <c r="G98" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" t="s">
-        <v>151</v>
-      </c>
-      <c r="K98" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" t="s">
-        <v>47</v>
-      </c>
-      <c r="C99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" t="s">
-        <v>93</v>
-      </c>
-      <c r="F99">
+      <c r="G132" t="s">
+        <v>55</v>
+      </c>
+      <c r="H132" t="s">
+        <v>250</v>
+      </c>
+      <c r="J132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" t="s">
+        <v>244</v>
+      </c>
+      <c r="D133" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" t="s">
+        <v>112</v>
+      </c>
+      <c r="F133">
         <v>20</v>
       </c>
-      <c r="G99" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" t="s">
-        <v>151</v>
-      </c>
-      <c r="I99">
-        <v>20</v>
-      </c>
-      <c r="J99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" t="s">
-        <v>81</v>
-      </c>
-      <c r="F100">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>9</v>
-      </c>
-      <c r="H100" t="s">
-        <v>150</v>
-      </c>
-      <c r="I100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" t="s">
-        <v>54</v>
-      </c>
-      <c r="D101" t="s">
-        <v>31</v>
-      </c>
-      <c r="E101" t="s">
-        <v>113</v>
-      </c>
-      <c r="F101">
-        <v>80</v>
-      </c>
-      <c r="G101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" t="s">
-        <v>254</v>
-      </c>
-      <c r="D102" t="s">
-        <v>44</v>
-      </c>
-      <c r="E102" t="s">
-        <v>113</v>
-      </c>
-      <c r="F102">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>56</v>
-      </c>
-      <c r="K102" t="s">
+      <c r="G133" t="s">
+        <v>55</v>
+      </c>
+      <c r="K133" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" t="s">
-        <v>81</v>
-      </c>
-      <c r="F103">
-        <v>30</v>
-      </c>
-      <c r="G103" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" t="s">
-        <v>212</v>
-      </c>
-      <c r="K103" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" t="s">
-        <v>232</v>
-      </c>
-      <c r="D104" t="s">
-        <v>157</v>
-      </c>
-      <c r="K104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C105" t="s">
-        <v>158</v>
-      </c>
-      <c r="D105" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C106" t="s">
-        <v>160</v>
-      </c>
-      <c r="D106" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" t="s">
-        <v>36</v>
-      </c>
-      <c r="C107" t="s">
-        <v>161</v>
-      </c>
-      <c r="D107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" t="s">
-        <v>145</v>
-      </c>
-      <c r="C108" t="s">
-        <v>182</v>
-      </c>
-      <c r="D108" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>25</v>
-      </c>
-      <c r="B109" t="s">
-        <v>179</v>
-      </c>
-      <c r="C109" t="s">
-        <v>183</v>
-      </c>
-      <c r="D109" t="s">
-        <v>157</v>
-      </c>
-      <c r="H109" t="s">
-        <v>95</v>
-      </c>
-      <c r="J109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>25</v>
-      </c>
-      <c r="B110" t="s">
-        <v>179</v>
-      </c>
-      <c r="C110" t="s">
-        <v>184</v>
-      </c>
-      <c r="D110" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>25</v>
-      </c>
-      <c r="B111" t="s">
-        <v>179</v>
-      </c>
-      <c r="C111" t="s">
-        <v>185</v>
-      </c>
-      <c r="D111" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>25</v>
-      </c>
-      <c r="B112" t="s">
-        <v>179</v>
-      </c>
-      <c r="C112" t="s">
-        <v>186</v>
-      </c>
-      <c r="D112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>25</v>
-      </c>
-      <c r="B113" t="s">
-        <v>179</v>
-      </c>
-      <c r="C113" t="s">
-        <v>187</v>
-      </c>
-      <c r="D113" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B114" t="s">
-        <v>179</v>
-      </c>
-      <c r="C114" t="s">
-        <v>235</v>
-      </c>
-      <c r="D114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>25</v>
-      </c>
-      <c r="B115" t="s">
-        <v>179</v>
-      </c>
-      <c r="C115" t="s">
-        <v>188</v>
-      </c>
-      <c r="D115" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>25</v>
-      </c>
-      <c r="B116" t="s">
-        <v>179</v>
-      </c>
-      <c r="C116" t="s">
-        <v>189</v>
-      </c>
-      <c r="D116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>25</v>
-      </c>
-      <c r="B117" t="s">
-        <v>179</v>
-      </c>
-      <c r="C117" t="s">
-        <v>190</v>
-      </c>
-      <c r="D117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" t="s">
-        <v>179</v>
-      </c>
-      <c r="C118" t="s">
-        <v>191</v>
-      </c>
-      <c r="D118" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" t="s">
-        <v>192</v>
-      </c>
-      <c r="C119" t="s">
-        <v>193</v>
-      </c>
-      <c r="D119" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>25</v>
-      </c>
-      <c r="B120" t="s">
-        <v>179</v>
-      </c>
-      <c r="C120" t="s">
-        <v>194</v>
-      </c>
-      <c r="D120" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>25</v>
-      </c>
-      <c r="B121" t="s">
-        <v>179</v>
-      </c>
-      <c r="C121" t="s">
-        <v>195</v>
-      </c>
-      <c r="D121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" t="s">
-        <v>179</v>
-      </c>
-      <c r="C122" t="s">
-        <v>196</v>
-      </c>
-      <c r="D122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>25</v>
-      </c>
-      <c r="B123" t="s">
-        <v>179</v>
-      </c>
-      <c r="C123" t="s">
-        <v>197</v>
-      </c>
-      <c r="D123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" t="s">
-        <v>179</v>
-      </c>
-      <c r="C124" t="s">
-        <v>198</v>
-      </c>
-      <c r="D124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B125" t="s">
-        <v>179</v>
-      </c>
-      <c r="C125" t="s">
-        <v>199</v>
-      </c>
-      <c r="D125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>25</v>
-      </c>
-      <c r="B126" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" t="s">
-        <v>200</v>
-      </c>
-      <c r="D126" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" t="s">
-        <v>201</v>
-      </c>
-      <c r="D127" t="s">
-        <v>157</v>
-      </c>
-      <c r="G127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" t="s">
-        <v>179</v>
-      </c>
-      <c r="C128" t="s">
-        <v>202</v>
-      </c>
-      <c r="D128" t="s">
-        <v>157</v>
-      </c>
-      <c r="G128" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>25</v>
-      </c>
-      <c r="B129" t="s">
-        <v>179</v>
-      </c>
-      <c r="C129" t="s">
-        <v>203</v>
-      </c>
-      <c r="D129" t="s">
-        <v>157</v>
-      </c>
-      <c r="G129" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" t="s">
-        <v>179</v>
-      </c>
-      <c r="C130" t="s">
-        <v>204</v>
-      </c>
-      <c r="D130" t="s">
-        <v>157</v>
-      </c>
-      <c r="G130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" t="s">
-        <v>179</v>
-      </c>
-      <c r="C131" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" t="s">
-        <v>157</v>
-      </c>
-      <c r="G131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>25</v>
-      </c>
-      <c r="B132" t="s">
-        <v>179</v>
-      </c>
-      <c r="C132" t="s">
-        <v>206</v>
-      </c>
-      <c r="D132" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>25</v>
-      </c>
-      <c r="B133" t="s">
-        <v>179</v>
-      </c>
-      <c r="C133" t="s">
-        <v>207</v>
-      </c>
-      <c r="D133" t="s">
-        <v>157</v>
-      </c>
-      <c r="G133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>25</v>
       </c>
@@ -7091,120 +7106,132 @@
         <v>26</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E134" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F134">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H134" t="s">
+        <v>224</v>
+      </c>
+      <c r="J134" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="D135" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="E135" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F135">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="K135" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="D136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E136" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F136">
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>56</v>
-      </c>
-      <c r="K136" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="C137" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="D137" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E137" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F137">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G137" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D138" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="E138" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F138">
         <v>50</v>
       </c>
       <c r="G138" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="H138" t="s">
+        <v>221</v>
+      </c>
+      <c r="I138">
+        <v>20</v>
       </c>
       <c r="K138" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -7212,45 +7239,51 @@
         <v>26</v>
       </c>
       <c r="C139" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="D139" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F139">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G139" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>25</v>
       </c>
       <c r="B140" t="s">
+        <v>233</v>
+      </c>
+      <c r="C140" t="s">
+        <v>234</v>
+      </c>
+      <c r="D140" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" t="s">
+        <v>80</v>
+      </c>
+      <c r="F140">
+        <v>50</v>
+      </c>
+      <c r="G140" t="s">
+        <v>55</v>
+      </c>
+      <c r="K140" t="s">
         <v>145</v>
       </c>
-      <c r="C140" t="s">
-        <v>215</v>
-      </c>
-      <c r="D140" t="s">
-        <v>134</v>
-      </c>
-      <c r="E140" t="s">
-        <v>81</v>
-      </c>
-      <c r="F140">
-        <v>80</v>
-      </c>
-      <c r="G140" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>25</v>
       </c>
@@ -7258,163 +7291,128 @@
         <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E141" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F141">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G141" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="C142" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" t="s">
+        <v>111</v>
+      </c>
+      <c r="F142">
+        <v>80</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" t="s">
+        <v>221</v>
+      </c>
+      <c r="I142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" t="s">
         <v>236</v>
       </c>
-      <c r="D142" t="s">
-        <v>157</v>
-      </c>
-      <c r="E142" t="s">
-        <v>113</v>
-      </c>
-      <c r="F142">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>25</v>
-      </c>
-      <c r="B143" t="s">
-        <v>145</v>
-      </c>
-      <c r="C143" t="s">
-        <v>219</v>
-      </c>
       <c r="D143" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E143" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F143">
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>56</v>
-      </c>
-      <c r="J143" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>25</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="D144" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E144" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F144">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>56</v>
       </c>
-      <c r="H144" t="s">
-        <v>230</v>
-      </c>
-      <c r="J144" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>25</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="D145" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E145" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F145">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G145" t="s">
-        <v>56</v>
-      </c>
-      <c r="J145" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>25</v>
-      </c>
-      <c r="B146" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" t="s">
-        <v>64</v>
-      </c>
-      <c r="D146" t="s">
-        <v>42</v>
-      </c>
-      <c r="E146" t="s">
-        <v>81</v>
-      </c>
-      <c r="F146">
-        <v>80</v>
-      </c>
-      <c r="G146" t="s">
-        <v>56</v>
-      </c>
-      <c r="H146" t="s">
-        <v>227</v>
-      </c>
-      <c r="I146">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L146" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
+  <autoFilter ref="A1:L145" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
     <filterColumn colId="6">
       <filters>
         <filter val="2023 Q3"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:L146">
-      <sortCondition ref="C1:C146"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:L145">
+      <sortCondition ref="D1:D145"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9D5ED0-E70D-40C6-A1C4-4D96031E3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029CF8E-39B7-4460-9E01-FF762E78EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <sheet name="GITHUB_EPICS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$157</definedName>
     <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$F$2:$F$199</definedName>
     <definedName name="EPICS_PERIOD">GITHUB_EPICS!$G$2:$G$199</definedName>
     <definedName name="EPICS_STATUS">GITHUB_EPICS!$D$2:$D$199</definedName>
     <definedName name="EPICS_TYPE">GITHUB_EPICS!$E$2:$E$199</definedName>
-    <definedName name="PERIODS">Parameters!$A$6:$A$44</definedName>
-    <definedName name="PLANNING">Parameters!$A$6:$J$10</definedName>
+    <definedName name="PERIODS">Parameters!$A$6:$A$46</definedName>
+    <definedName name="PLANNING">Parameters!$A$6:$J$12</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="283">
   <si>
     <t>Capacity planning for Alkemio</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Landing page: refinements + maintainability</t>
   </si>
   <si>
-    <t>QA Test suites catchup</t>
-  </si>
-  <si>
     <t>Notifications dashboard</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>Operations: Platform monitoring</t>
   </si>
   <si>
-    <t>Reporting: Platform usage insights</t>
-  </si>
-  <si>
     <t>Data Integrity: v2</t>
   </si>
   <si>
@@ -580,9 +574,6 @@
     <t>I: Analytics via connectivity graph v1</t>
   </si>
   <si>
-    <t>Platform navigation</t>
-  </si>
-  <si>
     <t>I: Journey structure refresh</t>
   </si>
   <si>
@@ -661,18 +652,12 @@
     <t>Usage of Alkemio platform identities for Matrix</t>
   </si>
   <si>
-    <t>Innovation Library for users</t>
-  </si>
-  <si>
     <t>Analytics + monitoring: Dedicated elastic cluster</t>
   </si>
   <si>
     <t>Note: update to have each period start / end adjustable</t>
   </si>
   <si>
-    <t>2023-05-23</t>
-  </si>
-  <si>
     <t>2023-06-06</t>
   </si>
   <si>
@@ -694,9 +679,6 @@
     <t>Refresh preferences for notifications</t>
   </si>
   <si>
-    <t>Generative AI first use case</t>
-  </si>
-  <si>
     <t>Time Period Start</t>
   </si>
   <si>
@@ -721,12 +703,6 @@
     <t>TNO, UWV</t>
   </si>
   <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>DSIH</t>
-  </si>
-  <si>
     <t>Sharing metrics of Space activity with leads</t>
   </si>
   <si>
@@ -739,9 +715,6 @@
     <t>I: Innovation Hubs</t>
   </si>
   <si>
-    <t>Client: Direct entity access</t>
-  </si>
-  <si>
     <t>Update of Journey settings tab: v1</t>
   </si>
   <si>
@@ -814,16 +787,115 @@
     <t>TIP, UWV</t>
   </si>
   <si>
-    <t>Reporting: sharing of reports, additional reports</t>
-  </si>
-  <si>
     <t>Innovation Flow: Definition to include goal/checklist/callouts</t>
   </si>
   <si>
     <t>Community: Multiple Lead Organizations on Space, Admin as Role</t>
   </si>
   <si>
-    <t>Client: Reduce client load times</t>
+    <t xml:space="preserve">QA: Improved Test Infrastructure </t>
+  </si>
+  <si>
+    <t>Reporting: Additional extensions</t>
+  </si>
+  <si>
+    <t>Spaces central + jobs to be done</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>InnovationFlow Templates</t>
+  </si>
+  <si>
+    <t>UWV, Digicampus, Novum, VNG</t>
+  </si>
+  <si>
+    <t>Generative AI: guidance demonstrator</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>Epic,Product Discussion,Refinement</t>
+  </si>
+  <si>
+    <t>Client: Simplified logic via streamlined server api</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>Svetoslav Petkov,user</t>
+  </si>
+  <si>
+    <t>Epic,Roadmap Discussion,Product Discussion</t>
+  </si>
+  <si>
+    <t>Defined</t>
+  </si>
+  <si>
+    <t>UWV, VNG, Digicampus</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>Guidance: general availability</t>
+  </si>
+  <si>
+    <t>Reporting: (automated) sharing of reports , read only access</t>
+  </si>
+  <si>
+    <t>Client: Optimize user responsiveness</t>
+  </si>
+  <si>
+    <t>Callout type: Poll</t>
+  </si>
+  <si>
+    <t>VNG, Data Autonomy</t>
+  </si>
+  <si>
+    <t>Default callouts extended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidance: beta testing with Alkemio community </t>
+  </si>
+  <si>
+    <t>Switch to Vite from Webpack</t>
+  </si>
+  <si>
+    <t>Client: Technical debt, responsiveness</t>
+  </si>
+  <si>
+    <t>Callout templates</t>
+  </si>
+  <si>
+    <t>Community Invitations: Allowing inviting many (external) users at once</t>
+  </si>
+  <si>
+    <t>Callouts UX refinements</t>
+  </si>
+  <si>
+    <t>Callouts: refreshed create flow</t>
+  </si>
+  <si>
+    <t>Journey settings v2: Space platform info, challenge, opportunity</t>
+  </si>
+  <si>
+    <t>Community refinements: challenge invitations,  membership policy</t>
+  </si>
+  <si>
+    <t>2024 Q1</t>
+  </si>
+  <si>
+    <t>2024 Q2</t>
+  </si>
+  <si>
+    <t>2024 H2</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1012,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -970,6 +1042,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in 20% - Accent6" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1204,9 +1278,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Capacity!$A$5:$A$9</c:f>
+              <c:f>Capacity!$A$5:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2023 Q1</c:v>
                 </c:pt>
@@ -1220,30 +1294,42 @@
                   <c:v>2023 Q4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2024</c:v>
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024 H2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$B$5:$B$9</c:f>
+              <c:f>Capacity!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>340</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>950</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1315,9 +1401,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Capacity!$A$5:$A$9</c:f>
+              <c:f>Capacity!$A$5:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2023 Q1</c:v>
                 </c:pt>
@@ -1331,17 +1417,23 @@
                   <c:v>2023 Q4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2024</c:v>
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024 H2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Capacity!$C$5:$C$9</c:f>
+              <c:f>Capacity!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1349,13 +1441,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>720</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>650</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>2607.1428571428573</c:v>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1307.1428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,10 +1721,10 @@
                   <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,7 +1795,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,10 +1934,10 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,10 +2007,10 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>310</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,13 +2148,13 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>360</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,10 +2224,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,14 +2985,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>151562</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>26770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2923,13 +3021,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2959,8 +3057,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A4:M9" totalsRowShown="0">
-  <autoFilter ref="A4:M9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A4:M11" totalsRowShown="0">
+  <autoFilter ref="A4:M11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Delivery"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Planned" dataDxfId="7">
@@ -3301,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3339,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>3</v>
@@ -3351,10 +3449,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -3426,26 +3524,26 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7:E10" si="0">(C7-B7)/7/2</f>
+        <f t="shared" ref="E7:E12" si="0">(C7-B7)/7/2</f>
         <v>6</v>
       </c>
       <c r="F7" s="6">
         <v>6</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" ref="G7:G10" si="1">E7-F7</f>
+        <f t="shared" ref="G7:G12" si="1">E7-F7</f>
         <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>200</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I10" si="2">H7*G7*D7</f>
+        <f t="shared" ref="I7:I12" si="2">H7*G7*D7</f>
         <v>0</v>
       </c>
       <c r="J7" s="2"/>
       <c r="M7" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -3467,18 +3565,18 @@
         <v>7</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H8" s="7">
         <v>200</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="2"/>
-        <v>720</v>
+        <v>180</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -3487,7 +3585,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" ref="B9:B10" si="3">C8</f>
+        <f t="shared" ref="B9" si="3">C8</f>
         <v>45194</v>
       </c>
       <c r="C9" s="4">
@@ -3517,36 +3615,104 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>2024</v>
+      <c r="A10" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B10:B11" si="4">C9</f>
         <v>45292</v>
       </c>
       <c r="C10" s="4">
-        <v>45657</v>
+        <v>45383</v>
       </c>
       <c r="D10" s="5">
         <v>0.5</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>26.071428571428573</v>
-      </c>
-      <c r="F10" s="6"/>
+        <f t="shared" ref="E10:E11" si="5">(C10-B10)/7/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>26.071428571428573</v>
+        <f t="shared" ref="G10:G11" si="6">E10-F10</f>
+        <v>6</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
       </c>
       <c r="I10" s="7">
+        <f t="shared" ref="I10:I11" si="7">H10*G10*D10</f>
+        <v>600</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="4"/>
+        <v>45383</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <v>200</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="4">
+        <f>C11</f>
+        <v>45474</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>13.071428571428571</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>13.071428571428571</v>
+      </c>
+      <c r="H12" s="7">
+        <v>200</v>
+      </c>
+      <c r="I12" s="7">
         <f t="shared" si="2"/>
-        <v>2607.1428571428573</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>1307.1428571428571</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3569,10 +3735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:M9"/>
+  <dimension ref="A4:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3599,10 +3765,10 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
@@ -3614,7 +3780,7 @@
         <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
         <v>81</v>
@@ -3685,7 +3851,7 @@
       </c>
       <c r="B6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="C6" s="9">
         <f>Parameters!I7</f>
@@ -3693,11 +3859,11 @@
       </c>
       <c r="D6">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "Done")</f>
-        <v>460</v>
+        <v>640</v>
       </c>
       <c r="E6" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -3725,7 +3891,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="M6">
         <f>Table3[[#This Row],[Total]]-SUM(F6:L6)</f>
@@ -3739,23 +3905,23 @@
       </c>
       <c r="B7">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="C7" s="9">
         <f>Parameters!I8</f>
-        <v>720</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "Done")</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="E7" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -3767,11 +3933,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -3779,11 +3945,11 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="M7">
         <f>Table3[[#This Row],[Total]]-SUM(F7:L7)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -3793,7 +3959,7 @@
       </c>
       <c r="B8">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>530</v>
+        <v>1010</v>
       </c>
       <c r="C8" s="9">
         <f>Parameters!I9</f>
@@ -3805,15 +3971,15 @@
       </c>
       <c r="E8" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>530</v>
+        <v>1010</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -3821,11 +3987,11 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -3833,64 +3999,170 @@
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="M8">
         <f>Table3[[#This Row],[Total]]-SUM(F8:L8)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <f>Parameters!A10</f>
-        <v>2024</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="15">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_STATUS, "&lt;&gt;Done")</f>
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <f>Parameters!I10</f>
-        <v>2607.1428571428573</v>
-      </c>
-      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="D9" s="15">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_STATUS, "Done")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="16">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="15">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, F$4)</f>
         <v>0</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:L9" si="1">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+      <c r="G9" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, J$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, K$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, L$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <f>Table3[[#This Row],[Total]]-SUM(F9:L9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <f>Parameters!I10</f>
+        <v>600</v>
+      </c>
+      <c r="D10" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_STATUS, "Done")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, J$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, K$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, L$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <f>Table3[[#This Row],[Total]]-SUM(F10:L10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="str">
+        <f>Parameters!A12</f>
+        <v>2024 H2</v>
+      </c>
+      <c r="B11">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>Parameters!I12</f>
+        <v>1307.1428571428571</v>
+      </c>
+      <c r="D11">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_STATUS, "Done")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_TYPE, F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:L11" si="1">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9">
-        <f>Table3[[#This Row],[Total]]-SUM(F9:L9)</f>
+      <c r="M11">
+        <f>Table3[[#This Row],[Total]]-SUM(F11:L11)</f>
         <v>0</v>
       </c>
     </row>
@@ -3907,10 +4179,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3963,7 +4235,7 @@
         <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -3974,7 +4246,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -3989,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -4009,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -4029,7 +4301,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
@@ -4038,7 +4310,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -4163,13 +4435,13 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -4181,7 +4453,7 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -4198,7 +4470,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -4227,13 +4499,13 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -4259,7 +4531,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -4323,7 +4595,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -4390,7 +4662,7 @@
         <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -4407,7 +4679,7 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -4424,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>88</v>
@@ -4442,7 +4714,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I17">
         <v>30</v>
@@ -4465,7 +4737,7 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -4474,7 +4746,7 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -4488,13 +4760,13 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -4514,10 +4786,10 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
@@ -4531,13 +4803,13 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -4580,13 +4852,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -4603,10 +4875,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>96</v>
@@ -4629,10 +4901,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>96</v>
@@ -4655,19 +4927,19 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F26">
         <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -4678,13 +4950,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27">
         <v>50</v>
@@ -4698,39 +4970,39 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
       </c>
       <c r="G28" t="s">
         <v>56</v>
       </c>
+      <c r="K28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
         <v>56</v>
@@ -4741,19 +5013,16 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
         <v>56</v>
@@ -4761,22 +5030,22 @@
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>96</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
         <v>56</v>
@@ -4787,40 +5056,43 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>110</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
       </c>
       <c r="G32" t="s">
         <v>56</v>
       </c>
-      <c r="K32" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
       </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
       <c r="G33" t="s">
         <v>56</v>
       </c>
@@ -4830,16 +5102,16 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F34">
         <v>30</v>
@@ -4847,8 +5119,14 @@
       <c r="G34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -4856,22 +5134,19 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
         <v>80</v>
       </c>
-      <c r="F35">
-        <v>30</v>
-      </c>
       <c r="G35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" t="s">
-        <v>221</v>
+        <v>56</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -4879,19 +5154,16 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>56</v>
@@ -4902,22 +5174,25 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F37">
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>247</v>
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -4925,22 +5200,22 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38">
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -4948,28 +5223,22 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F39">
         <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
-      </c>
-      <c r="H39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -4977,22 +5246,25 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F40">
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>247</v>
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5000,16 +5272,22 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5017,22 +5295,22 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F42">
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5043,22 +5321,25 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
-      </c>
-      <c r="K43" t="s">
-        <v>29</v>
+        <v>238</v>
+      </c>
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5066,22 +5347,25 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
         <v>130</v>
       </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -5089,51 +5373,36 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" t="s">
-        <v>221</v>
-      </c>
-      <c r="I45">
-        <v>20</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>247</v>
-      </c>
-      <c r="J46" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5144,16 +5413,22 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>109</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="K47" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5164,42 +5439,39 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
         <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J49" t="s">
         <v>51</v>
@@ -5213,19 +5485,16 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5233,22 +5502,22 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5259,22 +5528,22 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F52">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
-      </c>
-      <c r="K52" t="s">
-        <v>29</v>
+        <v>238</v>
+      </c>
+      <c r="J52" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5285,19 +5554,19 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
         <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>110</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
-      </c>
-      <c r="K53" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5305,25 +5574,22 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>247</v>
-      </c>
-      <c r="J54" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5334,19 +5600,22 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="K55" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5354,28 +5623,22 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
         <v>80</v>
       </c>
-      <c r="F56">
-        <v>30</v>
-      </c>
       <c r="G56" t="s">
-        <v>247</v>
-      </c>
-      <c r="J56" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="K56" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5386,22 +5649,22 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>247</v>
-      </c>
-      <c r="K57" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5412,22 +5675,19 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
         <v>92</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
-      </c>
-      <c r="J58" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5435,74 +5695,80 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F59">
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="K59" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F60">
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>247</v>
-      </c>
-      <c r="J60" t="s">
-        <v>51</v>
+        <v>238</v>
+      </c>
+      <c r="K60" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F61">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="J61" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5510,80 +5776,74 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F62">
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="J62" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F63">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
-      </c>
-      <c r="I63">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="J63" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F64">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
-      </c>
-      <c r="J64" t="s">
-        <v>34</v>
-      </c>
-      <c r="K64" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5591,51 +5851,51 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F65">
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
-      </c>
-      <c r="J65" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F66">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5643,22 +5903,28 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
         <v>80</v>
       </c>
       <c r="F67">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="J67" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5666,45 +5932,51 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="J68" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="E69" t="s">
+        <v>92</v>
       </c>
       <c r="F69">
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
-      </c>
-      <c r="K69" t="s">
-        <v>168</v>
+        <v>238</v>
+      </c>
+      <c r="J69" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5712,22 +5984,22 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
-      </c>
-      <c r="K70" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5735,25 +6007,25 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71">
-        <v>20</v>
-      </c>
-      <c r="J71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -5761,22 +6033,19 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="F72">
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" t="s">
-        <v>224</v>
+        <v>238</v>
+      </c>
+      <c r="K72" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5784,28 +6053,25 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
-      </c>
-      <c r="F73">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="K73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -5813,7 +6079,7 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D74" t="s">
         <v>41</v>
@@ -5822,16 +6088,10 @@
         <v>96</v>
       </c>
       <c r="F74">
-        <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>55</v>
-      </c>
-      <c r="H74" t="s">
-        <v>224</v>
-      </c>
-      <c r="I74">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="J74" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5839,22 +6099,25 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F75">
-        <v>80</v>
-      </c>
-      <c r="K75" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5865,22 +6128,19 @@
         <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
         <v>80</v>
       </c>
       <c r="F76">
-        <v>50</v>
-      </c>
-      <c r="G76" t="s">
-        <v>10</v>
-      </c>
-      <c r="J76" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="K76" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5888,16 +6148,16 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F77">
         <v>50</v>
@@ -5905,11 +6165,8 @@
       <c r="G77" t="s">
         <v>10</v>
       </c>
-      <c r="H77" t="s">
-        <v>208</v>
-      </c>
-      <c r="I77">
-        <v>15</v>
+      <c r="J77" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5920,28 +6177,25 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F78">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s">
         <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="I78">
-        <v>30</v>
-      </c>
-      <c r="J78" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -5955,7 +6209,7 @@
         <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
         <v>40</v>
@@ -5967,7 +6221,7 @@
         <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I79">
         <v>30</v>
@@ -6071,7 +6325,7 @@
         <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83">
         <v>30</v>
@@ -6091,10 +6345,10 @@
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
         <v>80</v>
@@ -6134,16 +6388,16 @@
         <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F86">
         <v>80</v>
@@ -6152,7 +6406,7 @@
         <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I86">
         <v>80</v>
@@ -6169,13 +6423,13 @@
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F87">
         <v>20</v>
@@ -6184,7 +6438,7 @@
         <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6195,13 +6449,13 @@
         <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
         <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F88">
         <v>30</v>
@@ -6210,10 +6464,10 @@
         <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6239,7 +6493,7 @@
         <v>10</v>
       </c>
       <c r="H89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I89">
         <v>20</v>
@@ -6250,7 +6504,7 @@
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -6271,7 +6525,7 @@
         <v>9</v>
       </c>
       <c r="H90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I90">
         <v>10</v>
@@ -6291,7 +6545,7 @@
         <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F91">
         <v>80</v>
@@ -6308,28 +6562,13 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
-      </c>
-      <c r="E92" t="s">
-        <v>111</v>
-      </c>
-      <c r="F92">
-        <v>80</v>
-      </c>
-      <c r="G92" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" t="s">
-        <v>221</v>
-      </c>
-      <c r="I92">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="K92" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6337,31 +6576,13 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
-      </c>
-      <c r="E93" t="s">
-        <v>80</v>
-      </c>
-      <c r="F93">
-        <v>50</v>
-      </c>
-      <c r="G93" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" t="s">
-        <v>221</v>
-      </c>
-      <c r="I93">
-        <v>20</v>
-      </c>
-      <c r="K93" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6369,28 +6590,13 @@
         <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" t="s">
-        <v>80</v>
-      </c>
-      <c r="F94">
-        <v>30</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" t="s">
-        <v>207</v>
-      </c>
-      <c r="K94" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6398,16 +6604,19 @@
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="D95" t="s">
-        <v>155</v>
-      </c>
-      <c r="K95" t="s">
-        <v>29</v>
+        <v>153</v>
+      </c>
+      <c r="H95" t="s">
+        <v>94</v>
+      </c>
+      <c r="J95" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6415,243 +6624,237 @@
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
-      </c>
-      <c r="H100" t="s">
-        <v>94</v>
-      </c>
-      <c r="J100" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D103" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D104" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D107" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6659,13 +6862,16 @@
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C113" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D113" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="G113" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6673,13 +6879,16 @@
         <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="G114" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6687,13 +6896,16 @@
         <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C115" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D115" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="G115" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6701,13 +6913,16 @@
         <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D116" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="G116" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6715,13 +6930,16 @@
         <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C117" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D117" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="G117" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6729,16 +6947,16 @@
         <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C118" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G118" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6746,16 +6964,16 @@
         <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G119" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6763,50 +6981,86 @@
         <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>43</v>
+      </c>
+      <c r="F120">
+        <v>50</v>
       </c>
       <c r="G120" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H120" t="s">
+        <v>251</v>
+      </c>
+      <c r="K120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>41</v>
+      </c>
+      <c r="E121" t="s">
+        <v>110</v>
+      </c>
+      <c r="F121">
+        <v>50</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="H121" t="s">
+        <v>256</v>
+      </c>
+      <c r="I121">
+        <v>20</v>
+      </c>
+      <c r="K121" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C122" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="D122" t="s">
-        <v>155</v>
+        <v>41</v>
+      </c>
+      <c r="E122" t="s">
+        <v>80</v>
+      </c>
+      <c r="F122">
+        <v>80</v>
       </c>
       <c r="G122" t="s">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="H122" t="s">
+        <v>259</v>
+      </c>
+      <c r="I122">
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6814,33 +7068,54 @@
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="D123" t="s">
-        <v>155</v>
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>109</v>
+      </c>
+      <c r="F123">
+        <v>80</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>241</v>
+      </c>
+      <c r="I123">
+        <v>30</v>
+      </c>
+      <c r="J123" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="D124" t="s">
-        <v>155</v>
+        <v>43</v>
+      </c>
+      <c r="E124" t="s">
+        <v>110</v>
+      </c>
+      <c r="F124">
+        <v>50</v>
       </c>
       <c r="G124" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
@@ -6848,16 +7123,16 @@
         <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="C125" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="D125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E125" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F125">
         <v>50</v>
@@ -6866,13 +7141,10 @@
         <v>55</v>
       </c>
       <c r="H125" t="s">
-        <v>221</v>
-      </c>
-      <c r="I125">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="K125" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
@@ -6880,16 +7152,16 @@
         <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="D126" t="s">
         <v>43</v>
       </c>
       <c r="E126" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F126">
         <v>50</v>
@@ -6898,7 +7170,10 @@
         <v>55</v>
       </c>
       <c r="H126" t="s">
-        <v>224</v>
+        <v>256</v>
+      </c>
+      <c r="J126" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
@@ -6906,28 +7181,28 @@
         <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="D127" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F127">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H127" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="K127" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
@@ -6935,28 +7210,28 @@
         <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="C128" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="D128" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="E128" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F128">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>55</v>
       </c>
       <c r="H128" t="s">
-        <v>224</v>
-      </c>
-      <c r="K128" t="s">
-        <v>146</v>
+        <v>256</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
@@ -6964,25 +7239,25 @@
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="C129" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="D129" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="F129">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G129" t="s">
         <v>55</v>
       </c>
       <c r="H129" t="s">
-        <v>250</v>
+        <v>259</v>
+      </c>
+      <c r="K129" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
@@ -6990,28 +7265,25 @@
         <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D130" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F130">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G130" t="s">
         <v>55</v>
       </c>
       <c r="H130" t="s">
-        <v>224</v>
-      </c>
-      <c r="K130" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
@@ -7019,28 +7291,28 @@
         <v>25</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="D131" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F131">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>55</v>
       </c>
       <c r="H131" t="s">
-        <v>250</v>
-      </c>
-      <c r="J131" t="s">
-        <v>51</v>
+        <v>241</v>
+      </c>
+      <c r="K131" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
@@ -7048,54 +7320,57 @@
         <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="D132" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F132">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s">
         <v>55</v>
       </c>
       <c r="H132" t="s">
-        <v>250</v>
-      </c>
-      <c r="J132" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C133" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="D133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E133" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F133">
+        <v>50</v>
+      </c>
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" t="s">
+        <v>259</v>
+      </c>
+      <c r="I133">
         <v>20</v>
       </c>
-      <c r="G133" t="s">
-        <v>55</v>
-      </c>
       <c r="K133" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
@@ -7103,16 +7378,16 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="C134" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="E134" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F134">
         <v>30</v>
@@ -7121,36 +7396,42 @@
         <v>55</v>
       </c>
       <c r="H134" t="s">
-        <v>224</v>
-      </c>
-      <c r="J134" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="K134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F135">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G135" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="H135" t="s">
+        <v>259</v>
+      </c>
+      <c r="I135">
+        <v>20</v>
       </c>
       <c r="K135" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
@@ -7158,16 +7439,16 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C136" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F136">
         <v>80</v>
@@ -7175,22 +7456,31 @@
       <c r="G136" t="s">
         <v>55</v>
       </c>
+      <c r="H136" t="s">
+        <v>259</v>
+      </c>
+      <c r="I136">
+        <v>10</v>
+      </c>
+      <c r="J136" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F137">
         <v>50</v>
@@ -7198,37 +7488,40 @@
       <c r="G137" t="s">
         <v>55</v>
       </c>
+      <c r="H137" t="s">
+        <v>259</v>
+      </c>
+      <c r="I137">
+        <v>20</v>
+      </c>
+      <c r="K137" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="D138" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E138" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F138">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G138" t="s">
         <v>55</v>
       </c>
       <c r="H138" t="s">
-        <v>221</v>
-      </c>
-      <c r="I138">
-        <v>20</v>
-      </c>
-      <c r="K138" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -7236,25 +7529,16 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="C139" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="D139" t="s">
-        <v>132</v>
-      </c>
-      <c r="E139" t="s">
-        <v>96</v>
-      </c>
-      <c r="F139">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>56</v>
-      </c>
-      <c r="I139">
-        <v>10</v>
+        <v>153</v>
+      </c>
+      <c r="H139" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
@@ -7262,28 +7546,28 @@
         <v>25</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="E140" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140">
         <v>80</v>
-      </c>
-      <c r="F140">
-        <v>50</v>
       </c>
       <c r="G140" t="s">
         <v>55</v>
       </c>
-      <c r="K140" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H140" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>25</v>
       </c>
@@ -7291,19 +7575,22 @@
         <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D141" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E141" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F141">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G141" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I141">
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -7314,13 +7601,13 @@
         <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E142" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F142">
         <v>80</v>
@@ -7329,24 +7616,24 @@
         <v>10</v>
       </c>
       <c r="H142" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I142">
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="D143" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E143" t="s">
         <v>96</v>
@@ -7355,64 +7642,328 @@
         <v>30</v>
       </c>
       <c r="G143" t="s">
+        <v>56</v>
+      </c>
+      <c r="J143" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" t="s">
+        <v>272</v>
+      </c>
+      <c r="D144" t="s">
+        <v>31</v>
+      </c>
+      <c r="E144" t="s">
+        <v>81</v>
+      </c>
+      <c r="F144">
+        <v>50</v>
+      </c>
+      <c r="G144" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>25</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="H144" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" t="s">
+        <v>268</v>
+      </c>
+      <c r="D145" t="s">
+        <v>153</v>
+      </c>
+      <c r="G145" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>141</v>
+      </c>
+      <c r="C146" t="s">
+        <v>205</v>
+      </c>
+      <c r="D146" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" t="s">
+        <v>110</v>
+      </c>
+      <c r="F146">
+        <v>80</v>
+      </c>
+      <c r="G146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" t="s">
+        <v>229</v>
+      </c>
+      <c r="C147" t="s">
+        <v>275</v>
+      </c>
+      <c r="D147" t="s">
+        <v>153</v>
+      </c>
+      <c r="E147" t="s">
+        <v>109</v>
+      </c>
+      <c r="G147" t="s">
+        <v>56</v>
+      </c>
+      <c r="K147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" t="s">
+        <v>153</v>
+      </c>
+      <c r="E148" t="s">
+        <v>96</v>
+      </c>
+      <c r="F148">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>25</v>
+      </c>
+      <c r="B149" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" t="s">
+        <v>267</v>
+      </c>
+      <c r="D149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E149" t="s">
+        <v>110</v>
+      </c>
+      <c r="F149">
+        <v>50</v>
+      </c>
+      <c r="G149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" t="s">
+        <v>271</v>
+      </c>
+      <c r="D150" t="s">
+        <v>153</v>
+      </c>
+      <c r="H150" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" t="s">
+        <v>276</v>
+      </c>
+      <c r="D151" t="s">
+        <v>153</v>
+      </c>
+      <c r="F151">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s">
+        <v>55</v>
+      </c>
+      <c r="J151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" t="s">
+        <v>273</v>
+      </c>
+      <c r="D152" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152">
+        <v>50</v>
+      </c>
+      <c r="G152" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" t="s">
+        <v>277</v>
+      </c>
+      <c r="D153" t="s">
+        <v>153</v>
+      </c>
+      <c r="F153">
+        <v>30</v>
+      </c>
+      <c r="G153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" t="s">
+        <v>257</v>
+      </c>
+      <c r="C154" t="s">
+        <v>244</v>
+      </c>
+      <c r="D154" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" t="s">
+        <v>80</v>
+      </c>
+      <c r="F154">
+        <v>50</v>
+      </c>
+      <c r="G154" t="s">
+        <v>56</v>
+      </c>
+      <c r="H154" t="s">
+        <v>256</v>
+      </c>
+      <c r="K154" t="s">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
-        <v>255</v>
-      </c>
-      <c r="D144" t="s">
-        <v>155</v>
-      </c>
-      <c r="E144" t="s">
-        <v>96</v>
-      </c>
-      <c r="F144">
-        <v>30</v>
-      </c>
-      <c r="G144" t="s">
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" t="s">
+        <v>250</v>
+      </c>
+      <c r="D155" t="s">
+        <v>153</v>
+      </c>
+      <c r="E155" t="s">
+        <v>80</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>25</v>
-      </c>
-      <c r="B145" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" t="s">
-        <v>258</v>
-      </c>
-      <c r="D145" t="s">
-        <v>155</v>
-      </c>
-      <c r="E145" t="s">
-        <v>81</v>
-      </c>
-      <c r="F145">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" t="s">
+        <v>153</v>
+      </c>
+      <c r="F156">
         <v>50</v>
       </c>
-      <c r="G145" t="s">
-        <v>55</v>
+      <c r="G156" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157" t="s">
+        <v>141</v>
+      </c>
+      <c r="C157" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" t="s">
+        <v>153</v>
+      </c>
+      <c r="G157" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L145" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
+  <autoFilter ref="A1:L157" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
     <filterColumn colId="6">
       <filters>
         <filter val="2023 Q3"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:L145">
-      <sortCondition ref="D1:D145"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A121:L153">
+      <sortCondition ref="D1:D157"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/capacity-planning-template.xlsx
+++ b/capacity-planning-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil\Documents\dev-alkemio\github-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029CF8E-39B7-4460-9E01-FF762E78EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609E261-56B9-4928-92B4-68FE7CFD6EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="GITHUB_EPICS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$L$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GITHUB_EPICS!$A$1:$M$179</definedName>
     <definedName name="EPICS_ESTIMATE">GITHUB_EPICS!$F$2:$F$199</definedName>
     <definedName name="EPICS_PERIOD">GITHUB_EPICS!$G$2:$G$199</definedName>
     <definedName name="EPICS_STATUS">GITHUB_EPICS!$D$2:$D$199</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="311">
   <si>
     <t>Capacity planning for Alkemio</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Error Handling: Presentation improvements</t>
   </si>
   <si>
-    <t>Whiteboard: interactive multi-user editing</t>
-  </si>
-  <si>
     <t>Icebox</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>epic,client</t>
   </si>
   <si>
-    <t>Landing page V1.2</t>
-  </si>
-  <si>
     <t>Epic,Roadmap Discussion</t>
   </si>
   <si>
@@ -511,18 +505,12 @@
     <t>New</t>
   </si>
   <si>
-    <t xml:space="preserve">Definitions for URLs </t>
-  </si>
-  <si>
     <t>Client errors tracability</t>
   </si>
   <si>
     <t>Multiple email support</t>
   </si>
   <si>
-    <t>Innovation Flow Visual Refresh</t>
-  </si>
-  <si>
     <t>Elaborated</t>
   </si>
   <si>
@@ -628,27 +616,6 @@
     <t>I: Smart search</t>
   </si>
   <si>
-    <t>I: Whiteboards to generate content</t>
-  </si>
-  <si>
-    <t>I: My Activity Feed</t>
-  </si>
-  <si>
-    <t>I: Community Inclusion Tools</t>
-  </si>
-  <si>
-    <t>I: Connecting on Platform</t>
-  </si>
-  <si>
-    <t>I: Usability/User experience refinement?</t>
-  </si>
-  <si>
-    <t>I: Landing page</t>
-  </si>
-  <si>
-    <t>I: Engaging the community</t>
-  </si>
-  <si>
     <t>Usage of Alkemio platform identities for Matrix</t>
   </si>
   <si>
@@ -664,18 +631,12 @@
     <t>Valentin Yanakiev,Denise Larsson</t>
   </si>
   <si>
-    <t>My home page with activity</t>
-  </si>
-  <si>
     <t>Innovation Hubs: Specified Hubs, Hub visibility</t>
   </si>
   <si>
     <t>New Space language preferences</t>
   </si>
   <si>
-    <t>Activity tracking: deletion, additional entry types</t>
-  </si>
-  <si>
     <t>Refresh preferences for notifications</t>
   </si>
   <si>
@@ -721,9 +682,6 @@
     <t>UWV, GovTechNL, DSIH</t>
   </si>
   <si>
-    <t>Epic,A: Platform,Roadmap Discussion</t>
-  </si>
-  <si>
     <t>Innovation Hubs: Rounding out Functionality</t>
   </si>
   <si>
@@ -739,18 +697,12 @@
     <t>Epic,Product Discussion</t>
   </si>
   <si>
-    <t>Administering Journeys: simplification</t>
-  </si>
-  <si>
     <t>Innovation Library: Management, InnovationPack extensions</t>
   </si>
   <si>
     <t>Quota / resource management: Documents</t>
   </si>
   <si>
-    <t>UX Refinements - Round 5</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -763,9 +715,6 @@
     <t>Innovation Flow usage in Challenges</t>
   </si>
   <si>
-    <t>2024 Q1 or later</t>
-  </si>
-  <si>
     <t>Invite Users to Space</t>
   </si>
   <si>
@@ -778,9 +727,6 @@
     <t>Reporting: Additional reports, data extensions, operations</t>
   </si>
   <si>
-    <t>Epic,Refinement</t>
-  </si>
-  <si>
     <t>Challenge/Opportunity refresh</t>
   </si>
   <si>
@@ -796,15 +742,6 @@
     <t xml:space="preserve">QA: Improved Test Infrastructure </t>
   </si>
   <si>
-    <t>Reporting: Additional extensions</t>
-  </si>
-  <si>
-    <t>Spaces central + jobs to be done</t>
-  </si>
-  <si>
-    <t>2023-09-12</t>
-  </si>
-  <si>
     <t>InnovationFlow Templates</t>
   </si>
   <si>
@@ -844,9 +781,6 @@
     <t>2023-09-26</t>
   </si>
   <si>
-    <t>Guidance: general availability</t>
-  </si>
-  <si>
     <t>Reporting: (automated) sharing of reports , read only access</t>
   </si>
   <si>
@@ -868,12 +802,6 @@
     <t>Switch to Vite from Webpack</t>
   </si>
   <si>
-    <t>Client: Technical debt, responsiveness</t>
-  </si>
-  <si>
-    <t>Callout templates</t>
-  </si>
-  <si>
     <t>Community Invitations: Allowing inviting many (external) users at once</t>
   </si>
   <si>
@@ -883,9 +811,6 @@
     <t>Callouts: refreshed create flow</t>
   </si>
   <si>
-    <t>Journey settings v2: Space platform info, challenge, opportunity</t>
-  </si>
-  <si>
     <t>Community refinements: challenge invitations,  membership policy</t>
   </si>
   <si>
@@ -896,6 +821,165 @@
   </si>
   <si>
     <t>2024 H2</t>
+  </si>
+  <si>
+    <t>EpicPointsRemaining</t>
+  </si>
+  <si>
+    <t>Storage per entity, whiteboard images</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>Callout templates domain model update</t>
+  </si>
+  <si>
+    <t>Powered by....</t>
+  </si>
+  <si>
+    <t>Digicampus challenge promotion</t>
+  </si>
+  <si>
+    <t>Digicampus</t>
+  </si>
+  <si>
+    <t>Production issues: root cause analysis + reduction of noise</t>
+  </si>
+  <si>
+    <t>My Dashboard (My home page: Activity)</t>
+  </si>
+  <si>
+    <t>Svetoslav Petkov,Aleksandar Stojanovic</t>
+  </si>
+  <si>
+    <t>Experience for unauthorized users</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>Option to make opportunity private</t>
+  </si>
+  <si>
+    <t>Remove single-whiteboard entity</t>
+  </si>
+  <si>
+    <t>Refresh Spaces page (former Challenges page)</t>
+  </si>
+  <si>
+    <t>Refresh Contributors page</t>
+  </si>
+  <si>
+    <t>Activity Tracking: refresh of contributions monitoring</t>
+  </si>
+  <si>
+    <t>Reporting: track visitors and active users</t>
+  </si>
+  <si>
+    <t>Create on Create, not on Save</t>
+  </si>
+  <si>
+    <t>Epic,client,Product Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search: Add innovation library, forum, and help content to the search results! </t>
+  </si>
+  <si>
+    <t>Kratos 1.0</t>
+  </si>
+  <si>
+    <t>Epic,UX,Roadmap Discussion</t>
+  </si>
+  <si>
+    <t>Landing page v2</t>
+  </si>
+  <si>
+    <t>Content editing: Improvements</t>
+  </si>
+  <si>
+    <t>Space default callouts in pack</t>
+  </si>
+  <si>
+    <t>Journey settings v2: Space platform info, membership</t>
+  </si>
+  <si>
+    <t>UX Refinements - Round 5b</t>
+  </si>
+  <si>
+    <t>Callout Templates usage</t>
+  </si>
+  <si>
+    <t>QA: Test suite user authentication flows</t>
+  </si>
+  <si>
+    <t>Multi-user whiteboard: production beta</t>
+  </si>
+  <si>
+    <t>Activity tracking: deletion</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>Generation of URLs for client-web</t>
+  </si>
+  <si>
+    <t>Home page: Private workspace</t>
+  </si>
+  <si>
+    <t>Guidance: Improvements</t>
+  </si>
+  <si>
+    <t>Client: Technical debt</t>
+  </si>
+  <si>
+    <t>Multiple user editing of documents</t>
+  </si>
+  <si>
+    <t>Technical debt: Tags/Innovation flow template functionality redesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical debt: Client </t>
+  </si>
+  <si>
+    <t>Search: callouts</t>
+  </si>
+  <si>
+    <t>Notifications/subscriptions: community events, links, user applications</t>
+  </si>
+  <si>
+    <t>Innovation flow management</t>
+  </si>
+  <si>
+    <t>Innovation Hubs: Findings</t>
+  </si>
+  <si>
+    <t>User login / membership improvements</t>
+  </si>
+  <si>
+    <t>test-suites</t>
+  </si>
+  <si>
+    <t>QA: test suites using graphql - framework + initial migration</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>Whiteboard: interactive multi-user editing demonstrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restructure functional API tests folders </t>
+  </si>
+  <si>
+    <t>UX Refinements - Round 5a</t>
+  </si>
+  <si>
+    <t>Journey settings: challenge, community membership policy</t>
+  </si>
+  <si>
+    <t>Infrastructure: Domain mgmt, backups</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1096,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,8 +1126,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in 20% - Accent6" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1315,22 +1397,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1010</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,7 +1806,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,10 +1874,10 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,7 +1948,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,10 +2016,10 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2007,10 +2089,10 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,10 +2233,10 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>290</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,10 +2306,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>3</v>
@@ -3449,10 +3531,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>6</v>
@@ -3543,7 +3625,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="M7" s="10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -3616,7 +3698,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" ref="B10:B11" si="4">C9</f>
@@ -3650,7 +3732,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="4"/>
@@ -3684,7 +3766,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B12" s="4">
         <f>C11</f>
@@ -3737,7 +3819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3765,28 +3847,28 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
         <v>57</v>
@@ -3797,7 +3879,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <f t="shared" ref="B5:B11" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "&lt;&gt;Done")</f>
         <v>0</v>
       </c>
       <c r="C5" s="9">
@@ -3805,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "Done")</f>
+        <f t="shared" ref="D5:D11" si="1">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_STATUS, "Done")</f>
         <v>890</v>
       </c>
       <c r="E5" s="11">
@@ -3813,31 +3895,31 @@
         <v>890</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:L8" si="0">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4)</f>
+        <f t="shared" ref="F5:L8" si="2">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A5, EPICS_TYPE, F$4)</f>
         <v>230</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="M5">
@@ -3850,47 +3932,47 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C6" s="9">
         <f>Parameters!I7</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A6, EPICS_STATUS, "Done")</f>
-        <v>640</v>
+        <f t="shared" si="1"/>
+        <v>770</v>
       </c>
       <c r="E6" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
         <v>770</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="M6">
@@ -3904,52 +3986,52 @@
         <v>2023 Q3</v>
       </c>
       <c r="B7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C7" s="9">
         <f>Parameters!I8</f>
         <v>180</v>
       </c>
       <c r="D7">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A7, EPICS_STATUS, "Done")</f>
-        <v>310</v>
+        <f t="shared" si="1"/>
+        <v>620</v>
       </c>
       <c r="E7" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>910</v>
+        <v>620</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>230</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>230</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="M7">
         <f>Table3[[#This Row],[Total]]-SUM(F7:L7)</f>
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -3958,156 +4040,156 @@
         <v>2023 Q4</v>
       </c>
       <c r="B8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>1010</v>
+        <f t="shared" si="0"/>
+        <v>900</v>
       </c>
       <c r="C8" s="9">
         <f>Parameters!I9</f>
         <v>650</v>
       </c>
       <c r="D8">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A8, EPICS_STATUS, "Done")</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="E8" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>1010</v>
+        <v>970</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L8">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f t="shared" si="2"/>
+        <v>330</v>
       </c>
       <c r="M8">
         <f>Table3[[#This Row],[Total]]-SUM(F8:L8)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>880</v>
       </c>
       <c r="C9" s="9">
         <f>Parameters!I10</f>
         <v>600</v>
       </c>
-      <c r="D9" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_STATUS, "Done")</f>
+      <c r="D9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
+        <v>880</v>
+      </c>
+      <c r="F9">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, F$4)</f>
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:L10" si="3">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F9" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, F$4)</f>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, J$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, K$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A9, EPICS_TYPE, L$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="15">
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="M9">
         <f>Table3[[#This Row],[Total]]-SUM(F9:L9)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>540</v>
       </c>
       <c r="C10" s="9">
         <f>Parameters!I10</f>
         <v>600</v>
       </c>
-      <c r="D10" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_STATUS, "Done")</f>
+      <c r="D10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
+        <v>540</v>
+      </c>
+      <c r="F10">
+        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, F$4)</f>
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F10" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, F$4)</f>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, H$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, I$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, J$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, K$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A10, EPICS_TYPE, L$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="15">
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="M10">
         <f>Table3[[#This Row],[Total]]-SUM(F10:L10)</f>
         <v>0</v>
       </c>
@@ -4118,52 +4200,52 @@
         <v>2024 H2</v>
       </c>
       <c r="B11">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="C11">
         <f>Parameters!I12</f>
         <v>1307.1428571428571</v>
       </c>
       <c r="D11">
-        <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_STATUS, "Done")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="11">
         <f>SUM(Table3[[#This Row],[Done]], Table3[[#This Row],[Planned]])</f>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F11">
         <f>SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_TYPE, F$4)</f>
+        <v>110</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:L11" si="4">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
         <v>0</v>
       </c>
-      <c r="G11">
-        <f t="shared" ref="G11:L11" si="1">SUMIFS(EPICS_ESTIMATE, EPICS_PERIOD, $A11, EPICS_TYPE, G$4, EPICS_STATUS, "&lt;&gt;Done")</f>
-        <v>0</v>
-      </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>210</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>320</v>
       </c>
       <c r="M11">
         <f>Table3[[#This Row],[Total]]-SUM(F11:L11)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4179,10 +4261,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4200,7 +4282,7 @@
     <col min="12" max="12" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4235,10 +4317,13 @@
         <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4246,13 +4331,13 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -4261,13 +4346,13 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4281,7 +4366,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -4290,27 +4375,27 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -4331,7 +4416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -4339,7 +4424,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -4354,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5">
         <v>80</v>
@@ -4363,7 +4448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4377,7 +4462,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -4386,7 +4471,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -4395,7 +4480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4403,13 +4488,13 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -4427,7 +4512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4435,13 +4520,13 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -4450,13 +4535,13 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4470,7 +4555,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -4491,7 +4576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4499,13 +4584,13 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -4514,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4531,7 +4616,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -4546,13 +4631,13 @@
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4560,13 +4645,13 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -4581,7 +4666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4595,7 +4680,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -4607,7 +4692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4633,7 +4718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4647,7 +4732,7 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -4662,10 +4747,10 @@
         <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4679,7 +4764,7 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -4691,21 +4776,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -4714,7 +4799,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I17">
         <v>30</v>
@@ -4723,7 +4808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -4737,7 +4822,7 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -4746,13 +4831,13 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4760,13 +4845,13 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -4775,27 +4860,42 @@
         <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4803,19 +4903,31 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4823,28 +4935,31 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="K22" t="s">
+        <v>242</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4852,22 +4967,34 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4875,25 +5002,34 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>56</v>
       </c>
-      <c r="J24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>260</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>264</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -4901,25 +5037,34 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
       </c>
+      <c r="H25" t="s">
+        <v>260</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
       <c r="J25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="M25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4927,329 +5072,326 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26">
         <v>130</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>260</v>
+      </c>
+      <c r="I26">
         <v>110</v>
       </c>
-      <c r="F26">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
+        <v>267</v>
+      </c>
+      <c r="M26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27">
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28">
+        <v>151</v>
+      </c>
+      <c r="G28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30">
         <v>50</v>
       </c>
-      <c r="G28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" t="s">
-        <v>110</v>
-      </c>
       <c r="G30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="H30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
         <v>139</v>
       </c>
-      <c r="C31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31">
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33">
         <v>20</v>
       </c>
-      <c r="G31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32">
+      <c r="G33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35">
         <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" t="s">
-        <v>264</v>
-      </c>
-      <c r="J34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" t="s">
-        <v>80</v>
       </c>
       <c r="G35" t="s">
         <v>56</v>
       </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>109</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37">
+        <v>151</v>
+      </c>
+      <c r="G37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39">
         <v>30</v>
       </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39">
-        <v>50</v>
-      </c>
       <c r="G39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -5261,139 +5403,157 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
         <v>56</v>
       </c>
-      <c r="H40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41">
-        <v>30</v>
-      </c>
-      <c r="G41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>260</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H42" t="s">
+        <v>260</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44">
         <v>50</v>
       </c>
-      <c r="G43" t="s">
-        <v>238</v>
-      </c>
-      <c r="H43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44">
-        <v>30</v>
-      </c>
       <c r="G44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="K45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
         <v>109</v>
@@ -5402,82 +5562,82 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>255</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48">
         <v>30</v>
       </c>
-      <c r="G47" t="s">
-        <v>238</v>
-      </c>
-      <c r="K47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" t="s">
-        <v>110</v>
-      </c>
       <c r="G48" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="J48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -5485,42 +5645,39 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
         <v>129</v>
       </c>
-      <c r="D50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" t="s">
-        <v>80</v>
-      </c>
       <c r="G50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F51">
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="K51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -5528,25 +5685,16 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="G52" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -5557,19 +5705,19 @@
         <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -5577,22 +5725,25 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
         <v>109</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="H54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -5600,25 +5751,28 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F55">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
-      </c>
-      <c r="K55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>269</v>
+      </c>
+      <c r="M55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -5626,152 +5780,155 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
-      </c>
-      <c r="K56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="H56" t="s">
+        <v>269</v>
+      </c>
+      <c r="J56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>25</v>
       </c>
       <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
         <v>36</v>
       </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" t="s">
-        <v>159</v>
-      </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F59">
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
-      </c>
-      <c r="J59" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="H59" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F60">
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
-      </c>
-      <c r="K60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H60" t="s">
+        <v>269</v>
+      </c>
+      <c r="J60" t="s">
+        <v>239</v>
+      </c>
+      <c r="M60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F61">
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
-      </c>
-      <c r="J61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H61" t="s">
+        <v>269</v>
+      </c>
+      <c r="K61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -5779,97 +5936,121 @@
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s">
+        <v>255</v>
+      </c>
+      <c r="H62" t="s">
+        <v>269</v>
+      </c>
+      <c r="I62">
         <v>30</v>
       </c>
-      <c r="G62" t="s">
-        <v>238</v>
-      </c>
-      <c r="J62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F63">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
-      </c>
-      <c r="J63" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s">
+        <v>269</v>
+      </c>
+      <c r="M63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F64">
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H64" t="s">
+        <v>269</v>
+      </c>
+      <c r="M64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F65">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H65" t="s">
+        <v>269</v>
+      </c>
+      <c r="I65">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -5877,28 +6058,25 @@
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F66">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
-      </c>
-      <c r="I66">
-        <v>10</v>
-      </c>
-      <c r="J66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="H66" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -5906,28 +6084,25 @@
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F67">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
-      </c>
-      <c r="J67" t="s">
-        <v>34</v>
-      </c>
-      <c r="K67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="I67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -5935,97 +6110,88 @@
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68">
+        <v>151</v>
+      </c>
+      <c r="G68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H68" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" t="s">
+        <v>151</v>
+      </c>
+      <c r="G69" t="s">
+        <v>256</v>
+      </c>
+      <c r="H69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s">
+        <v>256</v>
+      </c>
+      <c r="K70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71">
         <v>30</v>
       </c>
-      <c r="G68" t="s">
-        <v>238</v>
-      </c>
-      <c r="J68" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" t="s">
-        <v>130</v>
-      </c>
-      <c r="E69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>238</v>
-      </c>
-      <c r="J69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" t="s">
-        <v>115</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
       <c r="G71" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -6033,94 +6199,91 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="E72" t="s">
+        <v>95</v>
       </c>
       <c r="F72">
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>238</v>
-      </c>
-      <c r="K72" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="D73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s">
+        <v>256</v>
+      </c>
+      <c r="K74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" t="s">
         <v>109</v>
       </c>
-      <c r="G73" t="s">
-        <v>238</v>
-      </c>
-      <c r="K73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" t="s">
-        <v>249</v>
-      </c>
-      <c r="D74" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" t="s">
-        <v>96</v>
-      </c>
-      <c r="F74">
-        <v>20</v>
-      </c>
-      <c r="J74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" t="s">
-        <v>96</v>
-      </c>
       <c r="F75">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -6128,48 +6291,51 @@
         <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="E76" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F76">
-        <v>80</v>
-      </c>
-      <c r="K76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>256</v>
+      </c>
+      <c r="J76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F77">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -6177,28 +6343,22 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="E78" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="F78">
         <v>50</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" t="s">
-        <v>203</v>
-      </c>
-      <c r="I78">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -6206,655 +6366,799 @@
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79">
+        <v>129</v>
+      </c>
+      <c r="G79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" t="s">
+        <v>256</v>
+      </c>
+      <c r="K82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83">
         <v>50</v>
       </c>
-      <c r="G79" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" t="s">
-        <v>215</v>
-      </c>
-      <c r="I79">
+      <c r="G83" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85">
         <v>30</v>
       </c>
-      <c r="J79" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" t="s">
-        <v>28</v>
-      </c>
-      <c r="E80" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80">
+      <c r="G85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86">
         <v>50</v>
       </c>
-      <c r="G80" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" t="s">
-        <v>80</v>
-      </c>
-      <c r="F81">
-        <v>50</v>
-      </c>
-      <c r="G81" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81">
-        <v>30</v>
-      </c>
-      <c r="J81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" t="s">
-        <v>28</v>
-      </c>
-      <c r="E82" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82">
-        <v>50</v>
-      </c>
-      <c r="G82" t="s">
-        <v>9</v>
-      </c>
-      <c r="J82" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" t="s">
-        <v>110</v>
-      </c>
-      <c r="F83">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>9</v>
-      </c>
-      <c r="J83" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" t="s">
-        <v>200</v>
-      </c>
-      <c r="D84" t="s">
-        <v>158</v>
-      </c>
-      <c r="E84" t="s">
-        <v>80</v>
-      </c>
-      <c r="F84">
-        <v>80</v>
-      </c>
-      <c r="G84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85">
-        <v>50</v>
-      </c>
-      <c r="G85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" t="s">
-        <v>161</v>
-      </c>
-      <c r="C86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E86" t="s">
-        <v>110</v>
-      </c>
-      <c r="F86">
-        <v>80</v>
-      </c>
       <c r="G86" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" t="s">
-        <v>162</v>
-      </c>
-      <c r="I86">
-        <v>80</v>
-      </c>
-      <c r="K86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F87">
         <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F88">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="K88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
-      </c>
-      <c r="E89" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="F89">
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="H89" t="s">
-        <v>147</v>
-      </c>
-      <c r="I89">
-        <v>20</v>
-      </c>
-      <c r="J89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F90">
         <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="H90" t="s">
-        <v>146</v>
-      </c>
-      <c r="I90">
+        <v>269</v>
+      </c>
+      <c r="M90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" t="s">
+        <v>109</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>255</v>
+      </c>
+      <c r="H91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" t="s">
+        <v>300</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" t="s">
+        <v>79</v>
+      </c>
+      <c r="F93">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>255</v>
+      </c>
+      <c r="H93" t="s">
+        <v>269</v>
+      </c>
+      <c r="K93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>108</v>
+      </c>
+      <c r="F94">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="G94" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" t="s">
+        <v>80</v>
+      </c>
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" t="s">
+        <v>80</v>
+      </c>
+      <c r="F96">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
         <v>36</v>
       </c>
-      <c r="C91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" t="s">
-        <v>110</v>
-      </c>
-      <c r="F91">
+      <c r="C97" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97">
         <v>80</v>
       </c>
-      <c r="G91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" t="s">
-        <v>153</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="G97" t="s">
+        <v>257</v>
+      </c>
+      <c r="K97" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" t="s">
-        <v>156</v>
-      </c>
-      <c r="D93" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>257</v>
+      </c>
+      <c r="K98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" t="s">
+        <v>257</v>
+      </c>
+      <c r="K99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
         <v>36</v>
       </c>
-      <c r="C94" t="s">
-        <v>157</v>
-      </c>
-      <c r="D94" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B95" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" t="s">
-        <v>175</v>
-      </c>
-      <c r="D95" t="s">
-        <v>153</v>
-      </c>
-      <c r="H95" t="s">
-        <v>94</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="C100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>257</v>
+      </c>
+      <c r="J101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
+        <v>255</v>
+      </c>
+      <c r="J104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106">
+        <v>50</v>
+      </c>
+      <c r="G106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>25</v>
-      </c>
-      <c r="B96" t="s">
-        <v>173</v>
-      </c>
-      <c r="C96" t="s">
-        <v>176</v>
-      </c>
-      <c r="D96" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" t="s">
-        <v>173</v>
-      </c>
-      <c r="C97" t="s">
-        <v>177</v>
-      </c>
-      <c r="D97" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>25</v>
-      </c>
-      <c r="B99" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" t="s">
-        <v>221</v>
-      </c>
-      <c r="D100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" t="s">
-        <v>173</v>
-      </c>
-      <c r="C101" t="s">
-        <v>180</v>
-      </c>
-      <c r="D101" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" t="s">
-        <v>173</v>
-      </c>
-      <c r="C102" t="s">
-        <v>181</v>
-      </c>
-      <c r="D102" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" t="s">
-        <v>182</v>
-      </c>
-      <c r="D103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" t="s">
-        <v>173</v>
-      </c>
-      <c r="C104" t="s">
-        <v>183</v>
-      </c>
-      <c r="D104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" t="s">
-        <v>185</v>
-      </c>
-      <c r="D105" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" t="s">
-        <v>173</v>
-      </c>
-      <c r="C106" t="s">
-        <v>186</v>
-      </c>
-      <c r="D106" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" t="s">
-        <v>173</v>
-      </c>
-      <c r="C107" t="s">
-        <v>187</v>
-      </c>
       <c r="D107" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+      <c r="E107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s">
+        <v>257</v>
+      </c>
+      <c r="K107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D108" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="E108" t="s">
+        <v>79</v>
+      </c>
+      <c r="G108" t="s">
+        <v>257</v>
+      </c>
+      <c r="K108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="D109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+      <c r="E109" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109">
+        <v>30</v>
+      </c>
+      <c r="G109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+      <c r="E110" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
+        <v>257</v>
+      </c>
+      <c r="J110" t="s">
+        <v>34</v>
+      </c>
+      <c r="K110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="E111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>257</v>
+      </c>
+      <c r="K111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="E112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F112">
+        <v>50</v>
+      </c>
+      <c r="G112" t="s">
+        <v>257</v>
+      </c>
+      <c r="J112" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6862,50 +7166,74 @@
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="E113" t="s">
+        <v>95</v>
+      </c>
+      <c r="F113">
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>56</v>
+        <v>257</v>
+      </c>
+      <c r="J113" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="D114" t="s">
-        <v>153</v>
+        <v>63</v>
+      </c>
+      <c r="E114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114">
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>56</v>
+        <v>257</v>
+      </c>
+      <c r="J114" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="D115" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="E115" t="s">
+        <v>80</v>
+      </c>
+      <c r="F115">
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>56</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6913,16 +7241,22 @@
         <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="D116" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="E116" t="s">
+        <v>108</v>
+      </c>
+      <c r="F116">
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6930,16 +7264,28 @@
         <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C117" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="D117" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="E117" t="s">
+        <v>109</v>
+      </c>
+      <c r="F117">
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
+        <v>257</v>
+      </c>
+      <c r="I117">
+        <v>10</v>
+      </c>
+      <c r="J117" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6947,16 +7293,28 @@
         <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="D118" t="s">
-        <v>153</v>
+        <v>63</v>
+      </c>
+      <c r="E118" t="s">
+        <v>79</v>
+      </c>
+      <c r="F118">
+        <v>80</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>257</v>
+      </c>
+      <c r="J118" t="s">
+        <v>34</v>
+      </c>
+      <c r="K118" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -6964,103 +7322,97 @@
         <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="E119" t="s">
+        <v>109</v>
+      </c>
+      <c r="F119">
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>257</v>
+      </c>
+      <c r="J119" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="D120" t="s">
-        <v>43</v>
+        <v>129</v>
+      </c>
+      <c r="E120" t="s">
+        <v>91</v>
       </c>
       <c r="F120">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>56</v>
-      </c>
-      <c r="H120" t="s">
-        <v>251</v>
-      </c>
-      <c r="K120" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="J120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="D121" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E121" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F121">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>55</v>
-      </c>
-      <c r="H121" t="s">
-        <v>256</v>
-      </c>
-      <c r="I121">
-        <v>20</v>
-      </c>
-      <c r="K121" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F122">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>55</v>
-      </c>
-      <c r="H122" t="s">
-        <v>259</v>
-      </c>
-      <c r="I122">
-        <v>20</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -7071,251 +7423,239 @@
         <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E123" t="s">
         <v>109</v>
       </c>
       <c r="F123">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" t="s">
+        <v>140</v>
+      </c>
+      <c r="D124" t="s">
+        <v>129</v>
+      </c>
+      <c r="E124" t="s">
+        <v>108</v>
+      </c>
+      <c r="G124" t="s">
+        <v>257</v>
+      </c>
+      <c r="K124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>95</v>
+      </c>
+      <c r="F125">
         <v>10</v>
       </c>
-      <c r="H123" t="s">
-        <v>241</v>
-      </c>
-      <c r="I123">
-        <v>30</v>
-      </c>
-      <c r="J123" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" t="s">
-        <v>26</v>
-      </c>
-      <c r="C124" t="s">
-        <v>101</v>
-      </c>
-      <c r="D124" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="G125" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" t="s">
         <v>110</v>
       </c>
-      <c r="F124">
-        <v>50</v>
-      </c>
-      <c r="G124" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B125" t="s">
-        <v>229</v>
-      </c>
-      <c r="C125" t="s">
-        <v>163</v>
-      </c>
-      <c r="D125" t="s">
-        <v>43</v>
-      </c>
-      <c r="E125" t="s">
-        <v>80</v>
-      </c>
-      <c r="F125">
-        <v>50</v>
-      </c>
-      <c r="G125" t="s">
-        <v>55</v>
-      </c>
-      <c r="H125" t="s">
-        <v>256</v>
-      </c>
-      <c r="K125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>25</v>
-      </c>
-      <c r="B126" t="s">
-        <v>26</v>
-      </c>
-      <c r="C126" t="s">
-        <v>61</v>
-      </c>
       <c r="D126" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F126">
         <v>50</v>
       </c>
       <c r="G126" t="s">
-        <v>55</v>
-      </c>
-      <c r="H126" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F127">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" t="s">
+        <v>192</v>
+      </c>
+      <c r="I127">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128">
+        <v>50</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" t="s">
+        <v>202</v>
+      </c>
+      <c r="I128">
         <v>30</v>
-      </c>
-      <c r="G127" t="s">
-        <v>56</v>
-      </c>
-      <c r="H127" t="s">
-        <v>256</v>
-      </c>
-      <c r="K127" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" t="s">
-        <v>26</v>
-      </c>
-      <c r="C128" t="s">
-        <v>68</v>
-      </c>
-      <c r="D128" t="s">
-        <v>130</v>
-      </c>
-      <c r="E128" t="s">
-        <v>96</v>
-      </c>
-      <c r="F128">
-        <v>30</v>
-      </c>
-      <c r="G128" t="s">
-        <v>55</v>
-      </c>
-      <c r="H128" t="s">
-        <v>256</v>
       </c>
       <c r="J128" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="C129" t="s">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="D129" t="s">
-        <v>262</v>
+        <v>28</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
       </c>
       <c r="F129">
         <v>50</v>
       </c>
       <c r="G129" t="s">
-        <v>55</v>
-      </c>
-      <c r="H129" t="s">
-        <v>259</v>
-      </c>
-      <c r="K129" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="D130" t="s">
         <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F130">
         <v>50</v>
       </c>
       <c r="G130" t="s">
-        <v>55</v>
-      </c>
-      <c r="H130" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="I130">
+        <v>30</v>
+      </c>
+      <c r="J130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="D131" t="s">
         <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F131">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G131" t="s">
-        <v>55</v>
-      </c>
-      <c r="H131" t="s">
-        <v>241</v>
-      </c>
-      <c r="K131" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="J131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -7323,22 +7663,25 @@
         <v>26</v>
       </c>
       <c r="C132" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="D132" t="s">
         <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F132">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H132" t="s">
-        <v>255</v>
+        <v>235</v>
+      </c>
+      <c r="J132" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -7346,57 +7689,51 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="C133" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E133" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F133">
         <v>50</v>
       </c>
       <c r="G133" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" t="s">
-        <v>259</v>
-      </c>
-      <c r="I133">
-        <v>20</v>
-      </c>
-      <c r="K133" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="D134" t="s">
         <v>28</v>
       </c>
       <c r="E134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F134">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G134" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="H134" t="s">
-        <v>255</v>
+        <v>158</v>
+      </c>
+      <c r="I134">
+        <v>80</v>
       </c>
       <c r="K134" t="s">
         <v>29</v>
@@ -7410,31 +7747,25 @@
         <v>26</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D135" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F135">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G135" t="s">
         <v>10</v>
       </c>
       <c r="H135" t="s">
-        <v>259</v>
-      </c>
-      <c r="I135">
-        <v>20</v>
-      </c>
-      <c r="K135" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -7442,86 +7773,86 @@
         <v>26</v>
       </c>
       <c r="C136" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="D136" t="s">
         <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F136">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="H136" t="s">
-        <v>259</v>
-      </c>
-      <c r="I136">
-        <v>10</v>
-      </c>
-      <c r="J136" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="K136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="D137" t="s">
         <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F137">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="H137" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="I137">
         <v>20</v>
       </c>
-      <c r="K137" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
         <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="D138" t="s">
         <v>28</v>
       </c>
       <c r="E138" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F138">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H138" t="s">
-        <v>255</v>
+        <v>144</v>
+      </c>
+      <c r="I138">
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -7529,42 +7860,36 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>265</v>
+        <v>53</v>
       </c>
       <c r="D139" t="s">
-        <v>153</v>
-      </c>
-      <c r="H139" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="E139" t="s">
+        <v>109</v>
+      </c>
+      <c r="F139">
+        <v>80</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>25</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C140" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
-      </c>
-      <c r="E140" t="s">
-        <v>96</v>
-      </c>
-      <c r="F140">
-        <v>80</v>
-      </c>
-      <c r="G140" t="s">
-        <v>55</v>
-      </c>
-      <c r="H140" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -7572,25 +7897,13 @@
         <v>25</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C141" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D141" t="s">
-        <v>130</v>
-      </c>
-      <c r="E141" t="s">
-        <v>96</v>
-      </c>
-      <c r="F141">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>56</v>
-      </c>
-      <c r="I141">
-        <v>10</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -7598,28 +7911,19 @@
         <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C142" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" t="s">
-        <v>109</v>
-      </c>
-      <c r="F142">
-        <v>80</v>
-      </c>
-      <c r="G142" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="H142" t="s">
-        <v>215</v>
-      </c>
-      <c r="I142">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="J142" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -7627,344 +7931,820 @@
         <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="D143" t="s">
-        <v>153</v>
-      </c>
-      <c r="E143" t="s">
-        <v>96</v>
-      </c>
-      <c r="F143">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" t="s">
+        <v>169</v>
+      </c>
+      <c r="C144" t="s">
+        <v>174</v>
+      </c>
+      <c r="D144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" t="s">
+        <v>175</v>
+      </c>
+      <c r="D145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" t="s">
+        <v>208</v>
+      </c>
+      <c r="D146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" t="s">
+        <v>169</v>
+      </c>
+      <c r="C148" t="s">
+        <v>176</v>
+      </c>
+      <c r="D148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>25</v>
+      </c>
+      <c r="B149" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151" t="s">
+        <v>169</v>
+      </c>
+      <c r="C151" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" t="s">
+        <v>182</v>
+      </c>
+      <c r="D152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" t="s">
+        <v>169</v>
+      </c>
+      <c r="C153" t="s">
+        <v>183</v>
+      </c>
+      <c r="D153" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" t="s">
+        <v>169</v>
+      </c>
+      <c r="C154" t="s">
+        <v>184</v>
+      </c>
+      <c r="D154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155" t="s">
+        <v>185</v>
+      </c>
+      <c r="D155" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" t="s">
+        <v>186</v>
+      </c>
+      <c r="D156" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" t="s">
+        <v>187</v>
+      </c>
+      <c r="D157" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>25</v>
+      </c>
+      <c r="B158" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" t="s">
+        <v>188</v>
+      </c>
+      <c r="D158" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>25</v>
+      </c>
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" t="s">
+        <v>302</v>
+      </c>
+      <c r="D159" t="s">
+        <v>43</v>
+      </c>
+      <c r="E159" t="s">
+        <v>109</v>
+      </c>
+      <c r="F159">
         <v>30</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G159" t="s">
         <v>56</v>
       </c>
-      <c r="J143" t="s">
+      <c r="M159">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>303</v>
+      </c>
+      <c r="B160" t="s">
+        <v>119</v>
+      </c>
+      <c r="C160" t="s">
+        <v>304</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160">
+        <v>50</v>
+      </c>
+      <c r="G160" t="s">
+        <v>56</v>
+      </c>
+      <c r="H160" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>25</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>221</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" t="s">
+        <v>79</v>
+      </c>
+      <c r="F161">
+        <v>50</v>
+      </c>
+      <c r="G161" t="s">
+        <v>55</v>
+      </c>
+      <c r="H161" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" t="s">
+        <v>229</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" t="s">
+        <v>108</v>
+      </c>
+      <c r="F162">
+        <v>30</v>
+      </c>
+      <c r="G162" t="s">
+        <v>55</v>
+      </c>
+      <c r="H162" t="s">
+        <v>224</v>
+      </c>
+      <c r="K162" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163" t="s">
+        <v>222</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
+        <v>108</v>
+      </c>
+      <c r="F163">
+        <v>80</v>
+      </c>
+      <c r="G163" t="s">
+        <v>10</v>
+      </c>
+      <c r="H163" t="s">
+        <v>224</v>
+      </c>
+      <c r="I163">
+        <v>30</v>
+      </c>
+      <c r="J163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" t="s">
+        <v>233</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" t="s">
+        <v>79</v>
+      </c>
+      <c r="F164">
+        <v>50</v>
+      </c>
+      <c r="G164" t="s">
+        <v>55</v>
+      </c>
+      <c r="H164" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165" t="s">
+        <v>200</v>
+      </c>
+      <c r="C165" t="s">
+        <v>219</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" t="s">
+        <v>109</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165" t="s">
+        <v>55</v>
+      </c>
+      <c r="H165" t="s">
+        <v>234</v>
+      </c>
+      <c r="K165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" t="s">
+        <v>194</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
+        <v>79</v>
+      </c>
+      <c r="F166">
+        <v>50</v>
+      </c>
+      <c r="G166" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" t="s">
+        <v>235</v>
+      </c>
+      <c r="I166">
+        <v>20</v>
+      </c>
+      <c r="K166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" t="s">
+        <v>306</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" t="s">
+        <v>79</v>
+      </c>
+      <c r="F167">
+        <v>80</v>
+      </c>
+      <c r="G167" t="s">
+        <v>55</v>
+      </c>
+      <c r="H167" t="s">
+        <v>235</v>
+      </c>
+      <c r="I167">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" t="s">
+        <v>237</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" t="s">
+        <v>95</v>
+      </c>
+      <c r="F168">
+        <v>80</v>
+      </c>
+      <c r="G168" t="s">
+        <v>55</v>
+      </c>
+      <c r="H168" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>25</v>
+      </c>
+      <c r="B169" t="s">
+        <v>26</v>
+      </c>
+      <c r="C169" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" t="s">
+        <v>95</v>
+      </c>
+      <c r="F169">
+        <v>80</v>
+      </c>
+      <c r="G169" t="s">
+        <v>55</v>
+      </c>
+      <c r="H169" t="s">
+        <v>238</v>
+      </c>
+      <c r="I169">
+        <v>10</v>
+      </c>
+      <c r="J169" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" t="s">
+        <v>147</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" t="s">
+        <v>108</v>
+      </c>
+      <c r="F170">
+        <v>80</v>
+      </c>
+      <c r="G170" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" t="s">
+        <v>238</v>
+      </c>
+      <c r="I170">
+        <v>20</v>
+      </c>
+      <c r="K170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>25</v>
+      </c>
+      <c r="B171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" t="s">
+        <v>230</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" t="s">
+        <v>40</v>
+      </c>
+      <c r="F171">
+        <v>50</v>
+      </c>
+      <c r="G171" t="s">
+        <v>55</v>
+      </c>
+      <c r="H171" t="s">
+        <v>93</v>
+      </c>
+      <c r="I171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172" t="s">
+        <v>135</v>
+      </c>
+      <c r="C172" t="s">
+        <v>209</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" t="s">
+        <v>109</v>
+      </c>
+      <c r="F172">
+        <v>50</v>
+      </c>
+      <c r="G172" t="s">
+        <v>55</v>
+      </c>
+      <c r="H172" t="s">
+        <v>238</v>
+      </c>
+      <c r="I172">
+        <v>20</v>
+      </c>
+      <c r="K172" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>25</v>
+      </c>
+      <c r="B173" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" t="s">
+        <v>143</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" t="s">
+        <v>108</v>
+      </c>
+      <c r="F173">
+        <v>80</v>
+      </c>
+      <c r="G173" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173" t="s">
+        <v>202</v>
+      </c>
+      <c r="I173">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" t="s">
+        <v>248</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" t="s">
+        <v>108</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>55</v>
+      </c>
+      <c r="H174" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" t="s">
+        <v>250</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" t="s">
+        <v>80</v>
+      </c>
+      <c r="F175">
+        <v>50</v>
+      </c>
+      <c r="G175" t="s">
+        <v>55</v>
+      </c>
+      <c r="H175" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>303</v>
+      </c>
+      <c r="B176" t="s">
+        <v>119</v>
+      </c>
+      <c r="C176" t="s">
+        <v>307</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>56</v>
+      </c>
+      <c r="H176" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" t="s">
+        <v>308</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>55</v>
+      </c>
+      <c r="H177" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" t="s">
+        <v>309</v>
+      </c>
+      <c r="D178" t="s">
+        <v>241</v>
+      </c>
+      <c r="E178" t="s">
+        <v>109</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179" t="s">
+        <v>310</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179" t="s">
+        <v>91</v>
+      </c>
+      <c r="F179">
+        <v>50</v>
+      </c>
+      <c r="G179" t="s">
+        <v>56</v>
+      </c>
+      <c r="H179" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>25</v>
-      </c>
-      <c r="B144" t="s">
-        <v>26</v>
-      </c>
-      <c r="C144" t="s">
-        <v>272</v>
-      </c>
-      <c r="D144" t="s">
-        <v>31</v>
-      </c>
-      <c r="E144" t="s">
-        <v>81</v>
-      </c>
-      <c r="F144">
-        <v>50</v>
-      </c>
-      <c r="G144" t="s">
-        <v>55</v>
-      </c>
-      <c r="H144" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>25</v>
-      </c>
-      <c r="B145" t="s">
-        <v>141</v>
-      </c>
-      <c r="C145" t="s">
-        <v>268</v>
-      </c>
-      <c r="D145" t="s">
-        <v>153</v>
-      </c>
-      <c r="G145" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>25</v>
-      </c>
-      <c r="B146" t="s">
-        <v>141</v>
-      </c>
-      <c r="C146" t="s">
-        <v>205</v>
-      </c>
-      <c r="D146" t="s">
-        <v>130</v>
-      </c>
-      <c r="E146" t="s">
-        <v>110</v>
-      </c>
-      <c r="F146">
-        <v>80</v>
-      </c>
-      <c r="G146" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>25</v>
-      </c>
-      <c r="B147" t="s">
-        <v>229</v>
-      </c>
-      <c r="C147" t="s">
-        <v>275</v>
-      </c>
-      <c r="D147" t="s">
-        <v>153</v>
-      </c>
-      <c r="E147" t="s">
-        <v>109</v>
-      </c>
-      <c r="G147" t="s">
-        <v>56</v>
-      </c>
-      <c r="K147" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>25</v>
-      </c>
-      <c r="B148" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" t="s">
-        <v>227</v>
-      </c>
-      <c r="D148" t="s">
-        <v>153</v>
-      </c>
-      <c r="E148" t="s">
-        <v>96</v>
-      </c>
-      <c r="F148">
+      <c r="M179">
         <v>30</v>
       </c>
-      <c r="G148" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>25</v>
-      </c>
-      <c r="B149" t="s">
-        <v>141</v>
-      </c>
-      <c r="C149" t="s">
-        <v>267</v>
-      </c>
-      <c r="D149" t="s">
-        <v>153</v>
-      </c>
-      <c r="E149" t="s">
-        <v>110</v>
-      </c>
-      <c r="F149">
-        <v>50</v>
-      </c>
-      <c r="G149" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>25</v>
-      </c>
-      <c r="B150" t="s">
-        <v>141</v>
-      </c>
-      <c r="C150" t="s">
-        <v>271</v>
-      </c>
-      <c r="D150" t="s">
-        <v>153</v>
-      </c>
-      <c r="H150" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>25</v>
-      </c>
-      <c r="B151" t="s">
-        <v>26</v>
-      </c>
-      <c r="C151" t="s">
-        <v>276</v>
-      </c>
-      <c r="D151" t="s">
-        <v>153</v>
-      </c>
-      <c r="F151">
-        <v>30</v>
-      </c>
-      <c r="G151" t="s">
-        <v>55</v>
-      </c>
-      <c r="J151" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>25</v>
-      </c>
-      <c r="B152" t="s">
-        <v>26</v>
-      </c>
-      <c r="C152" t="s">
-        <v>273</v>
-      </c>
-      <c r="D152" t="s">
-        <v>153</v>
-      </c>
-      <c r="E152" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152">
-        <v>50</v>
-      </c>
-      <c r="G152" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" t="s">
-        <v>36</v>
-      </c>
-      <c r="C153" t="s">
-        <v>277</v>
-      </c>
-      <c r="D153" t="s">
-        <v>153</v>
-      </c>
-      <c r="F153">
-        <v>30</v>
-      </c>
-      <c r="G153" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>25</v>
-      </c>
-      <c r="B154" t="s">
-        <v>257</v>
-      </c>
-      <c r="C154" t="s">
-        <v>244</v>
-      </c>
-      <c r="D154" t="s">
-        <v>43</v>
-      </c>
-      <c r="E154" t="s">
-        <v>80</v>
-      </c>
-      <c r="F154">
-        <v>50</v>
-      </c>
-      <c r="G154" t="s">
-        <v>56</v>
-      </c>
-      <c r="H154" t="s">
-        <v>256</v>
-      </c>
-      <c r="K154" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>25</v>
-      </c>
-      <c r="B155" t="s">
-        <v>141</v>
-      </c>
-      <c r="C155" t="s">
-        <v>250</v>
-      </c>
-      <c r="D155" t="s">
-        <v>153</v>
-      </c>
-      <c r="E155" t="s">
-        <v>80</v>
-      </c>
-      <c r="F155">
-        <v>50</v>
-      </c>
-      <c r="G155" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" t="s">
-        <v>26</v>
-      </c>
-      <c r="C156" t="s">
-        <v>278</v>
-      </c>
-      <c r="D156" t="s">
-        <v>153</v>
-      </c>
-      <c r="F156">
-        <v>50</v>
-      </c>
-      <c r="G156" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>25</v>
-      </c>
-      <c r="B157" t="s">
-        <v>141</v>
-      </c>
-      <c r="C157" t="s">
-        <v>279</v>
-      </c>
-      <c r="D157" t="s">
-        <v>153</v>
-      </c>
-      <c r="G157" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L157" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
+  <autoFilter ref="A1:M179" xr:uid="{F51DC3D3-F51C-4A1C-8876-FB0FD1045D79}">
     <filterColumn colId="6">
       <filters>
-        <filter val="2023 Q3"/>
+        <filter val="2023 Q4"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A121:L153">
-      <sortCondition ref="D1:D157"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
